--- a/Code/Results/Cases/Case_1_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_6/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8234218994343608</v>
+        <v>0.8234218994343605</v>
       </c>
       <c r="D2">
-        <v>0.9890669606445223</v>
+        <v>0.9890669606445226</v>
       </c>
       <c r="E2">
         <v>0.8535831580284805</v>
       </c>
       <c r="F2">
-        <v>0.8643591192658021</v>
+        <v>0.8643591192658019</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -448,7 +448,7 @@
         <v>0.8675451244197707</v>
       </c>
       <c r="M2">
-        <v>0.8780988076184193</v>
+        <v>0.8780988076184191</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8613408777254691</v>
+        <v>0.8613408777254661</v>
       </c>
       <c r="D3">
-        <v>1.001396964313082</v>
+        <v>1.001396964313081</v>
       </c>
       <c r="E3">
-        <v>0.8862544300049859</v>
+        <v>0.8862544300049836</v>
       </c>
       <c r="F3">
-        <v>0.8974035264210239</v>
+        <v>0.8974035264210215</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.036719454037728</v>
       </c>
       <c r="J3">
-        <v>0.8864868109131057</v>
+        <v>0.8864868109131028</v>
       </c>
       <c r="K3">
-        <v>1.012012001871483</v>
+        <v>1.012012001871482</v>
       </c>
       <c r="L3">
-        <v>0.8985841944299346</v>
+        <v>0.8985841944299322</v>
       </c>
       <c r="M3">
-        <v>0.9095424523634503</v>
+        <v>0.9095424523634481</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8819039239209225</v>
+        <v>0.8819039239209198</v>
       </c>
       <c r="D4">
         <v>1.008295433030698</v>
       </c>
       <c r="E4">
-        <v>0.9040254966413612</v>
+        <v>0.9040254966413585</v>
       </c>
       <c r="F4">
-        <v>0.9154434183302359</v>
+        <v>0.9154434183302338</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.039886913728187</v>
       </c>
       <c r="J4">
-        <v>0.9049006582932632</v>
+        <v>0.9049006582932606</v>
       </c>
       <c r="K4">
-        <v>1.018294759965679</v>
+        <v>1.018294759965678</v>
       </c>
       <c r="L4">
-        <v>0.9154391411880577</v>
+        <v>0.9154391411880552</v>
       </c>
       <c r="M4">
-        <v>0.9266822011717631</v>
+        <v>0.9266822011717611</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8898767228148169</v>
+        <v>0.8898767228148186</v>
       </c>
       <c r="D5">
-        <v>1.011005117058731</v>
+        <v>1.011005117058732</v>
       </c>
       <c r="E5">
-        <v>0.9109241697920084</v>
+        <v>0.91092416979201</v>
       </c>
       <c r="F5">
-        <v>0.9224549900839748</v>
+        <v>0.922454990083977</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.041120777263173</v>
       </c>
       <c r="J5">
-        <v>0.9120414358704219</v>
+        <v>0.9120414358704234</v>
       </c>
       <c r="K5">
-        <v>1.020751194435144</v>
+        <v>1.020751194435145</v>
       </c>
       <c r="L5">
-        <v>0.9219761347693659</v>
+        <v>0.9219761347693675</v>
       </c>
       <c r="M5">
-        <v>0.9333382152865736</v>
+        <v>0.9333382152865758</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.891181398432108</v>
+        <v>0.8911813984321044</v>
       </c>
       <c r="D6">
         <v>1.011450259770894</v>
       </c>
       <c r="E6">
-        <v>0.9120534795512123</v>
+        <v>0.912053479551209</v>
       </c>
       <c r="F6">
-        <v>0.9236031391110706</v>
+        <v>0.9236031391110683</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041322891075882</v>
+        <v>1.041322891075883</v>
       </c>
       <c r="J6">
-        <v>0.9132099791845409</v>
+        <v>0.9132099791845374</v>
       </c>
       <c r="K6">
         <v>1.021154108014391</v>
       </c>
       <c r="L6">
-        <v>0.9230458970195798</v>
+        <v>0.9230458970195768</v>
       </c>
       <c r="M6">
-        <v>0.9344278172924474</v>
+        <v>0.934427817292445</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.88201283915017</v>
+        <v>0.8820128391501664</v>
       </c>
       <c r="D7">
-        <v>1.008332324393879</v>
+        <v>1.008332324393878</v>
       </c>
       <c r="E7">
-        <v>0.9041197088399801</v>
+        <v>0.9041197088399768</v>
       </c>
       <c r="F7">
-        <v>0.9155391448971482</v>
+        <v>0.9155391448971455</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039903752642878</v>
+        <v>1.039903752642877</v>
       </c>
       <c r="J7">
-        <v>0.9049982049136356</v>
+        <v>0.9049982049136321</v>
       </c>
       <c r="K7">
         <v>1.018328247090289</v>
       </c>
       <c r="L7">
-        <v>0.9155284377505529</v>
+        <v>0.9155284377505496</v>
       </c>
       <c r="M7">
-        <v>0.9267730958781781</v>
+        <v>0.9267730958781755</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8372931567317334</v>
+        <v>0.8372931567317324</v>
       </c>
       <c r="D8">
         <v>0.9935138543611527</v>
       </c>
       <c r="E8">
-        <v>0.8655180116952559</v>
+        <v>0.8655180116952552</v>
       </c>
       <c r="F8">
-        <v>0.8764082556035098</v>
+        <v>0.876408255603509</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J8">
-        <v>0.8649657416025481</v>
+        <v>0.8649657416025471</v>
       </c>
       <c r="K8">
-        <v>1.004782407385583</v>
+        <v>1.004782407385582</v>
       </c>
       <c r="L8">
-        <v>0.8788909679372848</v>
+        <v>0.8788909679372842</v>
       </c>
       <c r="M8">
-        <v>0.8895708795426064</v>
+        <v>0.8895708795426058</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8372931567317334</v>
+        <v>0.8372931567317324</v>
       </c>
       <c r="D9">
         <v>0.9935138543611527</v>
       </c>
       <c r="E9">
-        <v>0.8655180116952559</v>
+        <v>0.8655180116952552</v>
       </c>
       <c r="F9">
-        <v>0.8764082556035098</v>
+        <v>0.876408255603509</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J9">
-        <v>0.8649657416025481</v>
+        <v>0.8649657416025471</v>
       </c>
       <c r="K9">
-        <v>1.004782407385583</v>
+        <v>1.004782407385582</v>
       </c>
       <c r="L9">
-        <v>0.8788909679372848</v>
+        <v>0.8788909679372842</v>
       </c>
       <c r="M9">
-        <v>0.8895708795426064</v>
+        <v>0.8895708795426058</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8372931567317334</v>
+        <v>0.8372931567317324</v>
       </c>
       <c r="D10">
         <v>0.9935138543611527</v>
       </c>
       <c r="E10">
-        <v>0.8655180116952559</v>
+        <v>0.8655180116952552</v>
       </c>
       <c r="F10">
-        <v>0.8764082556035098</v>
+        <v>0.876408255603509</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J10">
-        <v>0.8649657416025481</v>
+        <v>0.8649657416025471</v>
       </c>
       <c r="K10">
-        <v>1.004782407385583</v>
+        <v>1.004782407385582</v>
       </c>
       <c r="L10">
-        <v>0.8788909679372848</v>
+        <v>0.8788909679372842</v>
       </c>
       <c r="M10">
-        <v>0.8895708795426064</v>
+        <v>0.8895708795426058</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8372931567317334</v>
+        <v>0.8372931567317324</v>
       </c>
       <c r="D11">
         <v>0.9935138543611527</v>
       </c>
       <c r="E11">
-        <v>0.8655180116952559</v>
+        <v>0.8655180116952552</v>
       </c>
       <c r="F11">
-        <v>0.8764082556035098</v>
+        <v>0.876408255603509</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J11">
-        <v>0.8649657416025481</v>
+        <v>0.8649657416025471</v>
       </c>
       <c r="K11">
-        <v>1.004782407385583</v>
+        <v>1.004782407385582</v>
       </c>
       <c r="L11">
-        <v>0.8788909679372848</v>
+        <v>0.8788909679372842</v>
       </c>
       <c r="M11">
-        <v>0.8895708795426064</v>
+        <v>0.8895708795426058</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8372931567317334</v>
+        <v>0.8372931567317324</v>
       </c>
       <c r="D12">
         <v>0.9935138543611527</v>
       </c>
       <c r="E12">
-        <v>0.8655180116952559</v>
+        <v>0.8655180116952552</v>
       </c>
       <c r="F12">
-        <v>0.8764082556035098</v>
+        <v>0.876408255603509</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J12">
-        <v>0.8649657416025481</v>
+        <v>0.8649657416025471</v>
       </c>
       <c r="K12">
-        <v>1.004782407385583</v>
+        <v>1.004782407385582</v>
       </c>
       <c r="L12">
-        <v>0.8788909679372848</v>
+        <v>0.8788909679372842</v>
       </c>
       <c r="M12">
-        <v>0.8895708795426064</v>
+        <v>0.8895708795426058</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8372931567317334</v>
+        <v>0.8372931567317324</v>
       </c>
       <c r="D13">
         <v>0.9935138543611527</v>
       </c>
       <c r="E13">
-        <v>0.8655180116952559</v>
+        <v>0.8655180116952552</v>
       </c>
       <c r="F13">
-        <v>0.8764082556035098</v>
+        <v>0.876408255603509</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J13">
-        <v>0.8649657416025481</v>
+        <v>0.8649657416025471</v>
       </c>
       <c r="K13">
-        <v>1.004782407385583</v>
+        <v>1.004782407385582</v>
       </c>
       <c r="L13">
-        <v>0.8788909679372848</v>
+        <v>0.8788909679372842</v>
       </c>
       <c r="M13">
-        <v>0.8895708795426064</v>
+        <v>0.8895708795426058</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8372931567317334</v>
+        <v>0.8372931567317324</v>
       </c>
       <c r="D14">
         <v>0.9935138543611527</v>
       </c>
       <c r="E14">
-        <v>0.8655180116952559</v>
+        <v>0.8655180116952552</v>
       </c>
       <c r="F14">
-        <v>0.8764082556035098</v>
+        <v>0.876408255603509</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J14">
-        <v>0.8649657416025481</v>
+        <v>0.8649657416025471</v>
       </c>
       <c r="K14">
-        <v>1.004782407385583</v>
+        <v>1.004782407385582</v>
       </c>
       <c r="L14">
-        <v>0.8788909679372848</v>
+        <v>0.8788909679372842</v>
       </c>
       <c r="M14">
-        <v>0.8895708795426064</v>
+        <v>0.8895708795426058</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8372931567317334</v>
+        <v>0.8372931567317324</v>
       </c>
       <c r="D15">
         <v>0.9935138543611527</v>
       </c>
       <c r="E15">
-        <v>0.8655180116952559</v>
+        <v>0.8655180116952552</v>
       </c>
       <c r="F15">
-        <v>0.8764082556035098</v>
+        <v>0.876408255603509</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J15">
-        <v>0.8649657416025481</v>
+        <v>0.8649657416025471</v>
       </c>
       <c r="K15">
-        <v>1.004782407385583</v>
+        <v>1.004782407385582</v>
       </c>
       <c r="L15">
-        <v>0.8788909679372848</v>
+        <v>0.8788909679372842</v>
       </c>
       <c r="M15">
-        <v>0.8895708795426064</v>
+        <v>0.8895708795426058</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8372931567317334</v>
+        <v>0.8372931567317324</v>
       </c>
       <c r="D16">
         <v>0.9935138543611527</v>
       </c>
       <c r="E16">
-        <v>0.8655180116952559</v>
+        <v>0.8655180116952552</v>
       </c>
       <c r="F16">
-        <v>0.8764082556035098</v>
+        <v>0.876408255603509</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J16">
-        <v>0.8649657416025481</v>
+        <v>0.8649657416025471</v>
       </c>
       <c r="K16">
-        <v>1.004782407385583</v>
+        <v>1.004782407385582</v>
       </c>
       <c r="L16">
-        <v>0.8788909679372848</v>
+        <v>0.8788909679372842</v>
       </c>
       <c r="M16">
-        <v>0.8895708795426064</v>
+        <v>0.8895708795426058</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8372931567317334</v>
+        <v>0.8372931567317324</v>
       </c>
       <c r="D17">
         <v>0.9935138543611527</v>
       </c>
       <c r="E17">
-        <v>0.8655180116952559</v>
+        <v>0.8655180116952552</v>
       </c>
       <c r="F17">
-        <v>0.8764082556035098</v>
+        <v>0.876408255603509</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J17">
-        <v>0.8649657416025481</v>
+        <v>0.8649657416025471</v>
       </c>
       <c r="K17">
-        <v>1.004782407385583</v>
+        <v>1.004782407385582</v>
       </c>
       <c r="L17">
-        <v>0.8788909679372848</v>
+        <v>0.8788909679372842</v>
       </c>
       <c r="M17">
-        <v>0.8895708795426064</v>
+        <v>0.8895708795426058</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8372931567317334</v>
+        <v>0.8372931567317324</v>
       </c>
       <c r="D18">
         <v>0.9935138543611527</v>
       </c>
       <c r="E18">
-        <v>0.8655180116952559</v>
+        <v>0.8655180116952552</v>
       </c>
       <c r="F18">
-        <v>0.8764082556035098</v>
+        <v>0.876408255603509</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J18">
-        <v>0.8649657416025481</v>
+        <v>0.8649657416025471</v>
       </c>
       <c r="K18">
-        <v>1.004782407385583</v>
+        <v>1.004782407385582</v>
       </c>
       <c r="L18">
-        <v>0.8788909679372848</v>
+        <v>0.8788909679372842</v>
       </c>
       <c r="M18">
-        <v>0.8895708795426064</v>
+        <v>0.8895708795426058</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8372931567317334</v>
+        <v>0.8372931567317324</v>
       </c>
       <c r="D19">
         <v>0.9935138543611527</v>
       </c>
       <c r="E19">
-        <v>0.8655180116952559</v>
+        <v>0.8655180116952552</v>
       </c>
       <c r="F19">
-        <v>0.8764082556035098</v>
+        <v>0.876408255603509</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J19">
-        <v>0.8649657416025481</v>
+        <v>0.8649657416025471</v>
       </c>
       <c r="K19">
-        <v>1.004782407385583</v>
+        <v>1.004782407385582</v>
       </c>
       <c r="L19">
-        <v>0.8788909679372848</v>
+        <v>0.8788909679372842</v>
       </c>
       <c r="M19">
-        <v>0.8895708795426064</v>
+        <v>0.8895708795426058</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8372931567317334</v>
+        <v>0.8372931567317324</v>
       </c>
       <c r="D20">
         <v>0.9935138543611527</v>
       </c>
       <c r="E20">
-        <v>0.8655180116952559</v>
+        <v>0.8655180116952552</v>
       </c>
       <c r="F20">
-        <v>0.8764082556035098</v>
+        <v>0.876408255603509</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J20">
-        <v>0.8649657416025481</v>
+        <v>0.8649657416025471</v>
       </c>
       <c r="K20">
-        <v>1.004782407385583</v>
+        <v>1.004782407385582</v>
       </c>
       <c r="L20">
-        <v>0.8788909679372848</v>
+        <v>0.8788909679372842</v>
       </c>
       <c r="M20">
-        <v>0.8895708795426064</v>
+        <v>0.8895708795426058</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8372931567317334</v>
+        <v>0.8372931567317324</v>
       </c>
       <c r="D21">
         <v>0.9935138543611527</v>
       </c>
       <c r="E21">
-        <v>0.8655180116952559</v>
+        <v>0.8655180116952552</v>
       </c>
       <c r="F21">
-        <v>0.8764082556035098</v>
+        <v>0.876408255603509</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J21">
-        <v>0.8649657416025481</v>
+        <v>0.8649657416025471</v>
       </c>
       <c r="K21">
-        <v>1.004782407385583</v>
+        <v>1.004782407385582</v>
       </c>
       <c r="L21">
-        <v>0.8788909679372848</v>
+        <v>0.8788909679372842</v>
       </c>
       <c r="M21">
-        <v>0.8895708795426064</v>
+        <v>0.8895708795426058</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8372931567317334</v>
+        <v>0.8372931567317324</v>
       </c>
       <c r="D22">
         <v>0.9935138543611527</v>
       </c>
       <c r="E22">
-        <v>0.8655180116952559</v>
+        <v>0.8655180116952552</v>
       </c>
       <c r="F22">
-        <v>0.8764082556035098</v>
+        <v>0.876408255603509</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J22">
-        <v>0.8649657416025481</v>
+        <v>0.8649657416025471</v>
       </c>
       <c r="K22">
-        <v>1.004782407385583</v>
+        <v>1.004782407385582</v>
       </c>
       <c r="L22">
-        <v>0.8788909679372848</v>
+        <v>0.8788909679372842</v>
       </c>
       <c r="M22">
-        <v>0.8895708795426064</v>
+        <v>0.8895708795426058</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8372931567317334</v>
+        <v>0.8372931567317324</v>
       </c>
       <c r="D23">
         <v>0.9935138543611527</v>
       </c>
       <c r="E23">
-        <v>0.8655180116952559</v>
+        <v>0.8655180116952552</v>
       </c>
       <c r="F23">
-        <v>0.8764082556035098</v>
+        <v>0.876408255603509</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J23">
-        <v>0.8649657416025481</v>
+        <v>0.8649657416025471</v>
       </c>
       <c r="K23">
-        <v>1.004782407385583</v>
+        <v>1.004782407385582</v>
       </c>
       <c r="L23">
-        <v>0.8788909679372848</v>
+        <v>0.8788909679372842</v>
       </c>
       <c r="M23">
-        <v>0.8895708795426064</v>
+        <v>0.8895708795426058</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8372931567317334</v>
+        <v>0.8372931567317324</v>
       </c>
       <c r="D24">
         <v>0.9935138543611527</v>
       </c>
       <c r="E24">
-        <v>0.8655180116952559</v>
+        <v>0.8655180116952552</v>
       </c>
       <c r="F24">
-        <v>0.8764082556035098</v>
+        <v>0.876408255603509</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J24">
-        <v>0.8649657416025481</v>
+        <v>0.8649657416025471</v>
       </c>
       <c r="K24">
-        <v>1.004782407385583</v>
+        <v>1.004782407385582</v>
       </c>
       <c r="L24">
-        <v>0.8788909679372848</v>
+        <v>0.8788909679372842</v>
       </c>
       <c r="M24">
-        <v>0.8895708795426064</v>
+        <v>0.8895708795426058</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8372931567317334</v>
+        <v>0.8372931567317324</v>
       </c>
       <c r="D25">
         <v>0.9935138543611527</v>
       </c>
       <c r="E25">
-        <v>0.8655180116952559</v>
+        <v>0.8655180116952552</v>
       </c>
       <c r="F25">
-        <v>0.8764082556035098</v>
+        <v>0.876408255603509</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J25">
-        <v>0.8649657416025481</v>
+        <v>0.8649657416025471</v>
       </c>
       <c r="K25">
-        <v>1.004782407385583</v>
+        <v>1.004782407385582</v>
       </c>
       <c r="L25">
-        <v>0.8788909679372848</v>
+        <v>0.8788909679372842</v>
       </c>
       <c r="M25">
-        <v>0.8895708795426064</v>
+        <v>0.8895708795426058</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_6/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8234218994343605</v>
+        <v>0.8234218994343608</v>
       </c>
       <c r="D2">
-        <v>0.9890669606445226</v>
+        <v>0.9890669606445223</v>
       </c>
       <c r="E2">
         <v>0.8535831580284805</v>
       </c>
       <c r="F2">
-        <v>0.8643591192658019</v>
+        <v>0.8643591192658021</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -448,7 +448,7 @@
         <v>0.8675451244197707</v>
       </c>
       <c r="M2">
-        <v>0.8780988076184191</v>
+        <v>0.8780988076184193</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8613408777254661</v>
+        <v>0.8613408777254691</v>
       </c>
       <c r="D3">
-        <v>1.001396964313081</v>
+        <v>1.001396964313082</v>
       </c>
       <c r="E3">
-        <v>0.8862544300049836</v>
+        <v>0.8862544300049859</v>
       </c>
       <c r="F3">
-        <v>0.8974035264210215</v>
+        <v>0.8974035264210239</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.036719454037728</v>
       </c>
       <c r="J3">
-        <v>0.8864868109131028</v>
+        <v>0.8864868109131057</v>
       </c>
       <c r="K3">
-        <v>1.012012001871482</v>
+        <v>1.012012001871483</v>
       </c>
       <c r="L3">
-        <v>0.8985841944299322</v>
+        <v>0.8985841944299346</v>
       </c>
       <c r="M3">
-        <v>0.9095424523634481</v>
+        <v>0.9095424523634503</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8819039239209198</v>
+        <v>0.8819039239209225</v>
       </c>
       <c r="D4">
         <v>1.008295433030698</v>
       </c>
       <c r="E4">
-        <v>0.9040254966413585</v>
+        <v>0.9040254966413612</v>
       </c>
       <c r="F4">
-        <v>0.9154434183302338</v>
+        <v>0.9154434183302359</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.039886913728187</v>
       </c>
       <c r="J4">
-        <v>0.9049006582932606</v>
+        <v>0.9049006582932632</v>
       </c>
       <c r="K4">
-        <v>1.018294759965678</v>
+        <v>1.018294759965679</v>
       </c>
       <c r="L4">
-        <v>0.9154391411880552</v>
+        <v>0.9154391411880577</v>
       </c>
       <c r="M4">
-        <v>0.9266822011717611</v>
+        <v>0.9266822011717631</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8898767228148186</v>
+        <v>0.8898767228148169</v>
       </c>
       <c r="D5">
-        <v>1.011005117058732</v>
+        <v>1.011005117058731</v>
       </c>
       <c r="E5">
-        <v>0.91092416979201</v>
+        <v>0.9109241697920084</v>
       </c>
       <c r="F5">
-        <v>0.922454990083977</v>
+        <v>0.9224549900839748</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.041120777263173</v>
       </c>
       <c r="J5">
-        <v>0.9120414358704234</v>
+        <v>0.9120414358704219</v>
       </c>
       <c r="K5">
-        <v>1.020751194435145</v>
+        <v>1.020751194435144</v>
       </c>
       <c r="L5">
-        <v>0.9219761347693675</v>
+        <v>0.9219761347693659</v>
       </c>
       <c r="M5">
-        <v>0.9333382152865758</v>
+        <v>0.9333382152865736</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8911813984321044</v>
+        <v>0.891181398432108</v>
       </c>
       <c r="D6">
         <v>1.011450259770894</v>
       </c>
       <c r="E6">
-        <v>0.912053479551209</v>
+        <v>0.9120534795512123</v>
       </c>
       <c r="F6">
-        <v>0.9236031391110683</v>
+        <v>0.9236031391110706</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041322891075883</v>
+        <v>1.041322891075882</v>
       </c>
       <c r="J6">
-        <v>0.9132099791845374</v>
+        <v>0.9132099791845409</v>
       </c>
       <c r="K6">
         <v>1.021154108014391</v>
       </c>
       <c r="L6">
-        <v>0.9230458970195768</v>
+        <v>0.9230458970195798</v>
       </c>
       <c r="M6">
-        <v>0.934427817292445</v>
+        <v>0.9344278172924474</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8820128391501664</v>
+        <v>0.88201283915017</v>
       </c>
       <c r="D7">
-        <v>1.008332324393878</v>
+        <v>1.008332324393879</v>
       </c>
       <c r="E7">
-        <v>0.9041197088399768</v>
+        <v>0.9041197088399801</v>
       </c>
       <c r="F7">
-        <v>0.9155391448971455</v>
+        <v>0.9155391448971482</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039903752642877</v>
+        <v>1.039903752642878</v>
       </c>
       <c r="J7">
-        <v>0.9049982049136321</v>
+        <v>0.9049982049136356</v>
       </c>
       <c r="K7">
         <v>1.018328247090289</v>
       </c>
       <c r="L7">
-        <v>0.9155284377505496</v>
+        <v>0.9155284377505529</v>
       </c>
       <c r="M7">
-        <v>0.9267730958781755</v>
+        <v>0.9267730958781781</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8372931567317324</v>
+        <v>0.8372931567317334</v>
       </c>
       <c r="D8">
         <v>0.9935138543611527</v>
       </c>
       <c r="E8">
-        <v>0.8655180116952552</v>
+        <v>0.8655180116952559</v>
       </c>
       <c r="F8">
-        <v>0.876408255603509</v>
+        <v>0.8764082556035098</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J8">
-        <v>0.8649657416025471</v>
+        <v>0.8649657416025481</v>
       </c>
       <c r="K8">
-        <v>1.004782407385582</v>
+        <v>1.004782407385583</v>
       </c>
       <c r="L8">
-        <v>0.8788909679372842</v>
+        <v>0.8788909679372848</v>
       </c>
       <c r="M8">
-        <v>0.8895708795426058</v>
+        <v>0.8895708795426064</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8372931567317324</v>
+        <v>0.8372931567317334</v>
       </c>
       <c r="D9">
         <v>0.9935138543611527</v>
       </c>
       <c r="E9">
-        <v>0.8655180116952552</v>
+        <v>0.8655180116952559</v>
       </c>
       <c r="F9">
-        <v>0.876408255603509</v>
+        <v>0.8764082556035098</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J9">
-        <v>0.8649657416025471</v>
+        <v>0.8649657416025481</v>
       </c>
       <c r="K9">
-        <v>1.004782407385582</v>
+        <v>1.004782407385583</v>
       </c>
       <c r="L9">
-        <v>0.8788909679372842</v>
+        <v>0.8788909679372848</v>
       </c>
       <c r="M9">
-        <v>0.8895708795426058</v>
+        <v>0.8895708795426064</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8372931567317324</v>
+        <v>0.8372931567317334</v>
       </c>
       <c r="D10">
         <v>0.9935138543611527</v>
       </c>
       <c r="E10">
-        <v>0.8655180116952552</v>
+        <v>0.8655180116952559</v>
       </c>
       <c r="F10">
-        <v>0.876408255603509</v>
+        <v>0.8764082556035098</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J10">
-        <v>0.8649657416025471</v>
+        <v>0.8649657416025481</v>
       </c>
       <c r="K10">
-        <v>1.004782407385582</v>
+        <v>1.004782407385583</v>
       </c>
       <c r="L10">
-        <v>0.8788909679372842</v>
+        <v>0.8788909679372848</v>
       </c>
       <c r="M10">
-        <v>0.8895708795426058</v>
+        <v>0.8895708795426064</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8372931567317324</v>
+        <v>0.8372931567317334</v>
       </c>
       <c r="D11">
         <v>0.9935138543611527</v>
       </c>
       <c r="E11">
-        <v>0.8655180116952552</v>
+        <v>0.8655180116952559</v>
       </c>
       <c r="F11">
-        <v>0.876408255603509</v>
+        <v>0.8764082556035098</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J11">
-        <v>0.8649657416025471</v>
+        <v>0.8649657416025481</v>
       </c>
       <c r="K11">
-        <v>1.004782407385582</v>
+        <v>1.004782407385583</v>
       </c>
       <c r="L11">
-        <v>0.8788909679372842</v>
+        <v>0.8788909679372848</v>
       </c>
       <c r="M11">
-        <v>0.8895708795426058</v>
+        <v>0.8895708795426064</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8372931567317324</v>
+        <v>0.8372931567317334</v>
       </c>
       <c r="D12">
         <v>0.9935138543611527</v>
       </c>
       <c r="E12">
-        <v>0.8655180116952552</v>
+        <v>0.8655180116952559</v>
       </c>
       <c r="F12">
-        <v>0.876408255603509</v>
+        <v>0.8764082556035098</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J12">
-        <v>0.8649657416025471</v>
+        <v>0.8649657416025481</v>
       </c>
       <c r="K12">
-        <v>1.004782407385582</v>
+        <v>1.004782407385583</v>
       </c>
       <c r="L12">
-        <v>0.8788909679372842</v>
+        <v>0.8788909679372848</v>
       </c>
       <c r="M12">
-        <v>0.8895708795426058</v>
+        <v>0.8895708795426064</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8372931567317324</v>
+        <v>0.8372931567317334</v>
       </c>
       <c r="D13">
         <v>0.9935138543611527</v>
       </c>
       <c r="E13">
-        <v>0.8655180116952552</v>
+        <v>0.8655180116952559</v>
       </c>
       <c r="F13">
-        <v>0.876408255603509</v>
+        <v>0.8764082556035098</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J13">
-        <v>0.8649657416025471</v>
+        <v>0.8649657416025481</v>
       </c>
       <c r="K13">
-        <v>1.004782407385582</v>
+        <v>1.004782407385583</v>
       </c>
       <c r="L13">
-        <v>0.8788909679372842</v>
+        <v>0.8788909679372848</v>
       </c>
       <c r="M13">
-        <v>0.8895708795426058</v>
+        <v>0.8895708795426064</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8372931567317324</v>
+        <v>0.8372931567317334</v>
       </c>
       <c r="D14">
         <v>0.9935138543611527</v>
       </c>
       <c r="E14">
-        <v>0.8655180116952552</v>
+        <v>0.8655180116952559</v>
       </c>
       <c r="F14">
-        <v>0.876408255603509</v>
+        <v>0.8764082556035098</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J14">
-        <v>0.8649657416025471</v>
+        <v>0.8649657416025481</v>
       </c>
       <c r="K14">
-        <v>1.004782407385582</v>
+        <v>1.004782407385583</v>
       </c>
       <c r="L14">
-        <v>0.8788909679372842</v>
+        <v>0.8788909679372848</v>
       </c>
       <c r="M14">
-        <v>0.8895708795426058</v>
+        <v>0.8895708795426064</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8372931567317324</v>
+        <v>0.8372931567317334</v>
       </c>
       <c r="D15">
         <v>0.9935138543611527</v>
       </c>
       <c r="E15">
-        <v>0.8655180116952552</v>
+        <v>0.8655180116952559</v>
       </c>
       <c r="F15">
-        <v>0.876408255603509</v>
+        <v>0.8764082556035098</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J15">
-        <v>0.8649657416025471</v>
+        <v>0.8649657416025481</v>
       </c>
       <c r="K15">
-        <v>1.004782407385582</v>
+        <v>1.004782407385583</v>
       </c>
       <c r="L15">
-        <v>0.8788909679372842</v>
+        <v>0.8788909679372848</v>
       </c>
       <c r="M15">
-        <v>0.8895708795426058</v>
+        <v>0.8895708795426064</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8372931567317324</v>
+        <v>0.8372931567317334</v>
       </c>
       <c r="D16">
         <v>0.9935138543611527</v>
       </c>
       <c r="E16">
-        <v>0.8655180116952552</v>
+        <v>0.8655180116952559</v>
       </c>
       <c r="F16">
-        <v>0.876408255603509</v>
+        <v>0.8764082556035098</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J16">
-        <v>0.8649657416025471</v>
+        <v>0.8649657416025481</v>
       </c>
       <c r="K16">
-        <v>1.004782407385582</v>
+        <v>1.004782407385583</v>
       </c>
       <c r="L16">
-        <v>0.8788909679372842</v>
+        <v>0.8788909679372848</v>
       </c>
       <c r="M16">
-        <v>0.8895708795426058</v>
+        <v>0.8895708795426064</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8372931567317324</v>
+        <v>0.8372931567317334</v>
       </c>
       <c r="D17">
         <v>0.9935138543611527</v>
       </c>
       <c r="E17">
-        <v>0.8655180116952552</v>
+        <v>0.8655180116952559</v>
       </c>
       <c r="F17">
-        <v>0.876408255603509</v>
+        <v>0.8764082556035098</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J17">
-        <v>0.8649657416025471</v>
+        <v>0.8649657416025481</v>
       </c>
       <c r="K17">
-        <v>1.004782407385582</v>
+        <v>1.004782407385583</v>
       </c>
       <c r="L17">
-        <v>0.8788909679372842</v>
+        <v>0.8788909679372848</v>
       </c>
       <c r="M17">
-        <v>0.8895708795426058</v>
+        <v>0.8895708795426064</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8372931567317324</v>
+        <v>0.8372931567317334</v>
       </c>
       <c r="D18">
         <v>0.9935138543611527</v>
       </c>
       <c r="E18">
-        <v>0.8655180116952552</v>
+        <v>0.8655180116952559</v>
       </c>
       <c r="F18">
-        <v>0.876408255603509</v>
+        <v>0.8764082556035098</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J18">
-        <v>0.8649657416025471</v>
+        <v>0.8649657416025481</v>
       </c>
       <c r="K18">
-        <v>1.004782407385582</v>
+        <v>1.004782407385583</v>
       </c>
       <c r="L18">
-        <v>0.8788909679372842</v>
+        <v>0.8788909679372848</v>
       </c>
       <c r="M18">
-        <v>0.8895708795426058</v>
+        <v>0.8895708795426064</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8372931567317324</v>
+        <v>0.8372931567317334</v>
       </c>
       <c r="D19">
         <v>0.9935138543611527</v>
       </c>
       <c r="E19">
-        <v>0.8655180116952552</v>
+        <v>0.8655180116952559</v>
       </c>
       <c r="F19">
-        <v>0.876408255603509</v>
+        <v>0.8764082556035098</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J19">
-        <v>0.8649657416025471</v>
+        <v>0.8649657416025481</v>
       </c>
       <c r="K19">
-        <v>1.004782407385582</v>
+        <v>1.004782407385583</v>
       </c>
       <c r="L19">
-        <v>0.8788909679372842</v>
+        <v>0.8788909679372848</v>
       </c>
       <c r="M19">
-        <v>0.8895708795426058</v>
+        <v>0.8895708795426064</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8372931567317324</v>
+        <v>0.8372931567317334</v>
       </c>
       <c r="D20">
         <v>0.9935138543611527</v>
       </c>
       <c r="E20">
-        <v>0.8655180116952552</v>
+        <v>0.8655180116952559</v>
       </c>
       <c r="F20">
-        <v>0.876408255603509</v>
+        <v>0.8764082556035098</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J20">
-        <v>0.8649657416025471</v>
+        <v>0.8649657416025481</v>
       </c>
       <c r="K20">
-        <v>1.004782407385582</v>
+        <v>1.004782407385583</v>
       </c>
       <c r="L20">
-        <v>0.8788909679372842</v>
+        <v>0.8788909679372848</v>
       </c>
       <c r="M20">
-        <v>0.8895708795426058</v>
+        <v>0.8895708795426064</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8372931567317324</v>
+        <v>0.8372931567317334</v>
       </c>
       <c r="D21">
         <v>0.9935138543611527</v>
       </c>
       <c r="E21">
-        <v>0.8655180116952552</v>
+        <v>0.8655180116952559</v>
       </c>
       <c r="F21">
-        <v>0.876408255603509</v>
+        <v>0.8764082556035098</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J21">
-        <v>0.8649657416025471</v>
+        <v>0.8649657416025481</v>
       </c>
       <c r="K21">
-        <v>1.004782407385582</v>
+        <v>1.004782407385583</v>
       </c>
       <c r="L21">
-        <v>0.8788909679372842</v>
+        <v>0.8788909679372848</v>
       </c>
       <c r="M21">
-        <v>0.8895708795426058</v>
+        <v>0.8895708795426064</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8372931567317324</v>
+        <v>0.8372931567317334</v>
       </c>
       <c r="D22">
         <v>0.9935138543611527</v>
       </c>
       <c r="E22">
-        <v>0.8655180116952552</v>
+        <v>0.8655180116952559</v>
       </c>
       <c r="F22">
-        <v>0.876408255603509</v>
+        <v>0.8764082556035098</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J22">
-        <v>0.8649657416025471</v>
+        <v>0.8649657416025481</v>
       </c>
       <c r="K22">
-        <v>1.004782407385582</v>
+        <v>1.004782407385583</v>
       </c>
       <c r="L22">
-        <v>0.8788909679372842</v>
+        <v>0.8788909679372848</v>
       </c>
       <c r="M22">
-        <v>0.8895708795426058</v>
+        <v>0.8895708795426064</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8372931567317324</v>
+        <v>0.8372931567317334</v>
       </c>
       <c r="D23">
         <v>0.9935138543611527</v>
       </c>
       <c r="E23">
-        <v>0.8655180116952552</v>
+        <v>0.8655180116952559</v>
       </c>
       <c r="F23">
-        <v>0.876408255603509</v>
+        <v>0.8764082556035098</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J23">
-        <v>0.8649657416025471</v>
+        <v>0.8649657416025481</v>
       </c>
       <c r="K23">
-        <v>1.004782407385582</v>
+        <v>1.004782407385583</v>
       </c>
       <c r="L23">
-        <v>0.8788909679372842</v>
+        <v>0.8788909679372848</v>
       </c>
       <c r="M23">
-        <v>0.8895708795426058</v>
+        <v>0.8895708795426064</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8372931567317324</v>
+        <v>0.8372931567317334</v>
       </c>
       <c r="D24">
         <v>0.9935138543611527</v>
       </c>
       <c r="E24">
-        <v>0.8655180116952552</v>
+        <v>0.8655180116952559</v>
       </c>
       <c r="F24">
-        <v>0.876408255603509</v>
+        <v>0.8764082556035098</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J24">
-        <v>0.8649657416025471</v>
+        <v>0.8649657416025481</v>
       </c>
       <c r="K24">
-        <v>1.004782407385582</v>
+        <v>1.004782407385583</v>
       </c>
       <c r="L24">
-        <v>0.8788909679372842</v>
+        <v>0.8788909679372848</v>
       </c>
       <c r="M24">
-        <v>0.8895708795426058</v>
+        <v>0.8895708795426064</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8372931567317324</v>
+        <v>0.8372931567317334</v>
       </c>
       <c r="D25">
         <v>0.9935138543611527</v>
       </c>
       <c r="E25">
-        <v>0.8655180116952552</v>
+        <v>0.8655180116952559</v>
       </c>
       <c r="F25">
-        <v>0.876408255603509</v>
+        <v>0.8764082556035098</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.033057143289021</v>
       </c>
       <c r="J25">
-        <v>0.8649657416025471</v>
+        <v>0.8649657416025481</v>
       </c>
       <c r="K25">
-        <v>1.004782407385582</v>
+        <v>1.004782407385583</v>
       </c>
       <c r="L25">
-        <v>0.8788909679372842</v>
+        <v>0.8788909679372848</v>
       </c>
       <c r="M25">
-        <v>0.8895708795426058</v>
+        <v>0.8895708795426064</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_6/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8234218994343608</v>
+        <v>0.8310126953705685</v>
       </c>
       <c r="D2">
-        <v>0.9890669606445223</v>
+        <v>0.9906133674058997</v>
       </c>
       <c r="E2">
-        <v>0.8535831580284805</v>
+        <v>0.8600182914206751</v>
       </c>
       <c r="F2">
-        <v>0.8643591192658021</v>
+        <v>0.8700052361087782</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030972454464303</v>
+        <v>1.031756626835445</v>
       </c>
       <c r="J2">
-        <v>0.8525622768796584</v>
+        <v>0.8597649761144044</v>
       </c>
       <c r="K2">
-        <v>1.000680741146785</v>
+        <v>1.002205040662926</v>
       </c>
       <c r="L2">
-        <v>0.8675451244197707</v>
+        <v>0.8738466349179432</v>
       </c>
       <c r="M2">
-        <v>0.8780988076184193</v>
+        <v>0.8836313511089898</v>
+      </c>
+      <c r="N2">
+        <v>0.8609859409969078</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8613408777254691</v>
+        <v>0.8682351246038694</v>
       </c>
       <c r="D3">
-        <v>1.001396964313082</v>
+        <v>1.002774264413421</v>
       </c>
       <c r="E3">
-        <v>0.8862544300049859</v>
+        <v>0.8921126242323895</v>
       </c>
       <c r="F3">
-        <v>0.8974035264210239</v>
+        <v>0.9024809625751365</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036719454037728</v>
+        <v>1.037418901091027</v>
       </c>
       <c r="J3">
-        <v>0.8864868109131057</v>
+        <v>0.8930995082752218</v>
       </c>
       <c r="K3">
-        <v>1.012012001871483</v>
+        <v>1.013371770653639</v>
       </c>
       <c r="L3">
-        <v>0.8985841944299346</v>
+        <v>0.9043413459039388</v>
       </c>
       <c r="M3">
-        <v>0.9095424523634503</v>
+        <v>0.9145349904575378</v>
+      </c>
+      <c r="N3">
+        <v>0.8943678120169183</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8819039239209225</v>
+        <v>0.8885273349957166</v>
       </c>
       <c r="D4">
-        <v>1.008295433030698</v>
+        <v>1.009604880154232</v>
       </c>
       <c r="E4">
-        <v>0.9040254966413612</v>
+        <v>0.9096593547320867</v>
       </c>
       <c r="F4">
-        <v>0.9154434183302359</v>
+        <v>0.9202962445099131</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039886913728187</v>
+        <v>1.040552496208165</v>
       </c>
       <c r="J4">
-        <v>0.9049006582932632</v>
+        <v>0.9112870363410069</v>
       </c>
       <c r="K4">
-        <v>1.018294759965679</v>
+        <v>1.019588748591443</v>
       </c>
       <c r="L4">
-        <v>0.9154391411880577</v>
+        <v>0.9209860187096864</v>
       </c>
       <c r="M4">
-        <v>0.9266822011717631</v>
+        <v>0.9314623787498894</v>
+      </c>
+      <c r="N4">
+        <v>0.912581168458695</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8898767228148169</v>
+        <v>0.8964102293816726</v>
       </c>
       <c r="D5">
-        <v>1.011005117058731</v>
+        <v>1.012291660729077</v>
       </c>
       <c r="E5">
-        <v>0.9109241697920084</v>
+        <v>0.9164835890550245</v>
       </c>
       <c r="F5">
-        <v>0.9224549900839748</v>
+        <v>0.927232626940527</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041120777263173</v>
+        <v>1.041774957204364</v>
       </c>
       <c r="J5">
-        <v>0.9120414358704219</v>
+        <v>0.9183533260935022</v>
       </c>
       <c r="K5">
-        <v>1.020751194435144</v>
+        <v>1.022023027668141</v>
       </c>
       <c r="L5">
-        <v>0.9219761347693659</v>
+        <v>0.9274535258308793</v>
       </c>
       <c r="M5">
-        <v>0.9333382152865736</v>
+        <v>0.9380474928009502</v>
+      </c>
+      <c r="N5">
+        <v>0.9196574931531536</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.891181398432108</v>
+        <v>0.8977009068915224</v>
       </c>
       <c r="D6">
-        <v>1.011450259770894</v>
+        <v>1.012733217363205</v>
       </c>
       <c r="E6">
-        <v>0.9120534795512123</v>
+        <v>0.9176013111406733</v>
       </c>
       <c r="F6">
-        <v>0.9236031391110706</v>
+        <v>0.9283690357258233</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041322891075882</v>
+        <v>1.041975287308803</v>
       </c>
       <c r="J6">
-        <v>0.9132099791845409</v>
+        <v>0.9195103077392868</v>
       </c>
       <c r="K6">
-        <v>1.021154108014391</v>
+        <v>1.022422475009293</v>
       </c>
       <c r="L6">
-        <v>0.9230458970195798</v>
+        <v>0.9285124874553027</v>
       </c>
       <c r="M6">
-        <v>0.9344278172924474</v>
+        <v>0.939126034905302</v>
+      </c>
+      <c r="N6">
+        <v>0.920816117845583</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.88201283915017</v>
+        <v>0.8886349697498095</v>
       </c>
       <c r="D7">
-        <v>1.008332324393879</v>
+        <v>1.009641446800769</v>
       </c>
       <c r="E7">
-        <v>0.9041197088399801</v>
+        <v>0.9097525065667766</v>
       </c>
       <c r="F7">
-        <v>0.9155391448971482</v>
+        <v>0.9203909026565774</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039903752642878</v>
+        <v>1.04056917334476</v>
       </c>
       <c r="J7">
-        <v>0.9049982049136356</v>
+        <v>0.9113835194356217</v>
       </c>
       <c r="K7">
-        <v>1.018328247090289</v>
+        <v>1.019621921408368</v>
       </c>
       <c r="L7">
-        <v>0.9155284377505529</v>
+        <v>0.921074324279534</v>
       </c>
       <c r="M7">
-        <v>0.9267730958781781</v>
+        <v>0.9315522652149211</v>
+      </c>
+      <c r="N7">
+        <v>0.912677788570371</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8372931567317334</v>
+        <v>0.8445931478057823</v>
       </c>
       <c r="D8">
-        <v>0.9935138543611527</v>
+        <v>0.9949904055759082</v>
       </c>
       <c r="E8">
-        <v>0.8655180116952559</v>
+        <v>0.8717123173277392</v>
       </c>
       <c r="F8">
-        <v>0.8764082556035098</v>
+        <v>0.8818181981873018</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033057143289021</v>
+        <v>1.033806276224883</v>
       </c>
       <c r="J8">
-        <v>0.8649657416025481</v>
+        <v>0.8719211152818981</v>
       </c>
       <c r="K8">
-        <v>1.004782407385583</v>
+        <v>1.006238665344834</v>
       </c>
       <c r="L8">
-        <v>0.8788909679372848</v>
+        <v>0.8849647936809734</v>
       </c>
       <c r="M8">
-        <v>0.8895708795426064</v>
+        <v>0.8948788562991289</v>
+      </c>
+      <c r="N8">
+        <v>0.8731593432763484</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8372931567317334</v>
+        <v>0.6810805495742969</v>
       </c>
       <c r="D9">
-        <v>0.9935138543611527</v>
+        <v>0.9481010910050989</v>
       </c>
       <c r="E9">
-        <v>0.8655180116952559</v>
+        <v>0.7327468978360082</v>
       </c>
       <c r="F9">
-        <v>0.8764082556035098</v>
+        <v>0.7441423128748544</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033057143289021</v>
+        <v>1.011216916679134</v>
       </c>
       <c r="J9">
-        <v>0.8649657416025481</v>
+        <v>0.7266031960324252</v>
       </c>
       <c r="K9">
-        <v>1.004782407385583</v>
+        <v>0.9620963272164145</v>
       </c>
       <c r="L9">
-        <v>0.8788909679372848</v>
+        <v>0.752435669984856</v>
       </c>
       <c r="M9">
-        <v>0.8895708795426064</v>
+        <v>0.7634133442481861</v>
+      </c>
+      <c r="N9">
+        <v>0.7276350559133428</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8372931567317334</v>
+        <v>0.6810805495742969</v>
       </c>
       <c r="D10">
-        <v>0.9935138543611527</v>
+        <v>0.9481010910050989</v>
       </c>
       <c r="E10">
-        <v>0.8655180116952559</v>
+        <v>0.7327468978360082</v>
       </c>
       <c r="F10">
-        <v>0.8764082556035098</v>
+        <v>0.7441423128748544</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033057143289021</v>
+        <v>1.011216916679134</v>
       </c>
       <c r="J10">
-        <v>0.8649657416025481</v>
+        <v>0.7266031960324252</v>
       </c>
       <c r="K10">
-        <v>1.004782407385583</v>
+        <v>0.9620963272164145</v>
       </c>
       <c r="L10">
-        <v>0.8788909679372848</v>
+        <v>0.752435669984856</v>
       </c>
       <c r="M10">
-        <v>0.8895708795426064</v>
+        <v>0.7634133442481861</v>
+      </c>
+      <c r="N10">
+        <v>0.7276350559133428</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8372931567317334</v>
+        <v>0.6810805495742969</v>
       </c>
       <c r="D11">
-        <v>0.9935138543611527</v>
+        <v>0.9481010910050989</v>
       </c>
       <c r="E11">
-        <v>0.8655180116952559</v>
+        <v>0.7327468978360082</v>
       </c>
       <c r="F11">
-        <v>0.8764082556035098</v>
+        <v>0.7441423128748544</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033057143289021</v>
+        <v>1.011216916679134</v>
       </c>
       <c r="J11">
-        <v>0.8649657416025481</v>
+        <v>0.7266031960324252</v>
       </c>
       <c r="K11">
-        <v>1.004782407385583</v>
+        <v>0.9620963272164145</v>
       </c>
       <c r="L11">
-        <v>0.8788909679372848</v>
+        <v>0.752435669984856</v>
       </c>
       <c r="M11">
-        <v>0.8895708795426064</v>
+        <v>0.7634133442481861</v>
+      </c>
+      <c r="N11">
+        <v>0.7276350559133428</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8372931567317334</v>
+        <v>0.6810805495742969</v>
       </c>
       <c r="D12">
-        <v>0.9935138543611527</v>
+        <v>0.9481010910050989</v>
       </c>
       <c r="E12">
-        <v>0.8655180116952559</v>
+        <v>0.7327468978360082</v>
       </c>
       <c r="F12">
-        <v>0.8764082556035098</v>
+        <v>0.7441423128748544</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033057143289021</v>
+        <v>1.011216916679134</v>
       </c>
       <c r="J12">
-        <v>0.8649657416025481</v>
+        <v>0.7266031960324252</v>
       </c>
       <c r="K12">
-        <v>1.004782407385583</v>
+        <v>0.9620963272164145</v>
       </c>
       <c r="L12">
-        <v>0.8788909679372848</v>
+        <v>0.752435669984856</v>
       </c>
       <c r="M12">
-        <v>0.8895708795426064</v>
+        <v>0.7634133442481861</v>
+      </c>
+      <c r="N12">
+        <v>0.7276350559133428</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8372931567317334</v>
+        <v>0.6810805495742969</v>
       </c>
       <c r="D13">
-        <v>0.9935138543611527</v>
+        <v>0.9481010910050989</v>
       </c>
       <c r="E13">
-        <v>0.8655180116952559</v>
+        <v>0.7327468978360082</v>
       </c>
       <c r="F13">
-        <v>0.8764082556035098</v>
+        <v>0.7441423128748544</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033057143289021</v>
+        <v>1.011216916679134</v>
       </c>
       <c r="J13">
-        <v>0.8649657416025481</v>
+        <v>0.7266031960324252</v>
       </c>
       <c r="K13">
-        <v>1.004782407385583</v>
+        <v>0.9620963272164145</v>
       </c>
       <c r="L13">
-        <v>0.8788909679372848</v>
+        <v>0.752435669984856</v>
       </c>
       <c r="M13">
-        <v>0.8895708795426064</v>
+        <v>0.7634133442481861</v>
+      </c>
+      <c r="N13">
+        <v>0.7276350559133428</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8372931567317334</v>
+        <v>0.6810805495742969</v>
       </c>
       <c r="D14">
-        <v>0.9935138543611527</v>
+        <v>0.9481010910050989</v>
       </c>
       <c r="E14">
-        <v>0.8655180116952559</v>
+        <v>0.7327468978360082</v>
       </c>
       <c r="F14">
-        <v>0.8764082556035098</v>
+        <v>0.7441423128748544</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033057143289021</v>
+        <v>1.011216916679134</v>
       </c>
       <c r="J14">
-        <v>0.8649657416025481</v>
+        <v>0.7266031960324252</v>
       </c>
       <c r="K14">
-        <v>1.004782407385583</v>
+        <v>0.9620963272164145</v>
       </c>
       <c r="L14">
-        <v>0.8788909679372848</v>
+        <v>0.752435669984856</v>
       </c>
       <c r="M14">
-        <v>0.8895708795426064</v>
+        <v>0.7634133442481861</v>
+      </c>
+      <c r="N14">
+        <v>0.7276350559133428</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8372931567317334</v>
+        <v>0.6810805495742969</v>
       </c>
       <c r="D15">
-        <v>0.9935138543611527</v>
+        <v>0.9481010910050989</v>
       </c>
       <c r="E15">
-        <v>0.8655180116952559</v>
+        <v>0.7327468978360082</v>
       </c>
       <c r="F15">
-        <v>0.8764082556035098</v>
+        <v>0.7441423128748544</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033057143289021</v>
+        <v>1.011216916679134</v>
       </c>
       <c r="J15">
-        <v>0.8649657416025481</v>
+        <v>0.7266031960324252</v>
       </c>
       <c r="K15">
-        <v>1.004782407385583</v>
+        <v>0.9620963272164145</v>
       </c>
       <c r="L15">
-        <v>0.8788909679372848</v>
+        <v>0.752435669984856</v>
       </c>
       <c r="M15">
-        <v>0.8895708795426064</v>
+        <v>0.7634133442481861</v>
+      </c>
+      <c r="N15">
+        <v>0.7276350559133428</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8372931567317334</v>
+        <v>0.6810805495742969</v>
       </c>
       <c r="D16">
-        <v>0.9935138543611527</v>
+        <v>0.9481010910050989</v>
       </c>
       <c r="E16">
-        <v>0.8655180116952559</v>
+        <v>0.7327468978360082</v>
       </c>
       <c r="F16">
-        <v>0.8764082556035098</v>
+        <v>0.7441423128748544</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033057143289021</v>
+        <v>1.011216916679134</v>
       </c>
       <c r="J16">
-        <v>0.8649657416025481</v>
+        <v>0.7266031960324252</v>
       </c>
       <c r="K16">
-        <v>1.004782407385583</v>
+        <v>0.9620963272164145</v>
       </c>
       <c r="L16">
-        <v>0.8788909679372848</v>
+        <v>0.752435669984856</v>
       </c>
       <c r="M16">
-        <v>0.8895708795426064</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7634133442481861</v>
+      </c>
+      <c r="N16">
+        <v>0.7276350559133428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8372931567317334</v>
+        <v>0.6810805495742969</v>
       </c>
       <c r="D17">
-        <v>0.9935138543611527</v>
+        <v>0.9481010910050989</v>
       </c>
       <c r="E17">
-        <v>0.8655180116952559</v>
+        <v>0.7327468978360082</v>
       </c>
       <c r="F17">
-        <v>0.8764082556035098</v>
+        <v>0.7441423128748544</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033057143289021</v>
+        <v>1.011216916679134</v>
       </c>
       <c r="J17">
-        <v>0.8649657416025481</v>
+        <v>0.7266031960324252</v>
       </c>
       <c r="K17">
-        <v>1.004782407385583</v>
+        <v>0.9620963272164145</v>
       </c>
       <c r="L17">
-        <v>0.8788909679372848</v>
+        <v>0.752435669984856</v>
       </c>
       <c r="M17">
-        <v>0.8895708795426064</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7634133442481861</v>
+      </c>
+      <c r="N17">
+        <v>0.7276350559133428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8372931567317334</v>
+        <v>0.6810805495742969</v>
       </c>
       <c r="D18">
-        <v>0.9935138543611527</v>
+        <v>0.9481010910050989</v>
       </c>
       <c r="E18">
-        <v>0.8655180116952559</v>
+        <v>0.7327468978360082</v>
       </c>
       <c r="F18">
-        <v>0.8764082556035098</v>
+        <v>0.7441423128748544</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033057143289021</v>
+        <v>1.011216916679134</v>
       </c>
       <c r="J18">
-        <v>0.8649657416025481</v>
+        <v>0.7266031960324252</v>
       </c>
       <c r="K18">
-        <v>1.004782407385583</v>
+        <v>0.9620963272164145</v>
       </c>
       <c r="L18">
-        <v>0.8788909679372848</v>
+        <v>0.752435669984856</v>
       </c>
       <c r="M18">
-        <v>0.8895708795426064</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7634133442481861</v>
+      </c>
+      <c r="N18">
+        <v>0.7276350559133428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8372931567317334</v>
+        <v>0.6810805495742969</v>
       </c>
       <c r="D19">
-        <v>0.9935138543611527</v>
+        <v>0.9481010910050989</v>
       </c>
       <c r="E19">
-        <v>0.8655180116952559</v>
+        <v>0.7327468978360082</v>
       </c>
       <c r="F19">
-        <v>0.8764082556035098</v>
+        <v>0.7441423128748544</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033057143289021</v>
+        <v>1.011216916679134</v>
       </c>
       <c r="J19">
-        <v>0.8649657416025481</v>
+        <v>0.7266031960324252</v>
       </c>
       <c r="K19">
-        <v>1.004782407385583</v>
+        <v>0.9620963272164145</v>
       </c>
       <c r="L19">
-        <v>0.8788909679372848</v>
+        <v>0.752435669984856</v>
       </c>
       <c r="M19">
-        <v>0.8895708795426064</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7634133442481861</v>
+      </c>
+      <c r="N19">
+        <v>0.7276350559133428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8372931567317334</v>
+        <v>0.6810805495742969</v>
       </c>
       <c r="D20">
-        <v>0.9935138543611527</v>
+        <v>0.9481010910050989</v>
       </c>
       <c r="E20">
-        <v>0.8655180116952559</v>
+        <v>0.7327468978360082</v>
       </c>
       <c r="F20">
-        <v>0.8764082556035098</v>
+        <v>0.7441423128748544</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033057143289021</v>
+        <v>1.011216916679134</v>
       </c>
       <c r="J20">
-        <v>0.8649657416025481</v>
+        <v>0.7266031960324252</v>
       </c>
       <c r="K20">
-        <v>1.004782407385583</v>
+        <v>0.9620963272164145</v>
       </c>
       <c r="L20">
-        <v>0.8788909679372848</v>
+        <v>0.752435669984856</v>
       </c>
       <c r="M20">
-        <v>0.8895708795426064</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7634133442481861</v>
+      </c>
+      <c r="N20">
+        <v>0.7276350559133428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8372931567317334</v>
+        <v>0.6810805495742969</v>
       </c>
       <c r="D21">
-        <v>0.9935138543611527</v>
+        <v>0.9481010910050989</v>
       </c>
       <c r="E21">
-        <v>0.8655180116952559</v>
+        <v>0.7327468978360082</v>
       </c>
       <c r="F21">
-        <v>0.8764082556035098</v>
+        <v>0.7441423128748544</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033057143289021</v>
+        <v>1.011216916679134</v>
       </c>
       <c r="J21">
-        <v>0.8649657416025481</v>
+        <v>0.7266031960324252</v>
       </c>
       <c r="K21">
-        <v>1.004782407385583</v>
+        <v>0.9620963272164145</v>
       </c>
       <c r="L21">
-        <v>0.8788909679372848</v>
+        <v>0.752435669984856</v>
       </c>
       <c r="M21">
-        <v>0.8895708795426064</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7634133442481861</v>
+      </c>
+      <c r="N21">
+        <v>0.7276350559133428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8372931567317334</v>
+        <v>0.6810805495742969</v>
       </c>
       <c r="D22">
-        <v>0.9935138543611527</v>
+        <v>0.9481010910050989</v>
       </c>
       <c r="E22">
-        <v>0.8655180116952559</v>
+        <v>0.7327468978360082</v>
       </c>
       <c r="F22">
-        <v>0.8764082556035098</v>
+        <v>0.7441423128748544</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033057143289021</v>
+        <v>1.011216916679134</v>
       </c>
       <c r="J22">
-        <v>0.8649657416025481</v>
+        <v>0.7266031960324252</v>
       </c>
       <c r="K22">
-        <v>1.004782407385583</v>
+        <v>0.9620963272164145</v>
       </c>
       <c r="L22">
-        <v>0.8788909679372848</v>
+        <v>0.752435669984856</v>
       </c>
       <c r="M22">
-        <v>0.8895708795426064</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7634133442481861</v>
+      </c>
+      <c r="N22">
+        <v>0.7276350559133428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8372931567317334</v>
+        <v>0.6810805495742969</v>
       </c>
       <c r="D23">
-        <v>0.9935138543611527</v>
+        <v>0.9481010910050989</v>
       </c>
       <c r="E23">
-        <v>0.8655180116952559</v>
+        <v>0.7327468978360082</v>
       </c>
       <c r="F23">
-        <v>0.8764082556035098</v>
+        <v>0.7441423128748544</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033057143289021</v>
+        <v>1.011216916679134</v>
       </c>
       <c r="J23">
-        <v>0.8649657416025481</v>
+        <v>0.7266031960324252</v>
       </c>
       <c r="K23">
-        <v>1.004782407385583</v>
+        <v>0.9620963272164145</v>
       </c>
       <c r="L23">
-        <v>0.8788909679372848</v>
+        <v>0.752435669984856</v>
       </c>
       <c r="M23">
-        <v>0.8895708795426064</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7634133442481861</v>
+      </c>
+      <c r="N23">
+        <v>0.7276350559133428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8372931567317334</v>
+        <v>0.6810805495742969</v>
       </c>
       <c r="D24">
-        <v>0.9935138543611527</v>
+        <v>0.9481010910050989</v>
       </c>
       <c r="E24">
-        <v>0.8655180116952559</v>
+        <v>0.7327468978360082</v>
       </c>
       <c r="F24">
-        <v>0.8764082556035098</v>
+        <v>0.7441423128748544</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033057143289021</v>
+        <v>1.011216916679134</v>
       </c>
       <c r="J24">
-        <v>0.8649657416025481</v>
+        <v>0.7266031960324252</v>
       </c>
       <c r="K24">
-        <v>1.004782407385583</v>
+        <v>0.9620963272164145</v>
       </c>
       <c r="L24">
-        <v>0.8788909679372848</v>
+        <v>0.752435669984856</v>
       </c>
       <c r="M24">
-        <v>0.8895708795426064</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7634133442481861</v>
+      </c>
+      <c r="N24">
+        <v>0.7276350559133428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8372931567317334</v>
+        <v>0.6810805495742969</v>
       </c>
       <c r="D25">
-        <v>0.9935138543611527</v>
+        <v>0.9481010910050989</v>
       </c>
       <c r="E25">
-        <v>0.8655180116952559</v>
+        <v>0.7327468978360082</v>
       </c>
       <c r="F25">
-        <v>0.8764082556035098</v>
+        <v>0.7441423128748544</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033057143289021</v>
+        <v>1.011216916679134</v>
       </c>
       <c r="J25">
-        <v>0.8649657416025481</v>
+        <v>0.7266031960324252</v>
       </c>
       <c r="K25">
-        <v>1.004782407385583</v>
+        <v>0.9620963272164145</v>
       </c>
       <c r="L25">
-        <v>0.8788909679372848</v>
+        <v>0.752435669984856</v>
       </c>
       <c r="M25">
-        <v>0.8895708795426064</v>
+        <v>0.7634133442481861</v>
+      </c>
+      <c r="N25">
+        <v>0.7276350559133428</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_6/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8310126953705685</v>
+        <v>0.9042361992860242</v>
       </c>
       <c r="D2">
-        <v>0.9906133674058997</v>
+        <v>1.016258691979384</v>
       </c>
       <c r="E2">
-        <v>0.8600182914206751</v>
+        <v>0.9209665736276108</v>
       </c>
       <c r="F2">
-        <v>0.8700052361087782</v>
+        <v>0.9918115751585862</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031756626835445</v>
+        <v>1.04126475030242</v>
       </c>
       <c r="J2">
-        <v>0.8597649761144044</v>
+        <v>0.9297140834525429</v>
       </c>
       <c r="K2">
-        <v>1.002205040662926</v>
+        <v>1.027496070730159</v>
       </c>
       <c r="L2">
-        <v>0.8738466349179432</v>
+        <v>0.9336490319306885</v>
       </c>
       <c r="M2">
-        <v>0.8836313511089898</v>
+        <v>1.00338617894462</v>
       </c>
       <c r="N2">
-        <v>0.8609859409969078</v>
+        <v>0.9310343840907412</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8682351246038694</v>
+        <v>0.9238190241297735</v>
       </c>
       <c r="D3">
-        <v>1.002774264413421</v>
+        <v>1.023488562203605</v>
       </c>
       <c r="E3">
-        <v>0.8921126242323895</v>
+        <v>0.9378750565166015</v>
       </c>
       <c r="F3">
-        <v>0.9024809625751365</v>
+        <v>1.002879459168794</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037418901091027</v>
+        <v>1.043824458631576</v>
       </c>
       <c r="J3">
-        <v>0.8930995082752218</v>
+        <v>0.946626303667687</v>
       </c>
       <c r="K3">
-        <v>1.013371770653639</v>
+        <v>1.033829470946368</v>
       </c>
       <c r="L3">
-        <v>0.9043413459039388</v>
+        <v>0.9493697976435461</v>
       </c>
       <c r="M3">
-        <v>0.9145349904575378</v>
+        <v>1.013475628882279</v>
       </c>
       <c r="N3">
-        <v>0.8943678120169183</v>
+        <v>0.9479706215984497</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8885273349957166</v>
+        <v>0.9355356441730447</v>
       </c>
       <c r="D4">
-        <v>1.009604880154232</v>
+        <v>1.027877207313904</v>
       </c>
       <c r="E4">
-        <v>0.9096593547320867</v>
+        <v>0.9480057775188293</v>
       </c>
       <c r="F4">
-        <v>0.9202962445099131</v>
+        <v>1.009568774054622</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040552496208165</v>
+        <v>1.045356794651372</v>
       </c>
       <c r="J4">
-        <v>0.9112870363410069</v>
+        <v>0.9567455925049927</v>
       </c>
       <c r="K4">
-        <v>1.019588748591443</v>
+        <v>1.037650429965687</v>
       </c>
       <c r="L4">
-        <v>0.9209860187096864</v>
+        <v>0.9587750596968642</v>
       </c>
       <c r="M4">
-        <v>0.9314623787498894</v>
+        <v>1.01955306807174</v>
       </c>
       <c r="N4">
-        <v>0.912581168458695</v>
+        <v>0.9581042809866033</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8964102293816726</v>
+        <v>0.9402660589439041</v>
       </c>
       <c r="D5">
-        <v>1.012291660729077</v>
+        <v>1.029661502123742</v>
       </c>
       <c r="E5">
-        <v>0.9164835890550245</v>
+        <v>0.9520985250638184</v>
       </c>
       <c r="F5">
-        <v>0.927232626940527</v>
+        <v>1.01228275381491</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041774957204364</v>
+        <v>1.045974790157741</v>
       </c>
       <c r="J5">
-        <v>0.9183533260935022</v>
+        <v>0.9608306971505939</v>
       </c>
       <c r="K5">
-        <v>1.022023027668141</v>
+        <v>1.039198682267855</v>
       </c>
       <c r="L5">
-        <v>0.9274535258308793</v>
+        <v>0.9625715174462454</v>
       </c>
       <c r="M5">
-        <v>0.9380474928009502</v>
+        <v>1.022014222437715</v>
       </c>
       <c r="N5">
-        <v>0.9196574931531536</v>
+        <v>0.9621951869493691</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8977009068915224</v>
+        <v>0.9410496814764593</v>
       </c>
       <c r="D6">
-        <v>1.012733217363205</v>
+        <v>1.029957747145846</v>
       </c>
       <c r="E6">
-        <v>0.9176013111406733</v>
+        <v>0.9527766487841065</v>
       </c>
       <c r="F6">
-        <v>0.9283690357258233</v>
+        <v>1.012733050305271</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041975287308803</v>
+        <v>1.046077103830114</v>
       </c>
       <c r="J6">
-        <v>0.9195103077392868</v>
+        <v>0.961507382599988</v>
       </c>
       <c r="K6">
-        <v>1.022422475009293</v>
+        <v>1.039455438923194</v>
       </c>
       <c r="L6">
-        <v>0.9285124874553027</v>
+        <v>0.9632003628947668</v>
       </c>
       <c r="M6">
-        <v>0.939126034905302</v>
+        <v>1.022422309848215</v>
       </c>
       <c r="N6">
-        <v>0.920816117845583</v>
+        <v>0.9628728333697184</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8886349697498095</v>
+        <v>0.9355995815854758</v>
       </c>
       <c r="D7">
-        <v>1.009641446800769</v>
+        <v>1.027901277743653</v>
       </c>
       <c r="E7">
-        <v>0.9097525065667766</v>
+        <v>0.9480610865342418</v>
       </c>
       <c r="F7">
-        <v>0.9203909026565774</v>
+        <v>1.00960540728281</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04056917334476</v>
+        <v>1.045365151299733</v>
       </c>
       <c r="J7">
-        <v>0.9113835194356217</v>
+        <v>0.9568008100127922</v>
       </c>
       <c r="K7">
-        <v>1.019621921408368</v>
+        <v>1.037671336533572</v>
       </c>
       <c r="L7">
-        <v>0.921074324279534</v>
+        <v>0.9588263773570638</v>
       </c>
       <c r="M7">
-        <v>0.9315522652149211</v>
+        <v>1.019586306504976</v>
       </c>
       <c r="N7">
-        <v>0.912677788570371</v>
+        <v>0.9581595769095971</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8445931478057823</v>
+        <v>0.9110750876605512</v>
       </c>
       <c r="D8">
-        <v>0.9949904055759082</v>
+        <v>1.0187679535594</v>
       </c>
       <c r="E8">
-        <v>0.8717123173277392</v>
+        <v>0.9268678347355535</v>
       </c>
       <c r="F8">
-        <v>0.8818181981873018</v>
+        <v>0.9956600681259549</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033806276224883</v>
+        <v>1.042157878814368</v>
       </c>
       <c r="J8">
-        <v>0.8719211152818981</v>
+        <v>0.9356198149893358</v>
       </c>
       <c r="K8">
-        <v>1.006238665344834</v>
+        <v>1.029699563257322</v>
       </c>
       <c r="L8">
-        <v>0.8849647936809734</v>
+        <v>0.9391388604897667</v>
       </c>
       <c r="M8">
-        <v>0.8948788562991289</v>
+        <v>1.006899149250874</v>
       </c>
       <c r="N8">
-        <v>0.8731593432763484</v>
+        <v>0.9369485024437133</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>0.6810805495742969</v>
+        <v>0.8583307249994681</v>
       </c>
       <c r="D9">
-        <v>0.9481010910050989</v>
+        <v>0.9998938939967181</v>
       </c>
       <c r="E9">
-        <v>0.7327468978360082</v>
+        <v>0.8814790384907006</v>
       </c>
       <c r="F9">
-        <v>0.7441423128748544</v>
+        <v>0.9664955705483576</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.011216916679134</v>
+        <v>1.035329714141568</v>
       </c>
       <c r="J9">
-        <v>0.7266031960324252</v>
+        <v>0.890112450783917</v>
       </c>
       <c r="K9">
-        <v>0.9620963272164145</v>
+        <v>1.012988692931348</v>
       </c>
       <c r="L9">
-        <v>0.752435669984856</v>
+        <v>0.8968402763304777</v>
       </c>
       <c r="M9">
-        <v>0.7634133442481861</v>
+        <v>0.9801566764583913</v>
       </c>
       <c r="N9">
-        <v>0.7276350559133428</v>
+        <v>0.8913765125613552</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.6810805495742969</v>
+        <v>0.8112210923895489</v>
       </c>
       <c r="D10">
-        <v>0.9481010910050989</v>
+        <v>0.9840743948788083</v>
       </c>
       <c r="E10">
-        <v>0.7327468978360082</v>
+        <v>0.8412446866490512</v>
       </c>
       <c r="F10">
-        <v>0.7441423128748544</v>
+        <v>0.9415843985660193</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.011216916679134</v>
+        <v>1.029432863996966</v>
       </c>
       <c r="J10">
-        <v>0.7266031960324252</v>
+        <v>0.8496115624256797</v>
       </c>
       <c r="K10">
-        <v>0.9620963272164145</v>
+        <v>0.9987372702080733</v>
       </c>
       <c r="L10">
-        <v>0.752435669984856</v>
+        <v>0.8592248052521589</v>
       </c>
       <c r="M10">
-        <v>0.7634133442481861</v>
+        <v>0.9570950342224562</v>
       </c>
       <c r="N10">
-        <v>0.7276350559133428</v>
+        <v>0.8508181082961325</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.6810805495742969</v>
+        <v>0.7849062319917492</v>
       </c>
       <c r="D11">
-        <v>0.9481010910050989</v>
+        <v>0.9757184502507817</v>
       </c>
       <c r="E11">
-        <v>0.7327468978360082</v>
+        <v>0.8189345950366242</v>
       </c>
       <c r="F11">
-        <v>0.7441423128748544</v>
+        <v>0.928207548317324</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.011216916679134</v>
+        <v>1.026260940470147</v>
       </c>
       <c r="J11">
-        <v>0.7266031960324252</v>
+        <v>0.8270840203794999</v>
       </c>
       <c r="K11">
-        <v>0.9620963272164145</v>
+        <v>0.9911132834225104</v>
       </c>
       <c r="L11">
-        <v>0.752435669984856</v>
+        <v>0.8383267641490438</v>
       </c>
       <c r="M11">
-        <v>0.7634133442481861</v>
+        <v>0.9446234544840832</v>
       </c>
       <c r="N11">
-        <v>0.7276350559133428</v>
+        <v>0.8282585745563019</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.6810805495742969</v>
+        <v>0.773548609280001</v>
       </c>
       <c r="D12">
-        <v>0.9481010910050989</v>
+        <v>0.9722255766801083</v>
       </c>
       <c r="E12">
-        <v>0.7327468978360082</v>
+        <v>0.8093483456336464</v>
       </c>
       <c r="F12">
-        <v>0.7441423128748544</v>
+        <v>0.9225633417834155</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.011216916679134</v>
+        <v>1.024923631984767</v>
       </c>
       <c r="J12">
-        <v>0.7266031960324252</v>
+        <v>0.8173876768244355</v>
       </c>
       <c r="K12">
-        <v>0.9620963272164145</v>
+        <v>0.9879049631677722</v>
       </c>
       <c r="L12">
-        <v>0.752435669984856</v>
+        <v>0.8293391893672981</v>
       </c>
       <c r="M12">
-        <v>0.7634133442481861</v>
+        <v>0.9393413539287573</v>
       </c>
       <c r="N12">
-        <v>0.7276350559133428</v>
+        <v>0.8185484610812034</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.6810805495742969</v>
+        <v>0.7760783961208951</v>
       </c>
       <c r="D13">
-        <v>0.9481010910050989</v>
+        <v>0.9729975025288211</v>
       </c>
       <c r="E13">
-        <v>0.7327468978360082</v>
+        <v>0.8114811864946978</v>
       </c>
       <c r="F13">
-        <v>0.7441423128748544</v>
+        <v>0.9238135634184633</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.011216916679134</v>
+        <v>1.025219757573994</v>
       </c>
       <c r="J13">
-        <v>0.7266031960324252</v>
+        <v>0.8195459192966252</v>
       </c>
       <c r="K13">
-        <v>0.9620963272164145</v>
+        <v>0.9886151362092385</v>
       </c>
       <c r="L13">
-        <v>0.752435669984856</v>
+        <v>0.8313392408557619</v>
       </c>
       <c r="M13">
-        <v>0.7634133442481861</v>
+        <v>0.9405124246055216</v>
       </c>
       <c r="N13">
-        <v>0.7276350559133428</v>
+        <v>0.8207097685052572</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.6810805495742969</v>
+        <v>0.7840070258606937</v>
       </c>
       <c r="D14">
-        <v>0.9481010910050989</v>
+        <v>0.9754393681297415</v>
       </c>
       <c r="E14">
-        <v>0.7327468978360082</v>
+        <v>0.8181746398863983</v>
       </c>
       <c r="F14">
-        <v>0.7441423128748544</v>
+        <v>0.9277577727453279</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.011216916679134</v>
+        <v>1.026154336333039</v>
       </c>
       <c r="J14">
-        <v>0.7266031960324252</v>
+        <v>0.8263157158556094</v>
       </c>
       <c r="K14">
-        <v>0.9620963272164145</v>
+        <v>0.9908574164327781</v>
       </c>
       <c r="L14">
-        <v>0.752435669984856</v>
+        <v>0.837614442743071</v>
       </c>
       <c r="M14">
-        <v>0.7634133442481861</v>
+        <v>0.9442029798722351</v>
       </c>
       <c r="N14">
-        <v>0.7276350559133428</v>
+        <v>0.8274891789518617</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.6810805495742969</v>
+        <v>0.7886469685871642</v>
       </c>
       <c r="D15">
-        <v>0.9481010910050989</v>
+        <v>0.9768840919029476</v>
       </c>
       <c r="E15">
-        <v>0.7327468978360082</v>
+        <v>0.8220978209719619</v>
       </c>
       <c r="F15">
-        <v>0.7441423128748544</v>
+        <v>0.9300839376821807</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.011216916679134</v>
+        <v>1.026705730009746</v>
       </c>
       <c r="J15">
-        <v>0.7266031960324252</v>
+        <v>0.8302813138029611</v>
       </c>
       <c r="K15">
-        <v>0.9620963272164145</v>
+        <v>0.9921810793852359</v>
       </c>
       <c r="L15">
-        <v>0.752435669984856</v>
+        <v>0.8412913963421856</v>
       </c>
       <c r="M15">
-        <v>0.7634133442481861</v>
+        <v>0.9463767874135832</v>
       </c>
       <c r="N15">
-        <v>0.7276350559133428</v>
+        <v>0.8314604085031591</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.6810805495742969</v>
+        <v>0.8127997434791806</v>
       </c>
       <c r="D16">
-        <v>0.9481010910050989</v>
+        <v>0.984587037175067</v>
       </c>
       <c r="E16">
-        <v>0.7327468978360082</v>
+        <v>0.8425871788674363</v>
       </c>
       <c r="F16">
-        <v>0.7441423128748544</v>
+        <v>0.9423997181874514</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.011216916679134</v>
+        <v>1.029626204623232</v>
       </c>
       <c r="J16">
-        <v>0.7266031960324252</v>
+        <v>0.8509654891233981</v>
       </c>
       <c r="K16">
-        <v>0.9620963272164145</v>
+        <v>0.9992027529356987</v>
       </c>
       <c r="L16">
-        <v>0.752435669984856</v>
+        <v>0.8604814642695983</v>
       </c>
       <c r="M16">
-        <v>0.7634133442481861</v>
+        <v>0.9578531211068515</v>
       </c>
       <c r="N16">
-        <v>0.7276350559133428</v>
+        <v>0.8521739577250591</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.6810805495742969</v>
+        <v>0.8260686911746575</v>
       </c>
       <c r="D17">
-        <v>0.9481010910050989</v>
+        <v>0.9889451478210186</v>
       </c>
       <c r="E17">
-        <v>0.7327468978360082</v>
+        <v>0.8538880151801662</v>
       </c>
       <c r="F17">
-        <v>0.7441423128748544</v>
+        <v>0.9493078205783401</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.011216916679134</v>
+        <v>1.031263888407016</v>
       </c>
       <c r="J17">
-        <v>0.7266031960324252</v>
+        <v>0.8623554577983843</v>
       </c>
       <c r="K17">
-        <v>0.9620963272164145</v>
+        <v>1.003149825413205</v>
       </c>
       <c r="L17">
-        <v>0.752435669984856</v>
+        <v>0.871055713612541</v>
       </c>
       <c r="M17">
-        <v>0.7634133442481861</v>
+        <v>0.9642671480381626</v>
       </c>
       <c r="N17">
-        <v>0.7276350559133428</v>
+        <v>0.8635801014620116</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.6810805495742969</v>
+        <v>0.8332990971500317</v>
       </c>
       <c r="D18">
-        <v>0.9481010910050989</v>
+        <v>0.9913562942024973</v>
       </c>
       <c r="E18">
-        <v>0.7327468978360082</v>
+        <v>0.8600581049629945</v>
       </c>
       <c r="F18">
-        <v>0.7441423128748544</v>
+        <v>0.9531126871692301</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.011216916679134</v>
+        <v>1.032165310759882</v>
       </c>
       <c r="J18">
-        <v>0.7266031960324252</v>
+        <v>0.8685689388562866</v>
       </c>
       <c r="K18">
-        <v>0.9620963272164145</v>
+        <v>1.005325916156264</v>
       </c>
       <c r="L18">
-        <v>0.752435669984856</v>
+        <v>0.8768259490419232</v>
       </c>
       <c r="M18">
-        <v>0.7634133442481861</v>
+        <v>0.9677930058378242</v>
       </c>
       <c r="N18">
-        <v>0.7276350559133428</v>
+        <v>0.8698024063757125</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.6810805495742969</v>
+        <v>0.835689330962751</v>
       </c>
       <c r="D19">
-        <v>0.9481010910050989</v>
+        <v>0.9921589035156854</v>
       </c>
       <c r="E19">
-        <v>0.7327468978360082</v>
+        <v>0.8620996133502459</v>
       </c>
       <c r="F19">
-        <v>0.7441423128748544</v>
+        <v>0.9543766462024382</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.011216916679134</v>
+        <v>1.032464628405262</v>
       </c>
       <c r="J19">
-        <v>0.7266031960324252</v>
+        <v>0.8706239979710597</v>
       </c>
       <c r="K19">
-        <v>0.9620963272164145</v>
+        <v>1.006049092734658</v>
       </c>
       <c r="L19">
-        <v>0.752435669984856</v>
+        <v>0.8787346521334346</v>
       </c>
       <c r="M19">
-        <v>0.7634133442481861</v>
+        <v>0.9689632136045765</v>
       </c>
       <c r="N19">
-        <v>0.7276350559133428</v>
+        <v>0.871860383910147</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.6810805495742969</v>
+        <v>0.8247006069118994</v>
       </c>
       <c r="D20">
-        <v>0.9481010910050989</v>
+        <v>0.9884917850229937</v>
       </c>
       <c r="E20">
-        <v>0.7327468978360082</v>
+        <v>0.8527214954942877</v>
       </c>
       <c r="F20">
-        <v>0.7441423128748544</v>
+        <v>0.9485910710626466</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.011216916679134</v>
+        <v>1.031094024572915</v>
       </c>
       <c r="J20">
-        <v>0.7266031960324252</v>
+        <v>0.8611803197759199</v>
       </c>
       <c r="K20">
-        <v>0.9620963272164145</v>
+        <v>1.00274005663844</v>
       </c>
       <c r="L20">
-        <v>0.752435669984856</v>
+        <v>0.8699645367257399</v>
       </c>
       <c r="M20">
-        <v>0.7634133442481861</v>
+        <v>0.9636024146793584</v>
       </c>
       <c r="N20">
-        <v>0.7276350559133428</v>
+        <v>0.8624032946087647</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.6810805495742969</v>
+        <v>0.7817261182235709</v>
       </c>
       <c r="D21">
-        <v>0.9481010910050989</v>
+        <v>0.974733405808014</v>
       </c>
       <c r="E21">
-        <v>0.7327468978360082</v>
+        <v>0.8162477069022328</v>
       </c>
       <c r="F21">
-        <v>0.7441423128748544</v>
+        <v>0.9266191114146629</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.011216916679134</v>
+        <v>1.025884480374199</v>
       </c>
       <c r="J21">
-        <v>0.7266031960324252</v>
+        <v>0.8243673235179078</v>
       </c>
       <c r="K21">
-        <v>0.9620963272164145</v>
+        <v>0.9902098110416793</v>
       </c>
       <c r="L21">
-        <v>0.752435669984856</v>
+        <v>0.8358081547985117</v>
       </c>
       <c r="M21">
-        <v>0.7634133442481861</v>
+        <v>0.9431381559446715</v>
       </c>
       <c r="N21">
-        <v>0.7276350559133428</v>
+        <v>0.825538019673557</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.6810805495742969</v>
+        <v>0.7440303281034001</v>
       </c>
       <c r="D22">
-        <v>0.9481010910050989</v>
+        <v>0.963482557089207</v>
       </c>
       <c r="E22">
-        <v>0.7327468978360082</v>
+        <v>0.7845711866740588</v>
       </c>
       <c r="F22">
-        <v>0.7441423128748544</v>
+        <v>0.9082808207964151</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011216916679134</v>
+        <v>1.021546345490894</v>
       </c>
       <c r="J22">
-        <v>0.7266031960324252</v>
+        <v>0.7922749487206474</v>
       </c>
       <c r="K22">
-        <v>0.9620963272164145</v>
+        <v>0.9798138835670092</v>
       </c>
       <c r="L22">
-        <v>0.752435669984856</v>
+        <v>0.8060876687707891</v>
       </c>
       <c r="M22">
-        <v>0.7634133442481861</v>
+        <v>0.9259180130824064</v>
       </c>
       <c r="N22">
-        <v>0.7276350559133428</v>
+        <v>0.7934000700230375</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.6810805495742969</v>
+        <v>0.7656431215807541</v>
       </c>
       <c r="D23">
-        <v>0.9481010910050989</v>
+        <v>0.9698360563718199</v>
       </c>
       <c r="E23">
-        <v>0.7327468978360082</v>
+        <v>0.8026924600147834</v>
       </c>
       <c r="F23">
-        <v>0.7441423128748544</v>
+        <v>0.9186826020424813</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.011216916679134</v>
+        <v>1.024004869651177</v>
       </c>
       <c r="J23">
-        <v>0.7266031960324252</v>
+        <v>0.8106490897018005</v>
       </c>
       <c r="K23">
-        <v>0.9620963272164145</v>
+        <v>0.9857024186373528</v>
       </c>
       <c r="L23">
-        <v>0.752435669984856</v>
+        <v>0.8230962001383597</v>
       </c>
       <c r="M23">
-        <v>0.7634133442481861</v>
+        <v>0.9357023758643981</v>
       </c>
       <c r="N23">
-        <v>0.7276350559133428</v>
+        <v>0.8118003043919273</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.6810805495742969</v>
+        <v>0.8253203208793514</v>
       </c>
       <c r="D24">
-        <v>0.9481010910050989</v>
+        <v>0.9886970356239533</v>
       </c>
       <c r="E24">
-        <v>0.7327468978360082</v>
+        <v>0.8532498672179865</v>
       </c>
       <c r="F24">
-        <v>0.7441423128748544</v>
+        <v>0.9489156174175081</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.011216916679134</v>
+        <v>1.031170941385063</v>
       </c>
       <c r="J24">
-        <v>0.7266031960324252</v>
+        <v>0.8617126115877907</v>
       </c>
       <c r="K24">
-        <v>0.9620963272164145</v>
+        <v>1.002925594731244</v>
       </c>
       <c r="L24">
-        <v>0.752435669984856</v>
+        <v>0.8704587920396173</v>
       </c>
       <c r="M24">
-        <v>0.7634133442481861</v>
+        <v>0.9639034293829408</v>
       </c>
       <c r="N24">
-        <v>0.7276350559133428</v>
+        <v>0.8629363423360632</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.6810805495742969</v>
+        <v>0.8734940641395047</v>
       </c>
       <c r="D25">
-        <v>0.9481010910050989</v>
+        <v>1.005202718432238</v>
       </c>
       <c r="E25">
-        <v>0.7327468978360082</v>
+        <v>0.894496026922923</v>
       </c>
       <c r="F25">
-        <v>0.7441423128748544</v>
+        <v>0.9747528605737372</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.011216916679134</v>
+        <v>1.037274809212985</v>
       </c>
       <c r="J25">
-        <v>0.7266031960324252</v>
+        <v>0.9031830436433926</v>
       </c>
       <c r="K25">
-        <v>0.9620963272164145</v>
+        <v>1.017720802231516</v>
       </c>
       <c r="L25">
-        <v>0.752435669984856</v>
+        <v>0.9089874220397743</v>
       </c>
       <c r="M25">
-        <v>0.7634133442481861</v>
+        <v>0.9877561719801461</v>
       </c>
       <c r="N25">
-        <v>0.7276350559133428</v>
+        <v>0.9044656671619093</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_6/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9042361992860242</v>
+        <v>0.8972578809736359</v>
       </c>
       <c r="D2">
-        <v>1.016258691979384</v>
+        <v>1.029642249779684</v>
       </c>
       <c r="E2">
-        <v>0.9209665736276108</v>
+        <v>0.9164809909461364</v>
       </c>
       <c r="F2">
-        <v>0.9918115751585862</v>
+        <v>0.8676915893751154</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04126475030242</v>
+        <v>1.046847012775419</v>
       </c>
       <c r="J2">
-        <v>0.9297140834525429</v>
+        <v>0.9230152531614805</v>
       </c>
       <c r="K2">
-        <v>1.027496070730159</v>
+        <v>1.040703507696006</v>
       </c>
       <c r="L2">
-        <v>0.9336490319306885</v>
+        <v>0.929241056204648</v>
       </c>
       <c r="M2">
-        <v>1.00338617894462</v>
+        <v>0.8813640088590842</v>
       </c>
       <c r="N2">
-        <v>0.9310343840907412</v>
+        <v>0.9756730859597319</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9238190241297735</v>
+        <v>0.9110085450654201</v>
       </c>
       <c r="D3">
-        <v>1.023488562203605</v>
+        <v>1.03121079133331</v>
       </c>
       <c r="E3">
-        <v>0.9378750565166015</v>
+        <v>0.9281191923950979</v>
       </c>
       <c r="F3">
-        <v>1.002879459168794</v>
+        <v>0.8854079376135569</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043824458631576</v>
+        <v>1.047082302303658</v>
       </c>
       <c r="J3">
-        <v>0.946626303667687</v>
+        <v>0.9342588236415327</v>
       </c>
       <c r="K3">
-        <v>1.033829470946368</v>
+        <v>1.041459311046039</v>
       </c>
       <c r="L3">
-        <v>0.9493697976435461</v>
+        <v>0.9397626542125568</v>
       </c>
       <c r="M3">
-        <v>1.013475628882279</v>
+        <v>0.8977524455918255</v>
       </c>
       <c r="N3">
-        <v>0.9479706215984497</v>
+        <v>0.9798014457847806</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9355356441730447</v>
+        <v>0.9193582179583234</v>
       </c>
       <c r="D4">
-        <v>1.027877207313904</v>
+        <v>1.032206919829202</v>
       </c>
       <c r="E4">
-        <v>0.9480057775188293</v>
+        <v>0.9351980826542228</v>
       </c>
       <c r="F4">
-        <v>1.009568774054622</v>
+        <v>0.8961262570290394</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045356794651372</v>
+        <v>1.047219142987687</v>
       </c>
       <c r="J4">
-        <v>0.9567455925049927</v>
+        <v>0.9410767194369232</v>
       </c>
       <c r="K4">
-        <v>1.037650429965687</v>
+        <v>1.041931574488913</v>
       </c>
       <c r="L4">
-        <v>0.9587750596968642</v>
+        <v>0.9461470959669318</v>
       </c>
       <c r="M4">
-        <v>1.01955306807174</v>
+        <v>0.9076642168343302</v>
       </c>
       <c r="N4">
-        <v>0.9581042809866033</v>
+        <v>0.9823042353921555</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9402660589439041</v>
+        <v>0.9227529152300883</v>
       </c>
       <c r="D5">
-        <v>1.029661502123742</v>
+        <v>1.032621214092848</v>
       </c>
       <c r="E5">
-        <v>0.9520985250638184</v>
+        <v>0.9380785569793918</v>
       </c>
       <c r="F5">
-        <v>1.01228275381491</v>
+        <v>0.9004766131642441</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045974790157741</v>
+        <v>1.047272985406224</v>
       </c>
       <c r="J5">
-        <v>0.9608306971505939</v>
+        <v>0.9438463311798617</v>
       </c>
       <c r="K5">
-        <v>1.039198682267855</v>
+        <v>1.042126105599354</v>
       </c>
       <c r="L5">
-        <v>0.9625715174462454</v>
+        <v>0.9487414961901035</v>
       </c>
       <c r="M5">
-        <v>1.022014222437715</v>
+        <v>0.9116862249632102</v>
       </c>
       <c r="N5">
-        <v>0.9621951869493691</v>
+        <v>0.9833205315127959</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9410496814764593</v>
+        <v>0.9233165231143481</v>
       </c>
       <c r="D6">
-        <v>1.029957747145846</v>
+        <v>1.03269051411446</v>
       </c>
       <c r="E6">
-        <v>0.9527766487841065</v>
+        <v>0.9385569226776497</v>
       </c>
       <c r="F6">
-        <v>1.012733050305271</v>
+        <v>0.901198504506211</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046077103830114</v>
+        <v>1.047281809749891</v>
       </c>
       <c r="J6">
-        <v>0.961507382599988</v>
+        <v>0.9443060206251229</v>
       </c>
       <c r="K6">
-        <v>1.039455438923194</v>
+        <v>1.042158533491345</v>
       </c>
       <c r="L6">
-        <v>0.9632003628947668</v>
+        <v>0.9491721514914349</v>
       </c>
       <c r="M6">
-        <v>1.022422309848215</v>
+        <v>0.9123535670892958</v>
       </c>
       <c r="N6">
-        <v>0.9628728333697184</v>
+        <v>0.9834891815847011</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9355995815854758</v>
+        <v>0.9194040135936414</v>
       </c>
       <c r="D7">
-        <v>1.027901277743653</v>
+        <v>1.032212473207964</v>
       </c>
       <c r="E7">
-        <v>0.9480610865342418</v>
+        <v>0.9352369320688905</v>
       </c>
       <c r="F7">
-        <v>1.00960540728281</v>
+        <v>0.8961849716740578</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045365151299733</v>
+        <v>1.047219876909364</v>
       </c>
       <c r="J7">
-        <v>0.9568008100127922</v>
+        <v>0.9411140917510655</v>
       </c>
       <c r="K7">
-        <v>1.037671336533572</v>
+        <v>1.04193418955789</v>
       </c>
       <c r="L7">
-        <v>0.9588263773570638</v>
+        <v>0.9461821007713478</v>
       </c>
       <c r="M7">
-        <v>1.019586306504976</v>
+        <v>0.9077185041156134</v>
       </c>
       <c r="N7">
-        <v>0.9581595769095971</v>
+        <v>0.982317950923758</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9110750876605512</v>
+        <v>0.9020289927595313</v>
       </c>
       <c r="D8">
-        <v>1.0187679535594</v>
+        <v>1.030176260413161</v>
       </c>
       <c r="E8">
-        <v>0.9268678347355535</v>
+        <v>0.9205162565860351</v>
       </c>
       <c r="F8">
-        <v>0.9956600681259549</v>
+        <v>0.873848694229803</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042157878814368</v>
+        <v>1.04692972229462</v>
       </c>
       <c r="J8">
-        <v>0.9356198149893358</v>
+        <v>0.9269184689326926</v>
       </c>
       <c r="K8">
-        <v>1.029699563257322</v>
+        <v>1.040962419099497</v>
       </c>
       <c r="L8">
-        <v>0.9391388604897667</v>
+        <v>0.9328925813043599</v>
       </c>
       <c r="M8">
-        <v>1.006899149250874</v>
+        <v>0.8870601362853683</v>
       </c>
       <c r="N8">
-        <v>0.9369485024437133</v>
+        <v>0.9771061905313948</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8583307249994681</v>
+        <v>0.8662636881771472</v>
       </c>
       <c r="D9">
-        <v>0.9998938939967181</v>
+        <v>1.026442710141579</v>
       </c>
       <c r="E9">
-        <v>0.8814790384907006</v>
+        <v>0.8903482105971483</v>
       </c>
       <c r="F9">
-        <v>0.9664955705483576</v>
+        <v>0.8273730294234342</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035329714141568</v>
+        <v>1.046300249603782</v>
       </c>
       <c r="J9">
-        <v>0.890112450783917</v>
+        <v>0.8976176628151555</v>
       </c>
       <c r="K9">
-        <v>1.012988692931348</v>
+        <v>1.03912086127245</v>
       </c>
       <c r="L9">
-        <v>0.8968402763304777</v>
+        <v>0.9055119080682134</v>
       </c>
       <c r="M9">
-        <v>0.9801566764583913</v>
+        <v>0.8440642989151739</v>
       </c>
       <c r="N9">
-        <v>0.8913765125613552</v>
+        <v>0.9663607908343533</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8112210923895489</v>
+        <v>0.8369435302844479</v>
       </c>
       <c r="D10">
-        <v>0.9840743948788083</v>
+        <v>1.023853917626846</v>
       </c>
       <c r="E10">
-        <v>0.8412446866490512</v>
+        <v>0.8657714029518846</v>
       </c>
       <c r="F10">
-        <v>0.9415843985660193</v>
+        <v>0.7885550794316873</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029432863996966</v>
+        <v>1.045800826930256</v>
       </c>
       <c r="J10">
-        <v>0.8496115624256797</v>
+        <v>0.8735430889903436</v>
       </c>
       <c r="K10">
-        <v>0.9987372702080733</v>
+        <v>1.037805436977404</v>
       </c>
       <c r="L10">
-        <v>0.8592248052521589</v>
+        <v>0.883076077681018</v>
       </c>
       <c r="M10">
-        <v>0.9570950342224562</v>
+        <v>0.8081854291398575</v>
       </c>
       <c r="N10">
-        <v>0.8508181082961325</v>
+        <v>0.9575757083419286</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7849062319917492</v>
+        <v>0.822110808780642</v>
       </c>
       <c r="D11">
-        <v>0.9757184502507817</v>
+        <v>1.022708820873848</v>
       </c>
       <c r="E11">
-        <v>0.8189345950366242</v>
+        <v>0.8533979789262799</v>
       </c>
       <c r="F11">
-        <v>0.928207548317324</v>
+        <v>0.7685805198214383</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026260940470147</v>
+        <v>1.045565562565123</v>
       </c>
       <c r="J11">
-        <v>0.8270840203794999</v>
+        <v>0.8613507116806649</v>
       </c>
       <c r="K11">
-        <v>0.9911132834225104</v>
+        <v>1.03721482310515</v>
       </c>
       <c r="L11">
-        <v>0.8383267641490438</v>
+        <v>0.8717386533041505</v>
       </c>
       <c r="M11">
-        <v>0.9446234544840832</v>
+        <v>0.7897499701944014</v>
       </c>
       <c r="N11">
-        <v>0.8282585745563019</v>
+        <v>0.9531502434736543</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.773548609280001</v>
+        <v>0.816147462032038</v>
       </c>
       <c r="D12">
-        <v>0.9722255766801083</v>
+        <v>1.022279813821027</v>
       </c>
       <c r="E12">
-        <v>0.8093483456336464</v>
+        <v>0.8484354199739315</v>
       </c>
       <c r="F12">
-        <v>0.9225633417834155</v>
+        <v>0.7604723983083388</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024923631984767</v>
+        <v>1.045475309823012</v>
       </c>
       <c r="J12">
-        <v>0.8173876768244355</v>
+        <v>0.8564466067570701</v>
       </c>
       <c r="K12">
-        <v>0.9879049631677722</v>
+        <v>1.036992263729265</v>
       </c>
       <c r="L12">
-        <v>0.8293391893672981</v>
+        <v>0.8671837222984764</v>
       </c>
       <c r="M12">
-        <v>0.9393413539287573</v>
+        <v>0.7822737311778297</v>
       </c>
       <c r="N12">
-        <v>0.8185484610812034</v>
+        <v>0.9513755944304981</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7760783961208951</v>
+        <v>0.8174503335351712</v>
       </c>
       <c r="D13">
-        <v>0.9729975025288211</v>
+        <v>1.022372003920659</v>
       </c>
       <c r="E13">
-        <v>0.8114811864946978</v>
+        <v>0.8495190355796792</v>
       </c>
       <c r="F13">
-        <v>0.9238135634184633</v>
+        <v>0.7622479629256692</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025219757573994</v>
+        <v>1.045494799145108</v>
       </c>
       <c r="J13">
-        <v>0.8195459192966252</v>
+        <v>0.8575181667427565</v>
       </c>
       <c r="K13">
-        <v>0.9886151362092385</v>
+        <v>1.037040147666441</v>
       </c>
       <c r="L13">
-        <v>0.8313392408557619</v>
+        <v>0.8681787164242508</v>
       </c>
       <c r="M13">
-        <v>0.9405124246055216</v>
+        <v>0.7839105310813642</v>
       </c>
       <c r="N13">
-        <v>0.8207097685052572</v>
+        <v>0.9517630793444642</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7840070258606937</v>
+        <v>0.8216282357642776</v>
       </c>
       <c r="D14">
-        <v>0.9754393681297415</v>
+        <v>1.022673434071068</v>
       </c>
       <c r="E14">
-        <v>0.8181746398863983</v>
+        <v>0.8529961310811947</v>
       </c>
       <c r="F14">
-        <v>0.9277577727453279</v>
+        <v>0.7679261418563286</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026154336333039</v>
+        <v>1.045558160746259</v>
       </c>
       <c r="J14">
-        <v>0.8263157158556094</v>
+        <v>0.8609539043508182</v>
       </c>
       <c r="K14">
-        <v>0.9908574164327781</v>
+        <v>1.037196491250169</v>
       </c>
       <c r="L14">
-        <v>0.837614442743071</v>
+        <v>0.8713699821141695</v>
       </c>
       <c r="M14">
-        <v>0.9442029798722351</v>
+        <v>0.7891464232352396</v>
       </c>
       <c r="N14">
-        <v>0.8274891789518617</v>
+        <v>0.953006530064851</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7886469685871642</v>
+        <v>0.8241367417245742</v>
       </c>
       <c r="D15">
-        <v>0.9768840919029476</v>
+        <v>1.022858667935694</v>
       </c>
       <c r="E15">
-        <v>0.8220978209719619</v>
+        <v>0.8550855105940532</v>
       </c>
       <c r="F15">
-        <v>0.9300839376821807</v>
+        <v>0.7713244543371323</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026705730009746</v>
+        <v>1.045596819989582</v>
       </c>
       <c r="J15">
-        <v>0.8302813138029611</v>
+        <v>0.8630164911271644</v>
       </c>
       <c r="K15">
-        <v>0.9921810793852359</v>
+        <v>1.037292397812507</v>
       </c>
       <c r="L15">
-        <v>0.8412913963421856</v>
+        <v>0.8732865386559449</v>
       </c>
       <c r="M15">
-        <v>0.9463767874135832</v>
+        <v>0.7922810641505754</v>
       </c>
       <c r="N15">
-        <v>0.8314604085031591</v>
+        <v>0.9537537721844127</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>0.8127997434791806</v>
+        <v>0.8378734020456421</v>
       </c>
       <c r="D16">
-        <v>0.984587037175067</v>
+        <v>1.023929401978527</v>
       </c>
       <c r="E16">
-        <v>0.8425871788674363</v>
+        <v>0.8665484866922891</v>
       </c>
       <c r="F16">
-        <v>0.9423997181874514</v>
+        <v>0.7897988975200901</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029626204623232</v>
+        <v>1.045816039370124</v>
       </c>
       <c r="J16">
-        <v>0.8509654891233981</v>
+        <v>0.8743071605849554</v>
       </c>
       <c r="K16">
-        <v>0.9992027529356987</v>
+        <v>1.037844189381429</v>
       </c>
       <c r="L16">
-        <v>0.8604814642695983</v>
+        <v>0.8837871662486106</v>
       </c>
       <c r="M16">
-        <v>0.9578531211068515</v>
+        <v>0.8093341324063098</v>
       </c>
       <c r="N16">
-        <v>0.8521739577250591</v>
+        <v>0.9578536350966573</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8260686911746575</v>
+        <v>0.8458473026192697</v>
       </c>
       <c r="D17">
-        <v>0.9889451478210186</v>
+        <v>1.02459455542163</v>
       </c>
       <c r="E17">
-        <v>0.8538880151801662</v>
+        <v>0.8732187026322625</v>
       </c>
       <c r="F17">
-        <v>0.9493078205783401</v>
+        <v>0.8004279706468185</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031263888407016</v>
+        <v>1.04594845407632</v>
       </c>
       <c r="J17">
-        <v>0.8623554577983843</v>
+        <v>0.8808578769797848</v>
       </c>
       <c r="K17">
-        <v>1.003149825413205</v>
+        <v>1.038184670434247</v>
       </c>
       <c r="L17">
-        <v>0.871055713612541</v>
+        <v>0.8898863706398974</v>
       </c>
       <c r="M17">
-        <v>0.9642671480381626</v>
+        <v>0.8191533571140593</v>
       </c>
       <c r="N17">
-        <v>0.8635801014620116</v>
+        <v>0.9602390417804266</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8332990971500317</v>
+        <v>0.8503037835804884</v>
       </c>
       <c r="D18">
-        <v>0.9913562942024973</v>
+        <v>1.024980202627936</v>
       </c>
       <c r="E18">
-        <v>0.8600581049629945</v>
+        <v>0.8769515674042555</v>
       </c>
       <c r="F18">
-        <v>0.9531126871692301</v>
+        <v>0.8063409913229036</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032165310759882</v>
+        <v>1.046023855691627</v>
       </c>
       <c r="J18">
-        <v>0.8685689388562866</v>
+        <v>0.8845178239282423</v>
       </c>
       <c r="K18">
-        <v>1.005325916156264</v>
+        <v>1.038381239943934</v>
       </c>
       <c r="L18">
-        <v>0.8768259490419232</v>
+        <v>0.8932961251448813</v>
       </c>
       <c r="M18">
-        <v>0.9677930058378242</v>
+        <v>0.8246179297758665</v>
       </c>
       <c r="N18">
-        <v>0.8698024063757125</v>
+        <v>0.9615737238664523</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.835689330962751</v>
+        <v>0.8517931550493981</v>
       </c>
       <c r="D19">
-        <v>0.9921589035156854</v>
+        <v>1.025111305138276</v>
       </c>
       <c r="E19">
-        <v>0.8620996133502459</v>
+        <v>0.8781998865437639</v>
       </c>
       <c r="F19">
-        <v>0.9543766462024382</v>
+        <v>0.8083130000306396</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032464628405262</v>
+        <v>1.046049254932268</v>
       </c>
       <c r="J19">
-        <v>0.8706239979710597</v>
+        <v>0.8857407999382942</v>
       </c>
       <c r="K19">
-        <v>1.006049092734658</v>
+        <v>1.038447921787886</v>
       </c>
       <c r="L19">
-        <v>0.8787346521334346</v>
+        <v>0.8944358201472231</v>
       </c>
       <c r="M19">
-        <v>0.9689632136045765</v>
+        <v>0.8264406743268582</v>
       </c>
       <c r="N19">
-        <v>0.871860383910147</v>
+        <v>0.9620199996890119</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8247006069118994</v>
+        <v>0.8450126103735027</v>
       </c>
       <c r="D20">
-        <v>0.9884917850229937</v>
+        <v>1.024523431589315</v>
       </c>
       <c r="E20">
-        <v>0.8527214954942877</v>
+        <v>0.8725199366967191</v>
       </c>
       <c r="F20">
-        <v>0.9485910710626466</v>
+        <v>0.7993183482477777</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031094024572915</v>
+        <v>1.045934436955818</v>
       </c>
       <c r="J20">
-        <v>0.8611803197759199</v>
+        <v>0.8801722813837874</v>
       </c>
       <c r="K20">
-        <v>1.00274005663844</v>
+        <v>1.038148349877796</v>
       </c>
       <c r="L20">
-        <v>0.8699645367257399</v>
+        <v>0.8892478046597752</v>
       </c>
       <c r="M20">
-        <v>0.9636024146793584</v>
+        <v>0.8181280455194887</v>
       </c>
       <c r="N20">
-        <v>0.8624032946087647</v>
+        <v>0.9599891732360095</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7817261182235709</v>
+        <v>0.820412006775995</v>
       </c>
       <c r="D21">
-        <v>0.974733405808014</v>
+        <v>1.022584771977218</v>
       </c>
       <c r="E21">
-        <v>0.8162477069022328</v>
+        <v>0.8519835572507025</v>
       </c>
       <c r="F21">
-        <v>0.9266191114146629</v>
+        <v>0.766275563943506</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025884480374199</v>
+        <v>1.045539581499645</v>
       </c>
       <c r="J21">
-        <v>0.8243673235179078</v>
+        <v>0.8599537928785125</v>
       </c>
       <c r="K21">
-        <v>0.9902098110416793</v>
+        <v>1.037150539886922</v>
       </c>
       <c r="L21">
-        <v>0.8358081547985117</v>
+        <v>0.8704408751159127</v>
       </c>
       <c r="M21">
-        <v>0.9431381559446715</v>
+        <v>0.7876241860112012</v>
       </c>
       <c r="N21">
-        <v>0.825538019673557</v>
+        <v>0.9526444084734996</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7440303281034001</v>
+        <v>0.8021631997372421</v>
       </c>
       <c r="D22">
-        <v>0.963482557089207</v>
+        <v>1.02134462109487</v>
       </c>
       <c r="E22">
-        <v>0.7845711866740588</v>
+        <v>0.8368262616247208</v>
       </c>
       <c r="F22">
-        <v>0.9082808207964151</v>
+        <v>0.7412575693101737</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021546345490894</v>
+        <v>1.045274738750163</v>
       </c>
       <c r="J22">
-        <v>0.7922749487206474</v>
+        <v>0.8449410544495317</v>
       </c>
       <c r="K22">
-        <v>0.9798138835670092</v>
+        <v>1.036504773176328</v>
       </c>
       <c r="L22">
-        <v>0.8060876687707891</v>
+        <v>0.8565102455187127</v>
       </c>
       <c r="M22">
-        <v>0.9259180130824064</v>
+        <v>0.7645761555060199</v>
       </c>
       <c r="N22">
-        <v>0.7934000700230375</v>
+        <v>0.9472255637578179</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7656431215807541</v>
+        <v>0.8121754615663842</v>
       </c>
       <c r="D23">
-        <v>0.9698360563718199</v>
+        <v>1.022004076002786</v>
       </c>
       <c r="E23">
-        <v>0.8026924600147834</v>
+        <v>0.845133961527772</v>
       </c>
       <c r="F23">
-        <v>0.9186826020424813</v>
+        <v>0.7550445770694533</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024004869651177</v>
+        <v>1.045416711806118</v>
       </c>
       <c r="J23">
-        <v>0.8106490897018005</v>
+        <v>0.8531794053343639</v>
       </c>
       <c r="K23">
-        <v>0.9857024186373528</v>
+        <v>1.036848857809568</v>
       </c>
       <c r="L23">
-        <v>0.8230962001383597</v>
+        <v>0.8641509258453636</v>
       </c>
       <c r="M23">
-        <v>0.9357023758643981</v>
+        <v>0.7772715407336497</v>
       </c>
       <c r="N23">
-        <v>0.8118003043919273</v>
+        <v>0.950195144714734</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8253203208793514</v>
+        <v>0.8453903644654728</v>
       </c>
       <c r="D24">
-        <v>0.9886970356239533</v>
+        <v>1.024555576572009</v>
       </c>
       <c r="E24">
-        <v>0.8532498672179865</v>
+        <v>0.872836159531739</v>
       </c>
       <c r="F24">
-        <v>0.9489156174175081</v>
+        <v>0.7998206111972429</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031170941385063</v>
+        <v>1.045940776355194</v>
       </c>
       <c r="J24">
-        <v>0.8617126115877907</v>
+        <v>0.8804825628386315</v>
       </c>
       <c r="K24">
-        <v>1.002925594731244</v>
+        <v>1.03816476783782</v>
       </c>
       <c r="L24">
-        <v>0.8704587920396173</v>
+        <v>0.8895367953982445</v>
       </c>
       <c r="M24">
-        <v>0.9639034293829408</v>
+        <v>0.8185921394034554</v>
       </c>
       <c r="N24">
-        <v>0.8629363423360632</v>
+        <v>0.9601022508073533</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8734940641395047</v>
+        <v>0.8762819016509319</v>
       </c>
       <c r="D25">
-        <v>1.005202718432238</v>
+        <v>1.027425357429848</v>
       </c>
       <c r="E25">
-        <v>0.894496026922923</v>
+        <v>0.8987789664681771</v>
       </c>
       <c r="F25">
-        <v>0.9747528605737372</v>
+        <v>0.8404730596758205</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037274809212985</v>
+        <v>1.046477018129713</v>
       </c>
       <c r="J25">
-        <v>0.9031830436433926</v>
+        <v>0.9058337813048243</v>
       </c>
       <c r="K25">
-        <v>1.017720802231516</v>
+        <v>1.039612341487525</v>
       </c>
       <c r="L25">
-        <v>0.9089874220397743</v>
+        <v>0.9131820931949697</v>
       </c>
       <c r="M25">
-        <v>0.9877561719801461</v>
+        <v>0.8561819366637217</v>
       </c>
       <c r="N25">
-        <v>0.9044656671619093</v>
+        <v>0.9693698015215532</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_6/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.8972578809736359</v>
+        <v>0.9999970461623656</v>
       </c>
       <c r="D2">
-        <v>1.029642249779684</v>
+        <v>1.026513451475777</v>
       </c>
       <c r="E2">
-        <v>0.9164809909461364</v>
+        <v>1.003512603051345</v>
       </c>
       <c r="F2">
-        <v>0.8676915893751154</v>
+        <v>0.9980539377174651</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046847012775419</v>
+        <v>1.028140619206577</v>
       </c>
       <c r="J2">
-        <v>0.9230152531614805</v>
+        <v>1.005312350954267</v>
       </c>
       <c r="K2">
-        <v>1.040703507696006</v>
+        <v>1.029335878222202</v>
       </c>
       <c r="L2">
-        <v>0.929241056204648</v>
+        <v>1.006403886417997</v>
       </c>
       <c r="M2">
-        <v>0.8813640088590842</v>
+        <v>1.000962071010937</v>
       </c>
       <c r="N2">
-        <v>0.9756730859597319</v>
+        <v>1.005586813710726</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9110085450654201</v>
+        <v>1.002190696077171</v>
       </c>
       <c r="D3">
-        <v>1.03121079133331</v>
+        <v>1.026832767717716</v>
       </c>
       <c r="E3">
-        <v>0.9281191923950979</v>
+        <v>1.005418250165748</v>
       </c>
       <c r="F3">
-        <v>0.8854079376135569</v>
+        <v>1.000925108801209</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047082302303658</v>
+        <v>1.028119731977348</v>
       </c>
       <c r="J3">
-        <v>0.9342588236415327</v>
+        <v>1.007127342732227</v>
       </c>
       <c r="K3">
-        <v>1.041459311046039</v>
+        <v>1.029464047931005</v>
       </c>
       <c r="L3">
-        <v>0.9397626542125568</v>
+        <v>1.008108944823934</v>
       </c>
       <c r="M3">
-        <v>0.8977524455918255</v>
+        <v>1.003628619941815</v>
       </c>
       <c r="N3">
-        <v>0.9798014457847806</v>
+        <v>1.006228286426888</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9193582179583234</v>
+        <v>1.003602290855779</v>
       </c>
       <c r="D4">
-        <v>1.032206919829202</v>
+        <v>1.027038990663314</v>
       </c>
       <c r="E4">
-        <v>0.9351980826542228</v>
+        <v>1.006644382404554</v>
       </c>
       <c r="F4">
-        <v>0.8961262570290394</v>
+        <v>1.002773591153557</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047219142987687</v>
+        <v>1.02810454699596</v>
       </c>
       <c r="J4">
-        <v>0.9410767194369232</v>
+        <v>1.008294031562883</v>
       </c>
       <c r="K4">
-        <v>1.041931574488913</v>
+        <v>1.029545830079758</v>
       </c>
       <c r="L4">
-        <v>0.9461470959669318</v>
+        <v>1.009204923891012</v>
       </c>
       <c r="M4">
-        <v>0.9076642168343302</v>
+        <v>1.005344591826161</v>
       </c>
       <c r="N4">
-        <v>0.9823042353921555</v>
+        <v>1.006639578476929</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9227529152300883</v>
+        <v>1.004193894425286</v>
       </c>
       <c r="D5">
-        <v>1.032621214092848</v>
+        <v>1.027125589626534</v>
       </c>
       <c r="E5">
-        <v>0.9380785569793918</v>
+        <v>1.007158223888107</v>
       </c>
       <c r="F5">
-        <v>0.9004766131642441</v>
+        <v>1.003548520839981</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047272985406224</v>
+        <v>1.028097762610924</v>
       </c>
       <c r="J5">
-        <v>0.9438463311798617</v>
+        <v>1.008782696506916</v>
       </c>
       <c r="K5">
-        <v>1.042126105599354</v>
+        <v>1.029579933844558</v>
       </c>
       <c r="L5">
-        <v>0.9487414961901035</v>
+        <v>1.009663960881819</v>
       </c>
       <c r="M5">
-        <v>0.9116862249632102</v>
+        <v>1.006063784403245</v>
       </c>
       <c r="N5">
-        <v>0.9833205315127959</v>
+        <v>1.006811593515251</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9233165231143481</v>
+        <v>1.004293121253613</v>
       </c>
       <c r="D6">
-        <v>1.03269051411446</v>
+        <v>1.027140124207022</v>
       </c>
       <c r="E6">
-        <v>0.9385569226776497</v>
+        <v>1.007244405997112</v>
       </c>
       <c r="F6">
-        <v>0.901198504506211</v>
+        <v>1.003678509513614</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047281809749891</v>
+        <v>1.028096599963332</v>
       </c>
       <c r="J6">
-        <v>0.9443060206251229</v>
+        <v>1.008864640454659</v>
       </c>
       <c r="K6">
-        <v>1.042158533491345</v>
+        <v>1.029585643700014</v>
       </c>
       <c r="L6">
-        <v>0.9491721514914349</v>
+        <v>1.009740935846062</v>
       </c>
       <c r="M6">
-        <v>0.9123535670892958</v>
+        <v>1.006184412705869</v>
       </c>
       <c r="N6">
-        <v>0.9834891815847011</v>
+        <v>1.006840423675391</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9194040135936414</v>
+        <v>1.003610203023348</v>
       </c>
       <c r="D7">
-        <v>1.032212473207964</v>
+        <v>1.027040148187642</v>
       </c>
       <c r="E7">
-        <v>0.9352369320688905</v>
+        <v>1.006651254710766</v>
       </c>
       <c r="F7">
-        <v>0.8961849716740578</v>
+        <v>1.002783954247485</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047219876909364</v>
+        <v>1.028104457917983</v>
       </c>
       <c r="J7">
-        <v>0.9411140917510655</v>
+        <v>1.008300568190578</v>
       </c>
       <c r="K7">
-        <v>1.04193418955789</v>
+        <v>1.029546286868134</v>
       </c>
       <c r="L7">
-        <v>0.9461821007713478</v>
+        <v>1.009211064246002</v>
       </c>
       <c r="M7">
-        <v>0.9077185041156134</v>
+        <v>1.005354210280489</v>
       </c>
       <c r="N7">
-        <v>0.982317950923758</v>
+        <v>1.006641880437511</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C8">
-        <v>0.9020289927595313</v>
+        <v>1.000740052902658</v>
       </c>
       <c r="D8">
-        <v>1.030176260413161</v>
+        <v>1.026621446480098</v>
       </c>
       <c r="E8">
-        <v>0.9205162565860351</v>
+        <v>1.004158087951371</v>
       </c>
       <c r="F8">
-        <v>0.873848694229803</v>
+        <v>0.9990262421512628</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04692972229462</v>
+        <v>1.02813390540539</v>
       </c>
       <c r="J8">
-        <v>0.9269184689326926</v>
+        <v>1.005927361266509</v>
       </c>
       <c r="K8">
-        <v>1.040962419099497</v>
+        <v>1.029379431388346</v>
       </c>
       <c r="L8">
-        <v>0.9328925813043599</v>
+        <v>1.006981654404119</v>
       </c>
       <c r="M8">
-        <v>0.8870601362853683</v>
+        <v>1.001865241835927</v>
       </c>
       <c r="N8">
-        <v>0.9771061905313948</v>
+        <v>1.005804394172819</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8662636881771472</v>
+        <v>0.9956202764081897</v>
       </c>
       <c r="D9">
-        <v>1.026442710141579</v>
+        <v>1.025880711243438</v>
       </c>
       <c r="E9">
-        <v>0.8903482105971483</v>
+        <v>0.9997098096606482</v>
       </c>
       <c r="F9">
-        <v>0.8273730294234342</v>
+        <v>0.9923299142558761</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046300249603782</v>
+        <v>1.028173049635261</v>
       </c>
       <c r="J9">
-        <v>0.8976176628151555</v>
+        <v>1.001684422044947</v>
       </c>
       <c r="K9">
-        <v>1.03912086127245</v>
+        <v>1.029076656696341</v>
       </c>
       <c r="L9">
-        <v>0.9055119080682134</v>
+        <v>1.002995500289088</v>
       </c>
       <c r="M9">
-        <v>0.8440642989151739</v>
+        <v>0.9956418554368396</v>
       </c>
       <c r="N9">
-        <v>0.9663607908343533</v>
+        <v>1.004299033365596</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8369435302844479</v>
+        <v>0.9921622425845256</v>
       </c>
       <c r="D10">
-        <v>1.023853917626846</v>
+        <v>1.025385058414673</v>
       </c>
       <c r="E10">
-        <v>0.8657714029518846</v>
+        <v>0.9967047873794241</v>
       </c>
       <c r="F10">
-        <v>0.7885550794316873</v>
+        <v>0.9878110444644356</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045800826930256</v>
+        <v>1.028190631074268</v>
       </c>
       <c r="J10">
-        <v>0.8735430889903436</v>
+        <v>0.9988121622532348</v>
       </c>
       <c r="K10">
-        <v>1.037805436977404</v>
+        <v>1.02886901662911</v>
       </c>
       <c r="L10">
-        <v>0.883076077681018</v>
+        <v>1.000296919877218</v>
       </c>
       <c r="M10">
-        <v>0.8081854291398575</v>
+        <v>0.9914381395819487</v>
       </c>
       <c r="N10">
-        <v>0.9575757083419286</v>
+        <v>1.003274668619613</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.822110808780642</v>
+        <v>0.9906535521406715</v>
       </c>
       <c r="D11">
-        <v>1.022708820873848</v>
+        <v>1.025170031100778</v>
       </c>
       <c r="E11">
-        <v>0.8533979789262799</v>
+        <v>0.9953936374089645</v>
       </c>
       <c r="F11">
-        <v>0.7685805198214383</v>
+        <v>0.9858403664321082</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045565562565123</v>
+        <v>1.028196236062541</v>
       </c>
       <c r="J11">
-        <v>0.8613507116806649</v>
+        <v>0.9975575053047278</v>
       </c>
       <c r="K11">
-        <v>1.03721482310515</v>
+        <v>1.028777753015332</v>
       </c>
       <c r="L11">
-        <v>0.8717386533041505</v>
+        <v>0.9991181050659224</v>
       </c>
       <c r="M11">
-        <v>0.7897499701944014</v>
+        <v>0.9896039559150833</v>
       </c>
       <c r="N11">
-        <v>0.9531502434736543</v>
+        <v>1.002825974291096</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.816147462032038</v>
+        <v>0.9900913939142384</v>
       </c>
       <c r="D12">
-        <v>1.022279813821027</v>
+        <v>1.025090101753847</v>
       </c>
       <c r="E12">
-        <v>0.8484354199739315</v>
+        <v>0.9949050722402973</v>
       </c>
       <c r="F12">
-        <v>0.7604723983083388</v>
+        <v>0.9851061820500319</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045475309823012</v>
+        <v>1.028198017265125</v>
       </c>
       <c r="J12">
-        <v>0.8564466067570701</v>
+        <v>0.9970897735031714</v>
       </c>
       <c r="K12">
-        <v>1.036992263729265</v>
+        <v>1.028743651841868</v>
       </c>
       <c r="L12">
-        <v>0.8671837222984764</v>
+        <v>0.9986786442991347</v>
       </c>
       <c r="M12">
-        <v>0.7822737311778297</v>
+        <v>0.9889204816658863</v>
       </c>
       <c r="N12">
-        <v>0.9513755944304981</v>
+        <v>1.002658519692851</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8174503335351712</v>
+        <v>0.9902120595381855</v>
       </c>
       <c r="D13">
-        <v>1.022372003920659</v>
+        <v>1.025107249484422</v>
       </c>
       <c r="E13">
-        <v>0.8495190355796792</v>
+        <v>0.9950099418895325</v>
       </c>
       <c r="F13">
-        <v>0.7622479629256692</v>
+        <v>0.9852637674690576</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045494799145108</v>
+        <v>1.028197648785465</v>
       </c>
       <c r="J13">
-        <v>0.8575181667427565</v>
+        <v>0.9971901811635615</v>
       </c>
       <c r="K13">
-        <v>1.037040147666441</v>
+        <v>1.028750975765279</v>
       </c>
       <c r="L13">
-        <v>0.8681787164242508</v>
+        <v>0.9987729831400927</v>
       </c>
       <c r="M13">
-        <v>0.7839105310813642</v>
+        <v>0.9890671890455449</v>
       </c>
       <c r="N13">
-        <v>0.9517630793444642</v>
+        <v>1.00269447529006</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8216282357642776</v>
+        <v>0.9906071202911284</v>
       </c>
       <c r="D14">
-        <v>1.022673434071068</v>
+        <v>1.025163425298077</v>
       </c>
       <c r="E14">
-        <v>0.8529961310811947</v>
+        <v>0.9953532842849065</v>
       </c>
       <c r="F14">
-        <v>0.7679261418563286</v>
+        <v>0.9857797236426981</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045558160746259</v>
+        <v>1.028196389426981</v>
       </c>
       <c r="J14">
-        <v>0.8609539043508182</v>
+        <v>0.9975188773544146</v>
       </c>
       <c r="K14">
-        <v>1.037196491250169</v>
+        <v>1.028774938309027</v>
       </c>
       <c r="L14">
-        <v>0.8713699821141695</v>
+        <v>0.9990818119466078</v>
       </c>
       <c r="M14">
-        <v>0.7891464232352396</v>
+        <v>0.9895475046040829</v>
       </c>
       <c r="N14">
-        <v>0.953006530064851</v>
+        <v>1.002812148652134</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8241367417245742</v>
+        <v>0.9908502947745117</v>
       </c>
       <c r="D15">
-        <v>1.022858667935694</v>
+        <v>1.025198029374264</v>
       </c>
       <c r="E15">
-        <v>0.8550855105940532</v>
+        <v>0.9955646225320298</v>
       </c>
       <c r="F15">
-        <v>0.7713244543371323</v>
+        <v>0.9860973288618624</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045596819989582</v>
+        <v>1.028195573671256</v>
       </c>
       <c r="J15">
-        <v>0.8630164911271644</v>
+        <v>0.9977211715879997</v>
       </c>
       <c r="K15">
-        <v>1.037292397812507</v>
+        <v>1.028789675730796</v>
       </c>
       <c r="L15">
-        <v>0.8732865386559449</v>
+        <v>0.9992718785883367</v>
       </c>
       <c r="M15">
-        <v>0.7922810641505754</v>
+        <v>0.9898431519607224</v>
       </c>
       <c r="N15">
-        <v>0.9537537721844127</v>
+        <v>1.002884545935586</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8378734020456421</v>
+        <v>0.9922621254230287</v>
       </c>
       <c r="D16">
-        <v>1.023929401978527</v>
+        <v>1.025399320714895</v>
       </c>
       <c r="E16">
-        <v>0.8665484866922891</v>
+        <v>0.9967915900936591</v>
       </c>
       <c r="F16">
-        <v>0.7897988975200901</v>
+        <v>0.9879415300188076</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045816039370124</v>
+        <v>1.028190216864643</v>
       </c>
       <c r="J16">
-        <v>0.8743071605849554</v>
+        <v>0.9988951946573905</v>
       </c>
       <c r="K16">
-        <v>1.037844189381429</v>
+        <v>1.028875045105079</v>
       </c>
       <c r="L16">
-        <v>0.8837871662486106</v>
+        <v>1.00037493267123</v>
       </c>
       <c r="M16">
-        <v>0.8093341324063098</v>
+        <v>0.9915595675619321</v>
       </c>
       <c r="N16">
-        <v>0.9578536350966573</v>
+        <v>1.003304337241511</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8458473026192697</v>
+        <v>0.9931446518951077</v>
       </c>
       <c r="D17">
-        <v>1.02459455542163</v>
+        <v>1.025525478374841</v>
       </c>
       <c r="E17">
-        <v>0.8732187026322625</v>
+        <v>0.9975585341355973</v>
       </c>
       <c r="F17">
-        <v>0.8004279706468185</v>
+        <v>0.989094545834366</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04594845407632</v>
+        <v>1.028186319765488</v>
       </c>
       <c r="J17">
-        <v>0.8808578769797848</v>
+        <v>0.9996286609749276</v>
       </c>
       <c r="K17">
-        <v>1.038184670434247</v>
+        <v>1.02892823368536</v>
       </c>
       <c r="L17">
-        <v>0.8898863706398974</v>
+        <v>1.001064055618971</v>
       </c>
       <c r="M17">
-        <v>0.8191533571140593</v>
+        <v>0.992632438877268</v>
       </c>
       <c r="N17">
-        <v>0.9602390417804266</v>
+        <v>1.003566273402792</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8503037835804884</v>
+        <v>0.993658324721283</v>
       </c>
       <c r="D18">
-        <v>1.024980202627936</v>
+        <v>1.025599024633332</v>
       </c>
       <c r="E18">
-        <v>0.8769515674042555</v>
+        <v>0.9980049224938602</v>
       </c>
       <c r="F18">
-        <v>0.8063409913229036</v>
+        <v>0.9897657377869169</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046023855691627</v>
+        <v>1.02818385285959</v>
       </c>
       <c r="J18">
-        <v>0.8845178239282423</v>
+        <v>1.000055426526088</v>
       </c>
       <c r="K18">
-        <v>1.038381239943934</v>
+        <v>1.02895912692504</v>
       </c>
       <c r="L18">
-        <v>0.8932961251448813</v>
+        <v>1.001465017693937</v>
       </c>
       <c r="M18">
-        <v>0.8246179297758665</v>
+        <v>0.9932568864796915</v>
       </c>
       <c r="N18">
-        <v>0.9615737238664523</v>
+        <v>1.003718561842482</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8517931550493981</v>
+        <v>0.9938332907999199</v>
       </c>
       <c r="D19">
-        <v>1.025111305138276</v>
+        <v>1.025624095254975</v>
       </c>
       <c r="E19">
-        <v>0.8781998865437639</v>
+        <v>0.9981569685386646</v>
       </c>
       <c r="F19">
-        <v>0.8083130000306396</v>
+        <v>0.9899943717553462</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046049254932268</v>
+        <v>1.028182978809425</v>
       </c>
       <c r="J19">
-        <v>0.8857407999382942</v>
+        <v>1.000200765487866</v>
       </c>
       <c r="K19">
-        <v>1.038447921787886</v>
+        <v>1.028969638492465</v>
       </c>
       <c r="L19">
-        <v>0.8944358201472231</v>
+        <v>1.001601568606567</v>
       </c>
       <c r="M19">
-        <v>0.8264406743268582</v>
+        <v>0.9934695821076397</v>
       </c>
       <c r="N19">
-        <v>0.9620199996890119</v>
+        <v>1.003770404919007</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8450126103735027</v>
+        <v>0.9930500783226616</v>
       </c>
       <c r="D20">
-        <v>1.024523431589315</v>
+        <v>1.025511946906639</v>
       </c>
       <c r="E20">
-        <v>0.8725199366967191</v>
+        <v>0.9974763476563392</v>
       </c>
       <c r="F20">
-        <v>0.7993183482477777</v>
+        <v>0.9889709776493107</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045934436955818</v>
+        <v>1.028186757925705</v>
       </c>
       <c r="J20">
-        <v>0.8801722813837874</v>
+        <v>0.9995500762588492</v>
       </c>
       <c r="K20">
-        <v>1.038148349877796</v>
+        <v>1.028922540567341</v>
       </c>
       <c r="L20">
-        <v>0.8892478046597752</v>
+        <v>1.00099022216119</v>
       </c>
       <c r="M20">
-        <v>0.8181280455194887</v>
+        <v>0.9925174691326852</v>
       </c>
       <c r="N20">
-        <v>0.9599891732360095</v>
+        <v>1.003538221405817</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.820412006775995</v>
+        <v>0.9904908339126361</v>
       </c>
       <c r="D21">
-        <v>1.022584771977218</v>
+        <v>1.025146884520153</v>
       </c>
       <c r="E21">
-        <v>0.8519835572507025</v>
+        <v>0.9952522215828185</v>
       </c>
       <c r="F21">
-        <v>0.766275563943506</v>
+        <v>0.9856278484838727</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045539581499645</v>
+        <v>1.028196768571165</v>
       </c>
       <c r="J21">
-        <v>0.8599537928785125</v>
+        <v>0.9974221317641361</v>
       </c>
       <c r="K21">
-        <v>1.037150539886922</v>
+        <v>1.028767887494854</v>
       </c>
       <c r="L21">
-        <v>0.8704408751159127</v>
+        <v>0.9989909140153368</v>
       </c>
       <c r="M21">
-        <v>0.7876241860112012</v>
+        <v>0.9894061243963045</v>
       </c>
       <c r="N21">
-        <v>0.9526444084734996</v>
+        <v>1.002777518719308</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8021631997372421</v>
+        <v>0.9888715021031147</v>
       </c>
       <c r="D22">
-        <v>1.02134462109487</v>
+        <v>1.024917017289605</v>
       </c>
       <c r="E22">
-        <v>0.8368262616247208</v>
+        <v>0.9938448567504581</v>
       </c>
       <c r="F22">
-        <v>0.7412575693101737</v>
+        <v>0.9835131937094171</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045274738750163</v>
+        <v>1.028201323127522</v>
       </c>
       <c r="J22">
-        <v>0.8449410544495317</v>
+        <v>0.9960743677744542</v>
       </c>
       <c r="K22">
-        <v>1.036504773176328</v>
+        <v>1.028669484195791</v>
       </c>
       <c r="L22">
-        <v>0.8565102455187127</v>
+        <v>0.9977246088080334</v>
       </c>
       <c r="M22">
-        <v>0.7645761555060199</v>
+        <v>0.9874372626241351</v>
       </c>
       <c r="N22">
-        <v>0.9472255637578179</v>
+        <v>1.002294657611214</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8121754615663842</v>
+        <v>0.9897309308844535</v>
       </c>
       <c r="D23">
-        <v>1.022004076002786</v>
+        <v>1.025038905493158</v>
       </c>
       <c r="E23">
-        <v>0.845133961527772</v>
+        <v>0.9945917945827535</v>
       </c>
       <c r="F23">
-        <v>0.7550445770694533</v>
+        <v>0.9846354452697469</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045416711806118</v>
+        <v>1.028199073251875</v>
       </c>
       <c r="J23">
-        <v>0.8531794053343639</v>
+        <v>0.9967897932096135</v>
       </c>
       <c r="K23">
-        <v>1.036848857809568</v>
+        <v>1.028721759700692</v>
       </c>
       <c r="L23">
-        <v>0.8641509258453636</v>
+        <v>0.998396795041804</v>
       </c>
       <c r="M23">
-        <v>0.7772715407336497</v>
+        <v>0.9884822189254497</v>
       </c>
       <c r="N23">
-        <v>0.950195144714734</v>
+        <v>1.002551071293827</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.8453903644654728</v>
+        <v>0.9930928154140612</v>
       </c>
       <c r="D24">
-        <v>1.024555576572009</v>
+        <v>1.025518061316701</v>
       </c>
       <c r="E24">
-        <v>0.872836159531739</v>
+        <v>0.9975134871437007</v>
       </c>
       <c r="F24">
-        <v>0.7998206111972429</v>
+        <v>0.9890268169374212</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045940776355194</v>
+        <v>1.028186560538906</v>
       </c>
       <c r="J24">
-        <v>0.8804825628386315</v>
+        <v>0.9995855885604165</v>
       </c>
       <c r="K24">
-        <v>1.03816476783782</v>
+        <v>1.028925113446604</v>
       </c>
       <c r="L24">
-        <v>0.8895367953982445</v>
+        <v>1.001023587384582</v>
       </c>
       <c r="M24">
-        <v>0.8185921394034554</v>
+        <v>0.9925694231479877</v>
       </c>
       <c r="N24">
-        <v>0.9601022508073533</v>
+        <v>1.003550898422906</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.8762819016509319</v>
+        <v>0.9969515404821367</v>
       </c>
       <c r="D25">
-        <v>1.027425357429848</v>
+        <v>1.026072541693807</v>
       </c>
       <c r="E25">
-        <v>0.8987789664681771</v>
+        <v>1.000866570495859</v>
       </c>
       <c r="F25">
-        <v>0.8404730596758205</v>
+        <v>0.9940703804778075</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046477018129713</v>
+        <v>1.028164434695646</v>
       </c>
       <c r="J25">
-        <v>0.9058337813048243</v>
+        <v>1.002788820867278</v>
       </c>
       <c r="K25">
-        <v>1.039612341487525</v>
+        <v>1.029155958733625</v>
       </c>
       <c r="L25">
-        <v>0.9131820931949697</v>
+        <v>1.004033090616584</v>
       </c>
       <c r="M25">
-        <v>0.8561819366637217</v>
+        <v>0.9972601003021522</v>
       </c>
       <c r="N25">
-        <v>0.9693698015215532</v>
+        <v>1.004691803431707</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_6/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9999970461623656</v>
+        <v>0.897257880973636</v>
       </c>
       <c r="D2">
-        <v>1.026513451475777</v>
+        <v>1.029642249779684</v>
       </c>
       <c r="E2">
-        <v>1.003512603051345</v>
+        <v>0.9164809909461363</v>
       </c>
       <c r="F2">
-        <v>0.9980539377174651</v>
+        <v>0.8676915893751157</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028140619206577</v>
+        <v>1.046847012775419</v>
       </c>
       <c r="J2">
-        <v>1.005312350954267</v>
+        <v>0.9230152531614805</v>
       </c>
       <c r="K2">
-        <v>1.029335878222202</v>
+        <v>1.040703507696006</v>
       </c>
       <c r="L2">
-        <v>1.006403886417997</v>
+        <v>0.9292410562046478</v>
       </c>
       <c r="M2">
-        <v>1.000962071010937</v>
+        <v>0.8813640088590843</v>
       </c>
       <c r="N2">
-        <v>1.005586813710726</v>
+        <v>0.9756730859597319</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002190696077171</v>
+        <v>0.91100854506542</v>
       </c>
       <c r="D3">
-        <v>1.026832767717716</v>
+        <v>1.03121079133331</v>
       </c>
       <c r="E3">
-        <v>1.005418250165748</v>
+        <v>0.9281191923950978</v>
       </c>
       <c r="F3">
-        <v>1.000925108801209</v>
+        <v>0.8854079376135564</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028119731977348</v>
+        <v>1.047082302303657</v>
       </c>
       <c r="J3">
-        <v>1.007127342732227</v>
+        <v>0.9342588236415326</v>
       </c>
       <c r="K3">
-        <v>1.029464047931005</v>
+        <v>1.041459311046039</v>
       </c>
       <c r="L3">
-        <v>1.008108944823934</v>
+        <v>0.9397626542125569</v>
       </c>
       <c r="M3">
-        <v>1.003628619941815</v>
+        <v>0.8977524455918253</v>
       </c>
       <c r="N3">
-        <v>1.006228286426888</v>
+        <v>0.9798014457847807</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003602290855779</v>
+        <v>0.9193582179583225</v>
       </c>
       <c r="D4">
-        <v>1.027038990663314</v>
+        <v>1.032206919829202</v>
       </c>
       <c r="E4">
-        <v>1.006644382404554</v>
+        <v>0.9351980826542216</v>
       </c>
       <c r="F4">
-        <v>1.002773591153557</v>
+        <v>0.8961262570290384</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.02810454699596</v>
+        <v>1.047219142987687</v>
       </c>
       <c r="J4">
-        <v>1.008294031562883</v>
+        <v>0.9410767194369224</v>
       </c>
       <c r="K4">
-        <v>1.029545830079758</v>
+        <v>1.041931574488913</v>
       </c>
       <c r="L4">
-        <v>1.009204923891012</v>
+        <v>0.9461470959669308</v>
       </c>
       <c r="M4">
-        <v>1.005344591826161</v>
+        <v>0.9076642168343293</v>
       </c>
       <c r="N4">
-        <v>1.006639578476929</v>
+        <v>0.9823042353921551</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004193894425286</v>
+        <v>0.9227529152300891</v>
       </c>
       <c r="D5">
-        <v>1.027125589626534</v>
+        <v>1.032621214092848</v>
       </c>
       <c r="E5">
-        <v>1.007158223888107</v>
+        <v>0.9380785569793922</v>
       </c>
       <c r="F5">
-        <v>1.003548520839981</v>
+        <v>0.9004766131642453</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028097762610924</v>
+        <v>1.047272985406224</v>
       </c>
       <c r="J5">
-        <v>1.008782696506916</v>
+        <v>0.9438463311798626</v>
       </c>
       <c r="K5">
-        <v>1.029579933844558</v>
+        <v>1.042126105599354</v>
       </c>
       <c r="L5">
-        <v>1.009663960881819</v>
+        <v>0.9487414961901042</v>
       </c>
       <c r="M5">
-        <v>1.006063784403245</v>
+        <v>0.9116862249632113</v>
       </c>
       <c r="N5">
-        <v>1.006811593515251</v>
+        <v>0.9833205315127962</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004293121253613</v>
+        <v>0.9233165231143474</v>
       </c>
       <c r="D6">
-        <v>1.027140124207022</v>
+        <v>1.03269051411446</v>
       </c>
       <c r="E6">
-        <v>1.007244405997112</v>
+        <v>0.9385569226776487</v>
       </c>
       <c r="F6">
-        <v>1.003678509513614</v>
+        <v>0.9011985045062101</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028096599963332</v>
+        <v>1.047281809749891</v>
       </c>
       <c r="J6">
-        <v>1.008864640454659</v>
+        <v>0.9443060206251224</v>
       </c>
       <c r="K6">
-        <v>1.029585643700014</v>
+        <v>1.042158533491345</v>
       </c>
       <c r="L6">
-        <v>1.009740935846062</v>
+        <v>0.9491721514914342</v>
       </c>
       <c r="M6">
-        <v>1.006184412705869</v>
+        <v>0.9123535670892948</v>
       </c>
       <c r="N6">
-        <v>1.006840423675391</v>
+        <v>0.9834891815847008</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003610203023348</v>
+        <v>0.91940401359364</v>
       </c>
       <c r="D7">
-        <v>1.027040148187642</v>
+        <v>1.032212473207964</v>
       </c>
       <c r="E7">
-        <v>1.006651254710766</v>
+        <v>0.9352369320688888</v>
       </c>
       <c r="F7">
-        <v>1.002783954247485</v>
+        <v>0.8961849716740558</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028104457917983</v>
+        <v>1.047219876909365</v>
       </c>
       <c r="J7">
-        <v>1.008300568190578</v>
+        <v>0.9411140917510641</v>
       </c>
       <c r="K7">
-        <v>1.029546286868134</v>
+        <v>1.04193418955789</v>
       </c>
       <c r="L7">
-        <v>1.009211064246002</v>
+        <v>0.946182100771346</v>
       </c>
       <c r="M7">
-        <v>1.005354210280489</v>
+        <v>0.9077185041156115</v>
       </c>
       <c r="N7">
-        <v>1.006641880437511</v>
+        <v>0.9823179509237574</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000740052902658</v>
+        <v>0.9020289927595295</v>
       </c>
       <c r="D8">
-        <v>1.026621446480098</v>
+        <v>1.030176260413161</v>
       </c>
       <c r="E8">
-        <v>1.004158087951371</v>
+        <v>0.9205162565860335</v>
       </c>
       <c r="F8">
-        <v>0.9990262421512628</v>
+        <v>0.873848694229801</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.02813390540539</v>
+        <v>1.04692972229462</v>
       </c>
       <c r="J8">
-        <v>1.005927361266509</v>
+        <v>0.9269184689326908</v>
       </c>
       <c r="K8">
-        <v>1.029379431388346</v>
+        <v>1.040962419099497</v>
       </c>
       <c r="L8">
-        <v>1.006981654404119</v>
+        <v>0.9328925813043585</v>
       </c>
       <c r="M8">
-        <v>1.001865241835927</v>
+        <v>0.8870601362853664</v>
       </c>
       <c r="N8">
-        <v>1.005804394172819</v>
+        <v>0.9771061905313941</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9956202764081897</v>
+        <v>0.8662636881771463</v>
       </c>
       <c r="D9">
-        <v>1.025880711243438</v>
+        <v>1.026442710141579</v>
       </c>
       <c r="E9">
-        <v>0.9997098096606482</v>
+        <v>0.890348210597147</v>
       </c>
       <c r="F9">
-        <v>0.9923299142558761</v>
+        <v>0.8273730294234332</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028173049635261</v>
+        <v>1.046300249603783</v>
       </c>
       <c r="J9">
-        <v>1.001684422044947</v>
+        <v>0.8976176628151544</v>
       </c>
       <c r="K9">
-        <v>1.029076656696341</v>
+        <v>1.03912086127245</v>
       </c>
       <c r="L9">
-        <v>1.002995500289088</v>
+        <v>0.9055119080682121</v>
       </c>
       <c r="M9">
-        <v>0.9956418554368396</v>
+        <v>0.8440642989151731</v>
       </c>
       <c r="N9">
-        <v>1.004299033365596</v>
+        <v>0.9663607908343529</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9921622425845256</v>
+        <v>0.8369435302844472</v>
       </c>
       <c r="D10">
-        <v>1.025385058414673</v>
+        <v>1.023853917626846</v>
       </c>
       <c r="E10">
-        <v>0.9967047873794241</v>
+        <v>0.8657714029518843</v>
       </c>
       <c r="F10">
-        <v>0.9878110444644356</v>
+        <v>0.7885550794316867</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028190631074268</v>
+        <v>1.045800826930256</v>
       </c>
       <c r="J10">
-        <v>0.9988121622532348</v>
+        <v>0.8735430889903428</v>
       </c>
       <c r="K10">
-        <v>1.02886901662911</v>
+        <v>1.037805436977404</v>
       </c>
       <c r="L10">
-        <v>1.000296919877218</v>
+        <v>0.8830760776810178</v>
       </c>
       <c r="M10">
-        <v>0.9914381395819487</v>
+        <v>0.808185429139857</v>
       </c>
       <c r="N10">
-        <v>1.003274668619613</v>
+        <v>0.9575757083419285</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9906535521406715</v>
+        <v>0.8221108087806427</v>
       </c>
       <c r="D11">
-        <v>1.025170031100778</v>
+        <v>1.022708820873849</v>
       </c>
       <c r="E11">
-        <v>0.9953936374089645</v>
+        <v>0.8533979789262804</v>
       </c>
       <c r="F11">
-        <v>0.9858403664321082</v>
+        <v>0.7685805198214392</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028196236062541</v>
+        <v>1.045565562565124</v>
       </c>
       <c r="J11">
-        <v>0.9975575053047278</v>
+        <v>0.8613507116806652</v>
       </c>
       <c r="K11">
-        <v>1.028777753015332</v>
+        <v>1.037214823105151</v>
       </c>
       <c r="L11">
-        <v>0.9991181050659224</v>
+        <v>0.871738653304151</v>
       </c>
       <c r="M11">
-        <v>0.9896039559150833</v>
+        <v>0.7897499701944023</v>
       </c>
       <c r="N11">
-        <v>1.002825974291096</v>
+        <v>0.9531502434736544</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9900913939142384</v>
+        <v>0.8161474620320386</v>
       </c>
       <c r="D12">
-        <v>1.025090101753847</v>
+        <v>1.022279813821027</v>
       </c>
       <c r="E12">
-        <v>0.9949050722402973</v>
+        <v>0.8484354199739319</v>
       </c>
       <c r="F12">
-        <v>0.9851061820500319</v>
+        <v>0.7604723983083391</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028198017265125</v>
+        <v>1.045475309823012</v>
       </c>
       <c r="J12">
-        <v>0.9970897735031714</v>
+        <v>0.8564466067570706</v>
       </c>
       <c r="K12">
-        <v>1.028743651841868</v>
+        <v>1.036992263729265</v>
       </c>
       <c r="L12">
-        <v>0.9986786442991347</v>
+        <v>0.8671837222984768</v>
       </c>
       <c r="M12">
-        <v>0.9889204816658863</v>
+        <v>0.7822737311778299</v>
       </c>
       <c r="N12">
-        <v>1.002658519692851</v>
+        <v>0.9513755944304982</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9902120595381855</v>
+        <v>0.817450333535172</v>
       </c>
       <c r="D13">
-        <v>1.025107249484422</v>
+        <v>1.022372003920659</v>
       </c>
       <c r="E13">
-        <v>0.9950099418895325</v>
+        <v>0.8495190355796802</v>
       </c>
       <c r="F13">
-        <v>0.9852637674690576</v>
+        <v>0.7622479629256701</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028197648785465</v>
+        <v>1.045494799145108</v>
       </c>
       <c r="J13">
-        <v>0.9971901811635615</v>
+        <v>0.8575181667427573</v>
       </c>
       <c r="K13">
-        <v>1.028750975765279</v>
+        <v>1.037040147666441</v>
       </c>
       <c r="L13">
-        <v>0.9987729831400927</v>
+        <v>0.8681787164242518</v>
       </c>
       <c r="M13">
-        <v>0.9890671890455449</v>
+        <v>0.7839105310813651</v>
       </c>
       <c r="N13">
-        <v>1.00269447529006</v>
+        <v>0.9517630793444647</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9906071202911284</v>
+        <v>0.8216282357642775</v>
       </c>
       <c r="D14">
-        <v>1.025163425298077</v>
+        <v>1.022673434071068</v>
       </c>
       <c r="E14">
-        <v>0.9953532842849065</v>
+        <v>0.8529961310811949</v>
       </c>
       <c r="F14">
-        <v>0.9857797236426981</v>
+        <v>0.7679261418563279</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028196389426981</v>
+        <v>1.045558160746259</v>
       </c>
       <c r="J14">
-        <v>0.9975188773544146</v>
+        <v>0.8609539043508181</v>
       </c>
       <c r="K14">
-        <v>1.028774938309027</v>
+        <v>1.037196491250169</v>
       </c>
       <c r="L14">
-        <v>0.9990818119466078</v>
+        <v>0.8713699821141694</v>
       </c>
       <c r="M14">
-        <v>0.9895475046040829</v>
+        <v>0.7891464232352391</v>
       </c>
       <c r="N14">
-        <v>1.002812148652134</v>
+        <v>0.9530065300648509</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9908502947745117</v>
+        <v>0.8241367417245762</v>
       </c>
       <c r="D15">
-        <v>1.025198029374264</v>
+        <v>1.022858667935694</v>
       </c>
       <c r="E15">
-        <v>0.9955646225320298</v>
+        <v>0.8550855105940549</v>
       </c>
       <c r="F15">
-        <v>0.9860973288618624</v>
+        <v>0.7713244543371345</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028195573671256</v>
+        <v>1.045596819989582</v>
       </c>
       <c r="J15">
-        <v>0.9977211715879997</v>
+        <v>0.8630164911271663</v>
       </c>
       <c r="K15">
-        <v>1.028789675730796</v>
+        <v>1.037292397812508</v>
       </c>
       <c r="L15">
-        <v>0.9992718785883367</v>
+        <v>0.8732865386559466</v>
       </c>
       <c r="M15">
-        <v>0.9898431519607224</v>
+        <v>0.7922810641505774</v>
       </c>
       <c r="N15">
-        <v>1.002884545935586</v>
+        <v>0.9537537721844135</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9922621254230287</v>
+        <v>0.8378734020456414</v>
       </c>
       <c r="D16">
-        <v>1.025399320714895</v>
+        <v>1.023929401978527</v>
       </c>
       <c r="E16">
-        <v>0.9967915900936591</v>
+        <v>0.8665484866922887</v>
       </c>
       <c r="F16">
-        <v>0.9879415300188076</v>
+        <v>0.7897988975200898</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028190216864643</v>
+        <v>1.045816039370124</v>
       </c>
       <c r="J16">
-        <v>0.9988951946573905</v>
+        <v>0.8743071605849547</v>
       </c>
       <c r="K16">
-        <v>1.028875045105079</v>
+        <v>1.037844189381429</v>
       </c>
       <c r="L16">
-        <v>1.00037493267123</v>
+        <v>0.8837871662486101</v>
       </c>
       <c r="M16">
-        <v>0.9915595675619321</v>
+        <v>0.8093341324063094</v>
       </c>
       <c r="N16">
-        <v>1.003304337241511</v>
+        <v>0.957853635096657</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9931446518951077</v>
+        <v>0.8458473026192693</v>
       </c>
       <c r="D17">
-        <v>1.025525478374841</v>
+        <v>1.024594555421631</v>
       </c>
       <c r="E17">
-        <v>0.9975585341355973</v>
+        <v>0.8732187026322624</v>
       </c>
       <c r="F17">
-        <v>0.989094545834366</v>
+        <v>0.8004279706468186</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028186319765488</v>
+        <v>1.045948454076321</v>
       </c>
       <c r="J17">
-        <v>0.9996286609749276</v>
+        <v>0.8808578769797847</v>
       </c>
       <c r="K17">
-        <v>1.02892823368536</v>
+        <v>1.038184670434247</v>
       </c>
       <c r="L17">
-        <v>1.001064055618971</v>
+        <v>0.8898863706398975</v>
       </c>
       <c r="M17">
-        <v>0.992632438877268</v>
+        <v>0.8191533571140596</v>
       </c>
       <c r="N17">
-        <v>1.003566273402792</v>
+        <v>0.9602390417804266</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.993658324721283</v>
+        <v>0.8503037835804886</v>
       </c>
       <c r="D18">
-        <v>1.025599024633332</v>
+        <v>1.024980202627936</v>
       </c>
       <c r="E18">
-        <v>0.9980049224938602</v>
+        <v>0.8769515674042556</v>
       </c>
       <c r="F18">
-        <v>0.9897657377869169</v>
+        <v>0.8063409913229032</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02818385285959</v>
+        <v>1.046023855691627</v>
       </c>
       <c r="J18">
-        <v>1.000055426526088</v>
+        <v>0.8845178239282425</v>
       </c>
       <c r="K18">
-        <v>1.02895912692504</v>
+        <v>1.038381239943934</v>
       </c>
       <c r="L18">
-        <v>1.001465017693937</v>
+        <v>0.8932961251448815</v>
       </c>
       <c r="M18">
-        <v>0.9932568864796915</v>
+        <v>0.8246179297758663</v>
       </c>
       <c r="N18">
-        <v>1.003718561842482</v>
+        <v>0.9615737238664523</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9938332907999199</v>
+        <v>0.8517931550493981</v>
       </c>
       <c r="D19">
-        <v>1.025624095254975</v>
+        <v>1.025111305138276</v>
       </c>
       <c r="E19">
-        <v>0.9981569685386646</v>
+        <v>0.878199886543764</v>
       </c>
       <c r="F19">
-        <v>0.9899943717553462</v>
+        <v>0.8083130000306398</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028182978809425</v>
+        <v>1.046049254932268</v>
       </c>
       <c r="J19">
-        <v>1.000200765487866</v>
+        <v>0.8857407999382942</v>
       </c>
       <c r="K19">
-        <v>1.028969638492465</v>
+        <v>1.038447921787886</v>
       </c>
       <c r="L19">
-        <v>1.001601568606567</v>
+        <v>0.8944358201472232</v>
       </c>
       <c r="M19">
-        <v>0.9934695821076397</v>
+        <v>0.8264406743268583</v>
       </c>
       <c r="N19">
-        <v>1.003770404919007</v>
+        <v>0.9620199996890118</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9930500783226616</v>
+        <v>0.8450126103735035</v>
       </c>
       <c r="D20">
-        <v>1.025511946906639</v>
+        <v>1.024523431589315</v>
       </c>
       <c r="E20">
-        <v>0.9974763476563392</v>
+        <v>0.8725199366967197</v>
       </c>
       <c r="F20">
-        <v>0.9889709776493107</v>
+        <v>0.7993183482477785</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028186757925705</v>
+        <v>1.045934436955818</v>
       </c>
       <c r="J20">
-        <v>0.9995500762588492</v>
+        <v>0.8801722813837882</v>
       </c>
       <c r="K20">
-        <v>1.028922540567341</v>
+        <v>1.038148349877796</v>
       </c>
       <c r="L20">
-        <v>1.00099022216119</v>
+        <v>0.8892478046597759</v>
       </c>
       <c r="M20">
-        <v>0.9925174691326852</v>
+        <v>0.8181280455194896</v>
       </c>
       <c r="N20">
-        <v>1.003538221405817</v>
+        <v>0.9599891732360099</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9904908339126361</v>
+        <v>0.8204120067759954</v>
       </c>
       <c r="D21">
-        <v>1.025146884520153</v>
+        <v>1.022584771977218</v>
       </c>
       <c r="E21">
-        <v>0.9952522215828185</v>
+        <v>0.8519835572507026</v>
       </c>
       <c r="F21">
-        <v>0.9856278484838727</v>
+        <v>0.7662755639435066</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028196768571165</v>
+        <v>1.045539581499645</v>
       </c>
       <c r="J21">
-        <v>0.9974221317641361</v>
+        <v>0.8599537928785127</v>
       </c>
       <c r="K21">
-        <v>1.028767887494854</v>
+        <v>1.037150539886922</v>
       </c>
       <c r="L21">
-        <v>0.9989909140153368</v>
+        <v>0.8704408751159129</v>
       </c>
       <c r="M21">
-        <v>0.9894061243963045</v>
+        <v>0.7876241860112015</v>
       </c>
       <c r="N21">
-        <v>1.002777518719308</v>
+        <v>0.9526444084734996</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9888715021031147</v>
+        <v>0.8021631997372402</v>
       </c>
       <c r="D22">
-        <v>1.024917017289605</v>
+        <v>1.02134462109487</v>
       </c>
       <c r="E22">
-        <v>0.9938448567504581</v>
+        <v>0.8368262616247195</v>
       </c>
       <c r="F22">
-        <v>0.9835131937094171</v>
+        <v>0.7412575693101711</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028201323127522</v>
+        <v>1.045274738750163</v>
       </c>
       <c r="J22">
-        <v>0.9960743677744542</v>
+        <v>0.8449410544495302</v>
       </c>
       <c r="K22">
-        <v>1.028669484195791</v>
+        <v>1.036504773176328</v>
       </c>
       <c r="L22">
-        <v>0.9977246088080334</v>
+        <v>0.8565102455187114</v>
       </c>
       <c r="M22">
-        <v>0.9874372626241351</v>
+        <v>0.7645761555060175</v>
       </c>
       <c r="N22">
-        <v>1.002294657611214</v>
+        <v>0.9472255637578173</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9897309308844535</v>
+        <v>0.8121754615663841</v>
       </c>
       <c r="D23">
-        <v>1.025038905493158</v>
+        <v>1.022004076002786</v>
       </c>
       <c r="E23">
-        <v>0.9945917945827535</v>
+        <v>0.845133961527772</v>
       </c>
       <c r="F23">
-        <v>0.9846354452697469</v>
+        <v>0.7550445770694533</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028199073251875</v>
+        <v>1.045416711806118</v>
       </c>
       <c r="J23">
-        <v>0.9967897932096135</v>
+        <v>0.8531794053343639</v>
       </c>
       <c r="K23">
-        <v>1.028721759700692</v>
+        <v>1.036848857809568</v>
       </c>
       <c r="L23">
-        <v>0.998396795041804</v>
+        <v>0.8641509258453635</v>
       </c>
       <c r="M23">
-        <v>0.9884822189254497</v>
+        <v>0.7772715407336498</v>
       </c>
       <c r="N23">
-        <v>1.002551071293827</v>
+        <v>0.9501951447147337</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9930928154140612</v>
+        <v>0.8453903644654739</v>
       </c>
       <c r="D24">
-        <v>1.025518061316701</v>
+        <v>1.024555576572009</v>
       </c>
       <c r="E24">
-        <v>0.9975134871437007</v>
+        <v>0.8728361595317403</v>
       </c>
       <c r="F24">
-        <v>0.9890268169374212</v>
+        <v>0.7998206111972448</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028186560538906</v>
+        <v>1.045940776355194</v>
       </c>
       <c r="J24">
-        <v>0.9995855885604165</v>
+        <v>0.8804825628386329</v>
       </c>
       <c r="K24">
-        <v>1.028925113446604</v>
+        <v>1.03816476783782</v>
       </c>
       <c r="L24">
-        <v>1.001023587384582</v>
+        <v>0.8895367953982457</v>
       </c>
       <c r="M24">
-        <v>0.9925694231479877</v>
+        <v>0.8185921394034571</v>
       </c>
       <c r="N24">
-        <v>1.003550898422906</v>
+        <v>0.9601022508073539</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9969515404821367</v>
+        <v>0.8762819016509313</v>
       </c>
       <c r="D25">
-        <v>1.026072541693807</v>
+        <v>1.027425357429848</v>
       </c>
       <c r="E25">
-        <v>1.000866570495859</v>
+        <v>0.8987789664681763</v>
       </c>
       <c r="F25">
-        <v>0.9940703804778075</v>
+        <v>0.8404730596758199</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028164434695646</v>
+        <v>1.046477018129713</v>
       </c>
       <c r="J25">
-        <v>1.002788820867278</v>
+        <v>0.9058337813048236</v>
       </c>
       <c r="K25">
-        <v>1.029155958733625</v>
+        <v>1.039612341487525</v>
       </c>
       <c r="L25">
-        <v>1.004033090616584</v>
+        <v>0.9131820931949688</v>
       </c>
       <c r="M25">
-        <v>0.9972601003021522</v>
+        <v>0.8561819366637211</v>
       </c>
       <c r="N25">
-        <v>1.004691803431707</v>
+        <v>0.9693698015215531</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_6/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.897257880973636</v>
+        <v>0.9590341799169989</v>
       </c>
       <c r="D2">
-        <v>1.029642249779684</v>
+        <v>1.037044679509438</v>
       </c>
       <c r="E2">
-        <v>0.9164809909461363</v>
+        <v>0.9706386725163278</v>
       </c>
       <c r="F2">
-        <v>0.8676915893751157</v>
+        <v>1.028260011600977</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046847012775419</v>
+        <v>1.050038275111585</v>
       </c>
       <c r="J2">
-        <v>0.9230152531614805</v>
+        <v>0.9825132385715052</v>
       </c>
       <c r="K2">
-        <v>1.040703507696006</v>
+        <v>1.048010964345619</v>
       </c>
       <c r="L2">
-        <v>0.9292410562046478</v>
+        <v>0.9825228008214676</v>
       </c>
       <c r="M2">
-        <v>0.8813640088590843</v>
+        <v>1.039339193264896</v>
       </c>
       <c r="N2">
-        <v>0.9756730859597319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0.9971742431153271</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.039706722737974</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.045018172370411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.91100854506542</v>
+        <v>0.9659701631456845</v>
       </c>
       <c r="D3">
-        <v>1.03121079133331</v>
+        <v>1.039197966917679</v>
       </c>
       <c r="E3">
-        <v>0.9281191923950978</v>
+        <v>0.9763499904201601</v>
       </c>
       <c r="F3">
-        <v>0.8854079376135564</v>
+        <v>1.03133835810421</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047082302303657</v>
+        <v>1.050493936785299</v>
       </c>
       <c r="J3">
-        <v>0.9342588236415326</v>
+        <v>0.9874335555355471</v>
       </c>
       <c r="K3">
-        <v>1.041459311046039</v>
+        <v>1.049352714239976</v>
       </c>
       <c r="L3">
-        <v>0.9397626542125569</v>
+        <v>0.9872946965003029</v>
       </c>
       <c r="M3">
-        <v>0.8977524455918253</v>
+        <v>1.041585365996872</v>
       </c>
       <c r="N3">
-        <v>0.9798014457847807</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>0.9989478909759024</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.041484417619338</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.045964246576174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9193582179583225</v>
+        <v>0.9703320065512837</v>
       </c>
       <c r="D4">
-        <v>1.032206919829202</v>
+        <v>1.040565163452555</v>
       </c>
       <c r="E4">
-        <v>0.9351980826542216</v>
+        <v>0.9799490110158094</v>
       </c>
       <c r="F4">
-        <v>0.8961262570290384</v>
+        <v>1.033289875393113</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047219142987687</v>
+        <v>1.050771606123309</v>
       </c>
       <c r="J4">
-        <v>0.9410767194369224</v>
+        <v>0.9905263226399107</v>
       </c>
       <c r="K4">
-        <v>1.041931574488913</v>
+        <v>1.050197464756492</v>
       </c>
       <c r="L4">
-        <v>0.9461470959669308</v>
+        <v>0.9902956133639632</v>
       </c>
       <c r="M4">
-        <v>0.9076642168343293</v>
+        <v>1.043002460431678</v>
       </c>
       <c r="N4">
-        <v>0.9823042353921551</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.000060882044377</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.042605950453868</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.046562434345851</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9227529152300891</v>
+        <v>0.9721387397640672</v>
       </c>
       <c r="D5">
-        <v>1.032621214092848</v>
+        <v>1.041138734773094</v>
       </c>
       <c r="E5">
-        <v>0.9380785569793922</v>
+        <v>0.9814417009441769</v>
       </c>
       <c r="F5">
-        <v>0.9004766131642453</v>
+        <v>1.034103437158875</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047272985406224</v>
+        <v>1.050886464384616</v>
       </c>
       <c r="J5">
-        <v>0.9438463311798626</v>
+        <v>0.9918073734404107</v>
       </c>
       <c r="K5">
-        <v>1.042126105599354</v>
+        <v>1.050551959800971</v>
       </c>
       <c r="L5">
-        <v>0.9487414961901042</v>
+        <v>0.9915390209175409</v>
       </c>
       <c r="M5">
-        <v>0.9116862249632113</v>
+        <v>1.043592243722865</v>
       </c>
       <c r="N5">
-        <v>0.9833205315127962</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.000521825680929</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.043072722876575</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.046820192640694</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9233165231143474</v>
+        <v>0.9724423853241304</v>
       </c>
       <c r="D6">
-        <v>1.03269051411446</v>
+        <v>1.041240611147244</v>
       </c>
       <c r="E6">
-        <v>0.9385569226776487</v>
+        <v>0.9816929987215569</v>
       </c>
       <c r="F6">
-        <v>0.9011985045062101</v>
+        <v>1.03424245005508</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047281809749891</v>
+        <v>1.050908154227047</v>
       </c>
       <c r="J6">
-        <v>0.9443060206251224</v>
+        <v>0.9920231507234786</v>
       </c>
       <c r="K6">
-        <v>1.042158533491345</v>
+        <v>1.050617024855936</v>
       </c>
       <c r="L6">
-        <v>0.9491721514914342</v>
+        <v>0.9917485630984363</v>
       </c>
       <c r="M6">
-        <v>0.9123535670892948</v>
+        <v>1.043693704090376</v>
       </c>
       <c r="N6">
-        <v>0.9834891815847008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.000599943169477</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.04315302166504</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.046874863085314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.91940401359364</v>
+        <v>0.9703614471606581</v>
       </c>
       <c r="D7">
-        <v>1.032212473207964</v>
+        <v>1.040588706353468</v>
       </c>
       <c r="E7">
-        <v>0.9352369320688888</v>
+        <v>0.9799742495605283</v>
       </c>
       <c r="F7">
-        <v>0.8961849716740558</v>
+        <v>1.033308625565133</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047219876909365</v>
+        <v>1.050780228818532</v>
       </c>
       <c r="J7">
-        <v>0.9411140917510641</v>
+        <v>0.9905485647806038</v>
       </c>
       <c r="K7">
-        <v>1.04193418955789</v>
+        <v>1.050217904565238</v>
       </c>
       <c r="L7">
-        <v>0.946182100771346</v>
+        <v>0.9903174465240946</v>
       </c>
       <c r="M7">
-        <v>0.9077185041156115</v>
+        <v>1.043018129638599</v>
       </c>
       <c r="N7">
-        <v>0.9823179509237574</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.00007027271906</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.042618351544356</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.046596815657163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9020289927595295</v>
+        <v>0.9614120362181499</v>
       </c>
       <c r="D8">
-        <v>1.030176260413161</v>
+        <v>1.037797418948441</v>
       </c>
       <c r="E8">
-        <v>0.9205162565860335</v>
+        <v>0.9725962965596677</v>
       </c>
       <c r="F8">
-        <v>0.873848694229801</v>
+        <v>1.029318400468872</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04692972229462</v>
+        <v>1.050204574436475</v>
       </c>
       <c r="J8">
-        <v>0.9269184689326908</v>
+        <v>0.9842020454664093</v>
       </c>
       <c r="K8">
-        <v>1.040962419099497</v>
+        <v>1.048488629453403</v>
       </c>
       <c r="L8">
-        <v>0.9328925813043585</v>
+        <v>0.984160724488133</v>
       </c>
       <c r="M8">
-        <v>0.8870601362853664</v>
+        <v>1.040115356624186</v>
       </c>
       <c r="N8">
-        <v>0.9771061905313941</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>0.9977852260822699</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.040321004411319</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.045378619583496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8662636881771463</v>
+        <v>0.9445848601036658</v>
       </c>
       <c r="D9">
-        <v>1.026442710141579</v>
+        <v>1.032644607256108</v>
       </c>
       <c r="E9">
-        <v>0.890348210597147</v>
+        <v>0.9587872864323754</v>
       </c>
       <c r="F9">
-        <v>0.8273730294234332</v>
+        <v>1.021946990675125</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046300249603783</v>
+        <v>1.049044224980865</v>
       </c>
       <c r="J9">
-        <v>0.8976176628151544</v>
+        <v>0.9722585708387882</v>
       </c>
       <c r="K9">
-        <v>1.03912086127245</v>
+        <v>1.04522935583174</v>
       </c>
       <c r="L9">
-        <v>0.9055119080682121</v>
+        <v>0.9725863817581354</v>
       </c>
       <c r="M9">
-        <v>0.8440642989151731</v>
+        <v>1.034693753084533</v>
       </c>
       <c r="N9">
-        <v>0.9663607908343529</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.9934689521214732</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.036030154804982</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.043070991501522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8369435302844472</v>
+        <v>0.9326000095034044</v>
       </c>
       <c r="D10">
-        <v>1.023853917626846</v>
+        <v>1.029134958894279</v>
       </c>
       <c r="E10">
-        <v>0.8657714029518843</v>
+        <v>0.949014334924499</v>
       </c>
       <c r="F10">
-        <v>0.7885550794316867</v>
+        <v>1.016909152586882</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045800826930256</v>
+        <v>1.048209846609771</v>
       </c>
       <c r="J10">
-        <v>0.8735430889903428</v>
+        <v>0.9637687808987025</v>
       </c>
       <c r="K10">
-        <v>1.037805436977404</v>
+        <v>1.042997370589729</v>
       </c>
       <c r="L10">
-        <v>0.8830760776810178</v>
+        <v>0.9643694949620749</v>
       </c>
       <c r="M10">
-        <v>0.808185429139857</v>
+        <v>1.030979674177354</v>
       </c>
       <c r="N10">
-        <v>0.9575757083419285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.990404909264015</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.033142459476251</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.041509538189018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8221108087806427</v>
+        <v>0.9277075271546372</v>
       </c>
       <c r="D11">
-        <v>1.022708820873849</v>
+        <v>1.028200636369318</v>
       </c>
       <c r="E11">
-        <v>0.8533979789262804</v>
+        <v>0.9451161281835978</v>
       </c>
       <c r="F11">
-        <v>0.7685805198214392</v>
+        <v>1.015648383884934</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045565562565124</v>
+        <v>1.048093121841858</v>
       </c>
       <c r="J11">
-        <v>0.8613507116806652</v>
+        <v>0.9604308980139127</v>
       </c>
       <c r="K11">
-        <v>1.037214823105151</v>
+        <v>1.042609630163088</v>
       </c>
       <c r="L11">
-        <v>0.871738653304151</v>
+        <v>0.9611530087659583</v>
       </c>
       <c r="M11">
-        <v>0.7897499701944023</v>
+        <v>1.03028110756663</v>
       </c>
       <c r="N11">
-        <v>0.9531502434736544</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9892938117490954</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.033028589081254</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.041267967133847</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8161474620320386</v>
+        <v>0.9260352490058543</v>
       </c>
       <c r="D12">
-        <v>1.022279813821027</v>
+        <v>1.028064921819856</v>
       </c>
       <c r="E12">
-        <v>0.8484354199739319</v>
+        <v>0.9438215488012636</v>
       </c>
       <c r="F12">
-        <v>0.7604723983083391</v>
+        <v>1.015513241213334</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045475309823012</v>
+        <v>1.048135146850112</v>
       </c>
       <c r="J12">
-        <v>0.8564466067570706</v>
+        <v>0.9593369071516404</v>
       </c>
       <c r="K12">
-        <v>1.036992263729265</v>
+        <v>1.042673495313067</v>
       </c>
       <c r="L12">
-        <v>0.8671837222984768</v>
+        <v>0.9601104380529777</v>
       </c>
       <c r="M12">
-        <v>0.7822737311778299</v>
+        <v>1.030349147221109</v>
       </c>
       <c r="N12">
-        <v>0.9513755944304982</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.988979200522315</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.033410624951451</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.04131312114628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.817450333535172</v>
+        <v>0.9267716172696501</v>
       </c>
       <c r="D13">
-        <v>1.022372003920659</v>
+        <v>1.028558867948601</v>
       </c>
       <c r="E13">
-        <v>0.8495190355796802</v>
+        <v>0.9444743520076995</v>
       </c>
       <c r="F13">
-        <v>0.7622479629256701</v>
+        <v>1.016264840006619</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045494799145108</v>
+        <v>1.048317607203345</v>
       </c>
       <c r="J13">
-        <v>0.8575181667427573</v>
+        <v>0.9599290365041854</v>
       </c>
       <c r="K13">
-        <v>1.037040147666441</v>
+        <v>1.043116374015205</v>
       </c>
       <c r="L13">
-        <v>0.8681787164242518</v>
+        <v>0.9607007616532464</v>
       </c>
       <c r="M13">
-        <v>0.7839105310813651</v>
+        <v>1.031043916552265</v>
       </c>
       <c r="N13">
-        <v>0.9517630793444647</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9892691436062293</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.034237936195585</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.041623774863685</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8216282357642775</v>
+        <v>0.9283739152498159</v>
       </c>
       <c r="D14">
-        <v>1.022673434071068</v>
+        <v>1.029188983123044</v>
       </c>
       <c r="E14">
-        <v>0.8529961310811949</v>
+        <v>0.945809966523588</v>
       </c>
       <c r="F14">
-        <v>0.7679261418563279</v>
+        <v>1.017189262395728</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045558160746259</v>
+        <v>1.048507792664744</v>
       </c>
       <c r="J14">
-        <v>0.8609539043508181</v>
+        <v>0.9611033706992224</v>
       </c>
       <c r="K14">
-        <v>1.037196491250169</v>
+        <v>1.04359693669641</v>
       </c>
       <c r="L14">
-        <v>0.8713699821141694</v>
+        <v>0.9618501033942222</v>
       </c>
       <c r="M14">
-        <v>0.7891464232352391</v>
+        <v>1.03181068884845</v>
       </c>
       <c r="N14">
-        <v>0.9530065300648509</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9897446935635567</v>
+      </c>
+      <c r="O14">
+        <v>1.029999999999999</v>
+      </c>
+      <c r="P14">
+        <v>1.035018035304361</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.041964954923037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8241367417245762</v>
+        <v>0.9292870725152209</v>
       </c>
       <c r="D15">
-        <v>1.022858667935694</v>
+        <v>1.029490278858216</v>
       </c>
       <c r="E15">
-        <v>0.8550855105940549</v>
+        <v>0.9465589937386492</v>
       </c>
       <c r="F15">
-        <v>0.7713244543371345</v>
+        <v>1.017623594305498</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045596819989582</v>
+        <v>1.048589832665066</v>
       </c>
       <c r="J15">
-        <v>0.8630164911271663</v>
+        <v>0.9617580442724549</v>
       </c>
       <c r="K15">
-        <v>1.037292397812508</v>
+        <v>1.04380772437066</v>
       </c>
       <c r="L15">
-        <v>0.8732865386559466</v>
+        <v>0.9624863599557616</v>
       </c>
       <c r="M15">
-        <v>0.7922810641505774</v>
+        <v>1.032150510923972</v>
       </c>
       <c r="N15">
-        <v>0.9537537721844135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9899926662811761</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.035324290103846</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.042119804612521</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8378734020456414</v>
+        <v>0.934293814353045</v>
       </c>
       <c r="D16">
-        <v>1.023929401978527</v>
+        <v>1.030899191537796</v>
       </c>
       <c r="E16">
-        <v>0.8665484866922887</v>
+        <v>0.950617695267639</v>
       </c>
       <c r="F16">
-        <v>0.7897988975200898</v>
+        <v>1.019665313010302</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045816039370124</v>
+        <v>1.04893040259387</v>
       </c>
       <c r="J16">
-        <v>0.8743071605849547</v>
+        <v>0.9652946886062683</v>
       </c>
       <c r="K16">
-        <v>1.037844189381429</v>
+        <v>1.044696989550001</v>
       </c>
       <c r="L16">
-        <v>0.8837871662486101</v>
+        <v>0.9659002239500694</v>
       </c>
       <c r="M16">
-        <v>0.8093341324063094</v>
+        <v>1.033652692916802</v>
       </c>
       <c r="N16">
-        <v>0.957853635096657</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.991252845592394</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.03647276856408</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.042751675926376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8458473026192693</v>
+        <v>0.9372804814230061</v>
       </c>
       <c r="D17">
-        <v>1.024594555421631</v>
+        <v>1.031649595935391</v>
       </c>
       <c r="E17">
-        <v>0.8732187026322624</v>
+        <v>0.9530226604235893</v>
       </c>
       <c r="F17">
-        <v>0.8004279706468186</v>
+        <v>1.020739640505689</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045948454076321</v>
+        <v>1.049089109014599</v>
       </c>
       <c r="J17">
-        <v>0.8808578769797847</v>
+        <v>0.9673821729841898</v>
       </c>
       <c r="K17">
-        <v>1.038184670434247</v>
+        <v>1.045124552730395</v>
       </c>
       <c r="L17">
-        <v>0.8898863706398975</v>
+        <v>0.9679077568488754</v>
       </c>
       <c r="M17">
-        <v>0.8191533571140596</v>
+        <v>1.034393544720361</v>
       </c>
       <c r="N17">
-        <v>0.9602390417804266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.991966450244983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.036928912270626</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.043056540767502</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8503037835804886</v>
+        <v>0.9388408259565153</v>
       </c>
       <c r="D18">
-        <v>1.024980202627936</v>
+        <v>1.031872120795555</v>
       </c>
       <c r="E18">
-        <v>0.8769515674042556</v>
+        <v>0.9542492201251015</v>
       </c>
       <c r="F18">
-        <v>0.8063409913229032</v>
+        <v>1.021035291594662</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046023855691627</v>
+        <v>1.049092754846487</v>
       </c>
       <c r="J18">
-        <v>0.8845178239282425</v>
+        <v>0.9684315461322491</v>
       </c>
       <c r="K18">
-        <v>1.038381239943934</v>
+        <v>1.045162479635408</v>
       </c>
       <c r="L18">
-        <v>0.8932961251448815</v>
+        <v>0.9689073408114974</v>
       </c>
       <c r="M18">
-        <v>0.8246179297758663</v>
+        <v>1.034500545167521</v>
       </c>
       <c r="N18">
-        <v>0.9615737238664523</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.9922806655125848</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.036774968944536</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.043071825139536</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8517931550493981</v>
+        <v>0.9391086407159203</v>
       </c>
       <c r="D19">
-        <v>1.025111305138276</v>
+        <v>1.031632098288183</v>
       </c>
       <c r="E19">
-        <v>0.878199886543764</v>
+        <v>0.9544106305064052</v>
       </c>
       <c r="F19">
-        <v>0.8083130000306398</v>
+        <v>1.020614690785115</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046049254932268</v>
+        <v>1.048960847907652</v>
       </c>
       <c r="J19">
-        <v>0.8857407999382942</v>
+        <v>0.9685377902466371</v>
       </c>
       <c r="K19">
-        <v>1.038447921787886</v>
+        <v>1.044864540124868</v>
       </c>
       <c r="L19">
-        <v>0.8944358201472232</v>
+        <v>0.9689965390570702</v>
       </c>
       <c r="M19">
-        <v>0.8264406743268583</v>
+        <v>1.034024140658876</v>
       </c>
       <c r="N19">
-        <v>0.9620199996890118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.992243001307679</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.036071423681301</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.042867515054812</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8450126103735035</v>
+        <v>0.9357510048790805</v>
       </c>
       <c r="D20">
-        <v>1.024523431589315</v>
+        <v>1.030086551614402</v>
       </c>
       <c r="E20">
-        <v>0.8725199366967197</v>
+        <v>0.9515827864616634</v>
       </c>
       <c r="F20">
-        <v>0.7993183482477785</v>
+        <v>1.018240758473264</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045934436955818</v>
+        <v>1.048449211951028</v>
       </c>
       <c r="J20">
-        <v>0.8801722813837882</v>
+        <v>0.9660048300302951</v>
       </c>
       <c r="K20">
-        <v>1.038148349877796</v>
+        <v>1.043620220653751</v>
       </c>
       <c r="L20">
-        <v>0.8892478046597759</v>
+        <v>0.9665339959732204</v>
       </c>
       <c r="M20">
-        <v>0.8181280455194896</v>
+        <v>1.031970273995576</v>
       </c>
       <c r="N20">
-        <v>0.9599891732360099</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9912170489974008</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.033915802786217</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.041991637966823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8204120067759954</v>
+        <v>0.9265018485078123</v>
       </c>
       <c r="D21">
-        <v>1.022584771977218</v>
+        <v>1.027322033492932</v>
       </c>
       <c r="E21">
-        <v>0.8519835572507026</v>
+        <v>0.9440478855689403</v>
       </c>
       <c r="F21">
-        <v>0.7662755639435066</v>
+        <v>1.014245658462104</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045539581499645</v>
+        <v>1.047746272713798</v>
       </c>
       <c r="J21">
-        <v>0.8599537928785127</v>
+        <v>0.9594297845372284</v>
       </c>
       <c r="K21">
-        <v>1.037150539886922</v>
+        <v>1.041803632916806</v>
       </c>
       <c r="L21">
-        <v>0.8704408751159129</v>
+        <v>0.9601729182190715</v>
       </c>
       <c r="M21">
-        <v>0.7876241860112015</v>
+        <v>1.028962076824177</v>
       </c>
       <c r="N21">
-        <v>0.9526444084734996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9888255493302062</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.03149387439127</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.04071046113212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8021631997372402</v>
+        <v>0.920489933792648</v>
       </c>
       <c r="D22">
-        <v>1.02134462109487</v>
+        <v>1.025568638439186</v>
       </c>
       <c r="E22">
-        <v>0.8368262616247195</v>
+        <v>0.9391680892201756</v>
       </c>
       <c r="F22">
-        <v>0.7412575693101711</v>
+        <v>1.011725832903922</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045274738750163</v>
+        <v>1.047291919315294</v>
       </c>
       <c r="J22">
-        <v>0.8449410544495302</v>
+        <v>0.9551650217116181</v>
       </c>
       <c r="K22">
-        <v>1.036504773176328</v>
+        <v>1.040650041007506</v>
       </c>
       <c r="L22">
-        <v>0.8565102455187114</v>
+        <v>0.9560492803671803</v>
       </c>
       <c r="M22">
-        <v>0.7645761555060175</v>
+        <v>1.027068523556374</v>
       </c>
       <c r="N22">
-        <v>0.9472255637578173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.987277130685512</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.029995233288978</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.039881432499092</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8121754615663841</v>
+        <v>0.9236937931481074</v>
       </c>
       <c r="D23">
-        <v>1.022004076002786</v>
+        <v>1.026488040042955</v>
       </c>
       <c r="E23">
-        <v>0.845133961527772</v>
+        <v>0.941766020226358</v>
       </c>
       <c r="F23">
-        <v>0.7550445770694533</v>
+        <v>1.013061680479233</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045416711806118</v>
+        <v>1.047528725214023</v>
       </c>
       <c r="J23">
-        <v>0.8531794053343639</v>
+        <v>0.9574362082508424</v>
       </c>
       <c r="K23">
-        <v>1.036848857809568</v>
+        <v>1.041251314754667</v>
       </c>
       <c r="L23">
-        <v>0.8641509258453635</v>
+        <v>0.9582446086355623</v>
       </c>
       <c r="M23">
-        <v>0.7772715407336498</v>
+        <v>1.028071824605773</v>
       </c>
       <c r="N23">
-        <v>0.9501951447147337</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9881001326985116</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.030789290143766</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.040296992401184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8453903644654739</v>
+        <v>0.9358424708130986</v>
       </c>
       <c r="D24">
-        <v>1.024555576572009</v>
+        <v>1.030049666988826</v>
       </c>
       <c r="E24">
-        <v>0.8728361595317403</v>
+        <v>0.9516487221167872</v>
       </c>
       <c r="F24">
-        <v>0.7998206111972448</v>
+        <v>1.01819717591898</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045940776355194</v>
+        <v>1.048424501034643</v>
       </c>
       <c r="J24">
-        <v>0.8804825628386329</v>
+        <v>0.9660553104400873</v>
       </c>
       <c r="K24">
-        <v>1.03816476783782</v>
+        <v>1.043568856038188</v>
       </c>
       <c r="L24">
-        <v>0.8895367953982457</v>
+        <v>0.9665816997356774</v>
       </c>
       <c r="M24">
-        <v>0.8185921394034571</v>
+        <v>1.031912091088163</v>
       </c>
       <c r="N24">
-        <v>0.9601022508073539</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9912248211199023</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.033828638649226</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.04192813932763</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8762819016509313</v>
+        <v>0.9490805292400663</v>
       </c>
       <c r="D25">
-        <v>1.027425357429848</v>
+        <v>1.034027329114171</v>
       </c>
       <c r="E25">
-        <v>0.8987789664681763</v>
+        <v>0.9624699169944757</v>
       </c>
       <c r="F25">
-        <v>0.8404730596758199</v>
+        <v>1.023905858941443</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046477018129713</v>
+        <v>1.049371595204901</v>
       </c>
       <c r="J25">
-        <v>0.9058337813048236</v>
+        <v>0.9754520499698504</v>
       </c>
       <c r="K25">
-        <v>1.039612341487525</v>
+        <v>1.046119419367929</v>
       </c>
       <c r="L25">
-        <v>0.9131820931949688</v>
+        <v>0.9756801889427058</v>
       </c>
       <c r="M25">
-        <v>0.8561819366637211</v>
+        <v>1.036144065182776</v>
       </c>
       <c r="N25">
-        <v>0.9693698015215531</v>
+        <v>0.9946269225433024</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.037177985838806</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.043728652354494</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_6/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9590341799169989</v>
+        <v>0.9621195867009696</v>
       </c>
       <c r="D2">
-        <v>1.037044679509438</v>
+        <v>1.034893498368414</v>
       </c>
       <c r="E2">
-        <v>0.9706386725163278</v>
+        <v>0.9732956022700874</v>
       </c>
       <c r="F2">
-        <v>1.028260011600977</v>
+        <v>1.027514762759259</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050038275111585</v>
+        <v>1.049156964779467</v>
       </c>
       <c r="J2">
-        <v>0.9825132385715052</v>
+        <v>0.9854954967245328</v>
       </c>
       <c r="K2">
-        <v>1.048010964345619</v>
+        <v>1.045887207823622</v>
       </c>
       <c r="L2">
-        <v>0.9825228008214676</v>
+        <v>0.9851399494597174</v>
       </c>
       <c r="M2">
-        <v>1.039339193264896</v>
+        <v>1.038603633261449</v>
       </c>
       <c r="N2">
-        <v>0.9971742431153271</v>
+        <v>1.002597111486634</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.039706722737974</v>
+        <v>1.039124575435573</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.045018172370411</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.0435252193587</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024260961675716</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9659701631456845</v>
+        <v>0.9687078584129956</v>
       </c>
       <c r="D3">
-        <v>1.039197966917679</v>
+        <v>1.036852851344223</v>
       </c>
       <c r="E3">
-        <v>0.9763499904201601</v>
+        <v>0.9787097252521405</v>
       </c>
       <c r="F3">
-        <v>1.03133835810421</v>
+        <v>1.030423551098292</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050493936785299</v>
+        <v>1.049530992343461</v>
       </c>
       <c r="J3">
-        <v>0.9874335555355471</v>
+        <v>0.9900895176680389</v>
       </c>
       <c r="K3">
-        <v>1.049352714239976</v>
+        <v>1.047034945842241</v>
       </c>
       <c r="L3">
-        <v>0.9872946965003029</v>
+        <v>0.9896224673371546</v>
       </c>
       <c r="M3">
-        <v>1.041585365996872</v>
+        <v>1.040681410821396</v>
       </c>
       <c r="N3">
-        <v>0.9989478909759024</v>
+        <v>1.003922473356771</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.041484417619338</v>
+        <v>1.040768998327629</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.045964246576174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.044333838637274</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024466007111572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9703320065512837</v>
+        <v>0.9728563001612135</v>
       </c>
       <c r="D4">
-        <v>1.040565163452555</v>
+        <v>1.038098433436949</v>
       </c>
       <c r="E4">
-        <v>0.9799490110158094</v>
+        <v>0.9821259320243584</v>
       </c>
       <c r="F4">
-        <v>1.033289875393113</v>
+        <v>1.032269391247826</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050771606123309</v>
+        <v>1.049757346813601</v>
       </c>
       <c r="J4">
-        <v>0.9905263226399107</v>
+        <v>0.9929807871489016</v>
       </c>
       <c r="K4">
-        <v>1.050197464756492</v>
+        <v>1.047757800494622</v>
       </c>
       <c r="L4">
-        <v>0.9902956133639632</v>
+        <v>0.9924449781592558</v>
       </c>
       <c r="M4">
-        <v>1.043002460431678</v>
+        <v>1.041993348811883</v>
       </c>
       <c r="N4">
-        <v>1.000060882044377</v>
+        <v>1.0047551527493</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.042605950453868</v>
+        <v>1.041807308150739</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.046562434345851</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.044845922037758</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024592346241196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9721387397640672</v>
+        <v>0.9745756414547468</v>
       </c>
       <c r="D5">
-        <v>1.041138734773094</v>
+        <v>1.038621557276913</v>
       </c>
       <c r="E5">
-        <v>0.9814417009441769</v>
+        <v>0.9835436509945807</v>
       </c>
       <c r="F5">
-        <v>1.034103437158875</v>
+        <v>1.033039318443346</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050886464384616</v>
+        <v>1.049850876328566</v>
       </c>
       <c r="J5">
-        <v>0.9918073734404107</v>
+        <v>0.9941790426168854</v>
       </c>
       <c r="K5">
-        <v>1.050551959800971</v>
+        <v>1.048061680700891</v>
       </c>
       <c r="L5">
-        <v>0.9915390209175409</v>
+        <v>0.9936151307973401</v>
       </c>
       <c r="M5">
-        <v>1.043592243722865</v>
+        <v>1.042539666987532</v>
       </c>
       <c r="N5">
-        <v>1.000521825680929</v>
+        <v>1.005100183672929</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.043072722876575</v>
+        <v>1.042239681445869</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046820192640694</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.045068607938713</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024645325634921</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9724423853241304</v>
+        <v>0.9748644750501483</v>
       </c>
       <c r="D6">
-        <v>1.041240611147244</v>
+        <v>1.038714764066212</v>
       </c>
       <c r="E6">
-        <v>0.9816929987215569</v>
+        <v>0.9837822155977705</v>
       </c>
       <c r="F6">
-        <v>1.03424245005508</v>
+        <v>1.033170919346712</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050908154227047</v>
+        <v>1.049868882452361</v>
       </c>
       <c r="J6">
-        <v>0.9920231507234786</v>
+        <v>0.9943807646385482</v>
       </c>
       <c r="K6">
-        <v>1.050617024855936</v>
+        <v>1.04811804748909</v>
       </c>
       <c r="L6">
-        <v>0.9917485630984363</v>
+        <v>0.9938122234959875</v>
       </c>
       <c r="M6">
-        <v>1.043693704090376</v>
+        <v>1.042633742374587</v>
       </c>
       <c r="N6">
-        <v>1.000599943169477</v>
+        <v>1.005158620537895</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04315302166504</v>
+        <v>1.0423141356242</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046874863085314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045118001925913</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024655779697134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9703614471606581</v>
+        <v>0.972906540363199</v>
       </c>
       <c r="D7">
-        <v>1.040588706353468</v>
+        <v>1.038124301914399</v>
       </c>
       <c r="E7">
-        <v>0.9799742495605283</v>
+        <v>0.9821706969078384</v>
       </c>
       <c r="F7">
-        <v>1.033308625565133</v>
+        <v>1.032294874007476</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050780228818532</v>
+        <v>1.049766927847983</v>
       </c>
       <c r="J7">
-        <v>0.9905485647806038</v>
+        <v>0.9930232873764039</v>
       </c>
       <c r="K7">
-        <v>1.050217904565238</v>
+        <v>1.047780529790701</v>
       </c>
       <c r="L7">
-        <v>0.9903174465240946</v>
+        <v>0.9924861023591752</v>
       </c>
       <c r="M7">
-        <v>1.043018129638599</v>
+        <v>1.042015671217502</v>
       </c>
       <c r="N7">
-        <v>1.00007027271906</v>
+        <v>1.004796307205766</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.042618351544356</v>
+        <v>1.041824974805931</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.046596815657163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.044883931928217</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024598473678479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9614120362181499</v>
+        <v>0.9644476066843978</v>
       </c>
       <c r="D8">
-        <v>1.037797418948441</v>
+        <v>1.035590884386176</v>
       </c>
       <c r="E8">
-        <v>0.9725962965596677</v>
+        <v>0.9752166092093275</v>
       </c>
       <c r="F8">
-        <v>1.029318400468872</v>
+        <v>1.028539129388788</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050204574436475</v>
+        <v>1.049299988771436</v>
       </c>
       <c r="J8">
-        <v>0.9842020454664093</v>
+        <v>0.9871398945737686</v>
       </c>
       <c r="K8">
-        <v>1.048488629453403</v>
+        <v>1.046309405979952</v>
       </c>
       <c r="L8">
-        <v>0.984160724488133</v>
+        <v>0.9867430923139334</v>
       </c>
       <c r="M8">
-        <v>1.040115356624186</v>
+        <v>1.039345913333573</v>
       </c>
       <c r="N8">
-        <v>0.9977852260822699</v>
+        <v>1.003158654461351</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.040321004411319</v>
+        <v>1.039712041227605</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.045378619583496</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.043848726568257</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024340237357579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9445848601036658</v>
+        <v>0.9485140927099931</v>
       </c>
       <c r="D9">
-        <v>1.032644607256108</v>
+        <v>1.030913848357001</v>
       </c>
       <c r="E9">
-        <v>0.9587872864323754</v>
+        <v>0.9621698183472382</v>
       </c>
       <c r="F9">
-        <v>1.021946990675125</v>
+        <v>1.021591296057678</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049044224980865</v>
+        <v>1.048339200711429</v>
       </c>
       <c r="J9">
-        <v>0.9722585708387882</v>
+        <v>0.9760257961855994</v>
       </c>
       <c r="K9">
-        <v>1.04522935583174</v>
+        <v>1.043524518827531</v>
       </c>
       <c r="L9">
-        <v>0.9725863817581354</v>
+        <v>0.9759080078416996</v>
       </c>
       <c r="M9">
-        <v>1.034693753084533</v>
+        <v>1.034343519786185</v>
       </c>
       <c r="N9">
-        <v>0.9934689521214732</v>
+        <v>0.9999556408253766</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.036030154804982</v>
+        <v>1.035752966844603</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043070991501522</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041876227370633</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023825043521774</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9326000095034044</v>
+        <v>0.9373133093895024</v>
       </c>
       <c r="D10">
-        <v>1.029134958894279</v>
+        <v>1.027755995678321</v>
       </c>
       <c r="E10">
-        <v>0.949014334924499</v>
+        <v>0.9530711851309516</v>
       </c>
       <c r="F10">
-        <v>1.016909152586882</v>
+        <v>1.016898551382257</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048209846609771</v>
+        <v>1.047651190496619</v>
       </c>
       <c r="J10">
-        <v>0.9637687808987025</v>
+        <v>0.9682554469154009</v>
       </c>
       <c r="K10">
-        <v>1.042997370589729</v>
+        <v>1.041641560871384</v>
       </c>
       <c r="L10">
-        <v>0.9643694949620749</v>
+        <v>0.968342802578254</v>
       </c>
       <c r="M10">
-        <v>1.030979674177354</v>
+        <v>1.030969256237292</v>
       </c>
       <c r="N10">
-        <v>0.990404909264015</v>
+        <v>0.9978422642699125</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.033142459476251</v>
+        <v>1.033134214810571</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.041509538189018</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040563233702388</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023470380573165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9277075271546372</v>
+        <v>0.9328955896103356</v>
       </c>
       <c r="D11">
-        <v>1.028200636369318</v>
+        <v>1.026931309469148</v>
       </c>
       <c r="E11">
-        <v>0.9451161281835978</v>
+        <v>0.9495910570445379</v>
       </c>
       <c r="F11">
-        <v>1.015648383884934</v>
+        <v>1.015816944343939</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048093121841858</v>
+        <v>1.047576327504409</v>
       </c>
       <c r="J11">
-        <v>0.9604308980139127</v>
+        <v>0.965353351405342</v>
       </c>
       <c r="K11">
-        <v>1.042609630163088</v>
+        <v>1.041362605381622</v>
       </c>
       <c r="L11">
-        <v>0.9611530087659583</v>
+        <v>0.9655306235569149</v>
       </c>
       <c r="M11">
-        <v>1.03028110756663</v>
+        <v>1.030446615992205</v>
       </c>
       <c r="N11">
-        <v>0.9892938117490954</v>
+        <v>0.9973286587450413</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.033028589081254</v>
+        <v>1.033159504313971</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.041267967133847</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040401796561314</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02346348626799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9260352490058543</v>
+        <v>0.9313993211179323</v>
       </c>
       <c r="D12">
-        <v>1.028064921819856</v>
+        <v>1.02681033773537</v>
       </c>
       <c r="E12">
-        <v>0.9438215488012636</v>
+        <v>0.9484503798637726</v>
       </c>
       <c r="F12">
-        <v>1.015513241213334</v>
+        <v>1.015743264626271</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048135146850112</v>
+        <v>1.047622622679138</v>
       </c>
       <c r="J12">
-        <v>0.9593369071516404</v>
+        <v>0.9644201228509803</v>
       </c>
       <c r="K12">
-        <v>1.042673495313067</v>
+        <v>1.041441309249924</v>
       </c>
       <c r="L12">
-        <v>0.9601104380529777</v>
+        <v>0.964636630361281</v>
       </c>
       <c r="M12">
-        <v>1.030349147221109</v>
+        <v>1.030574938671183</v>
       </c>
       <c r="N12">
-        <v>0.988979200522315</v>
+        <v>0.9972315784910519</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.033410624951451</v>
+        <v>1.033589162220137</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.04131312114628</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040457440833195</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023507481479695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9267716172696501</v>
+        <v>0.9320449473387433</v>
       </c>
       <c r="D13">
-        <v>1.028558867948601</v>
+        <v>1.027237795970062</v>
       </c>
       <c r="E13">
-        <v>0.9444743520076995</v>
+        <v>0.9490191374925173</v>
       </c>
       <c r="F13">
-        <v>1.016264840006619</v>
+        <v>1.016451102750806</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048317607203345</v>
+        <v>1.047777224570618</v>
       </c>
       <c r="J13">
-        <v>0.9599290365041854</v>
+        <v>0.9649278846828617</v>
       </c>
       <c r="K13">
-        <v>1.043116374015205</v>
+        <v>1.041818781090668</v>
       </c>
       <c r="L13">
-        <v>0.9607007616532464</v>
+        <v>0.9651452887026487</v>
       </c>
       <c r="M13">
-        <v>1.031043916552265</v>
+        <v>1.031226770289041</v>
       </c>
       <c r="N13">
-        <v>0.9892691436062293</v>
+        <v>0.9974068179140033</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.034237936195585</v>
+        <v>1.034382485194713</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.041623774863685</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040721602526557</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023600554063827</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9283739152498159</v>
+        <v>0.9334647079051717</v>
       </c>
       <c r="D14">
-        <v>1.029188983123044</v>
+        <v>1.027786146376195</v>
       </c>
       <c r="E14">
-        <v>0.945809966523588</v>
+        <v>0.9501901568608161</v>
       </c>
       <c r="F14">
-        <v>1.017189262395728</v>
+        <v>1.017298597938711</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048507792664744</v>
+        <v>1.047934362347818</v>
       </c>
       <c r="J14">
-        <v>0.9611033706992224</v>
+        <v>0.9659336565286987</v>
       </c>
       <c r="K14">
-        <v>1.04359693669641</v>
+        <v>1.042218722658188</v>
       </c>
       <c r="L14">
-        <v>0.9618501033942222</v>
+        <v>0.9661350854945956</v>
       </c>
       <c r="M14">
-        <v>1.03181068884845</v>
+        <v>1.031918049774967</v>
       </c>
       <c r="N14">
-        <v>0.9897446935635567</v>
+        <v>0.9976539086093476</v>
       </c>
       <c r="O14">
-        <v>1.029999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.035018035304361</v>
+        <v>1.035102894424048</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.041964954923037</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.041005915550079</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023687802044861</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9292870725152209</v>
+        <v>0.9342779004212245</v>
       </c>
       <c r="D15">
-        <v>1.029490278858216</v>
+        <v>1.028049760825163</v>
       </c>
       <c r="E15">
-        <v>0.9465589937386492</v>
+        <v>0.9508499464533602</v>
       </c>
       <c r="F15">
-        <v>1.017623594305498</v>
+        <v>1.017691913602784</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048589832665066</v>
+        <v>1.048001221707792</v>
       </c>
       <c r="J15">
-        <v>0.9617580442724549</v>
+        <v>0.9664961049807637</v>
       </c>
       <c r="K15">
-        <v>1.04380772437066</v>
+        <v>1.042392300444888</v>
       </c>
       <c r="L15">
-        <v>0.9624863599557616</v>
+        <v>0.9666848771048315</v>
       </c>
       <c r="M15">
-        <v>1.032150510923972</v>
+        <v>1.032217606086304</v>
       </c>
       <c r="N15">
-        <v>0.9899926662811761</v>
+        <v>0.9977778316228491</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.035324290103846</v>
+        <v>1.035377321372936</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042119804612521</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041135027631582</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02372322009321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.934293814353045</v>
+        <v>0.9387854344904358</v>
       </c>
       <c r="D16">
-        <v>1.030899191537796</v>
+        <v>1.029291157898089</v>
       </c>
       <c r="E16">
-        <v>0.950617695267639</v>
+        <v>0.9544682611954164</v>
       </c>
       <c r="F16">
-        <v>1.019665313010302</v>
+        <v>1.019529227257906</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04893040259387</v>
+        <v>1.048273098615461</v>
       </c>
       <c r="J16">
-        <v>0.9652946886062683</v>
+        <v>0.9695720854587131</v>
       </c>
       <c r="K16">
-        <v>1.044696989550001</v>
+        <v>1.043115765923088</v>
       </c>
       <c r="L16">
-        <v>0.9659002239500694</v>
+        <v>0.969672060084146</v>
       </c>
       <c r="M16">
-        <v>1.033652692916802</v>
+        <v>1.033518936829259</v>
       </c>
       <c r="N16">
-        <v>0.991252845592394</v>
+        <v>0.998423603737389</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.03647276856408</v>
+        <v>1.036367046175969</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042751675926376</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041649976695643</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023859653801331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9372804814230061</v>
+        <v>0.9415185050284073</v>
       </c>
       <c r="D17">
-        <v>1.031649595935391</v>
+        <v>1.02996086945049</v>
       </c>
       <c r="E17">
-        <v>0.9530226604235893</v>
+        <v>0.9566524926778319</v>
       </c>
       <c r="F17">
-        <v>1.020739640505689</v>
+        <v>1.020498906813751</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049089109014599</v>
+        <v>1.048398011857635</v>
       </c>
       <c r="J17">
-        <v>0.9673821729841898</v>
+        <v>0.9714256053593546</v>
       </c>
       <c r="K17">
-        <v>1.045124552730395</v>
+        <v>1.043463206569902</v>
       </c>
       <c r="L17">
-        <v>0.9679077568488754</v>
+        <v>0.9714657878250945</v>
       </c>
       <c r="M17">
-        <v>1.034393544720361</v>
+        <v>1.034156815159508</v>
       </c>
       <c r="N17">
-        <v>0.991966450244983</v>
+        <v>0.9988256204674945</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.036928912270626</v>
+        <v>1.036741779656418</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.043056540767502</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041898442937363</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023918385995166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9388408259565153</v>
+        <v>0.9429704683057302</v>
       </c>
       <c r="D18">
-        <v>1.031872120795555</v>
+        <v>1.03016563666333</v>
       </c>
       <c r="E18">
-        <v>0.9542492201251015</v>
+        <v>0.9577871624863977</v>
       </c>
       <c r="F18">
-        <v>1.021035291594662</v>
+        <v>1.020752061620394</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049092754846487</v>
+        <v>1.048393760342477</v>
       </c>
       <c r="J18">
-        <v>0.9684315461322491</v>
+        <v>0.9723756880669561</v>
       </c>
       <c r="K18">
-        <v>1.045162479635408</v>
+        <v>1.043483223364973</v>
       </c>
       <c r="L18">
-        <v>0.9689073408114974</v>
+        <v>0.9723766243310484</v>
       </c>
       <c r="M18">
-        <v>1.034500545167521</v>
+        <v>1.034221950232319</v>
       </c>
       <c r="N18">
-        <v>0.9922806655125848</v>
+        <v>0.9990076814181859</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.036774968944536</v>
+        <v>1.036554695874061</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.043071825139536</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.04189992696647</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023904934434052</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9391086407159203</v>
+        <v>0.9432405845169998</v>
       </c>
       <c r="D19">
-        <v>1.031632098288183</v>
+        <v>1.029961750385225</v>
       </c>
       <c r="E19">
-        <v>0.9544106305064052</v>
+        <v>0.957953678061789</v>
       </c>
       <c r="F19">
-        <v>1.020614690785115</v>
+        <v>1.020340061741255</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048960847907652</v>
+        <v>1.04827732718337</v>
       </c>
       <c r="J19">
-        <v>0.9685377902466371</v>
+        <v>0.9724853848916449</v>
       </c>
       <c r="K19">
-        <v>1.044864540124868</v>
+        <v>1.043220716318829</v>
       </c>
       <c r="L19">
-        <v>0.9689965390570702</v>
+        <v>0.9724712335775214</v>
       </c>
       <c r="M19">
-        <v>1.034024140658876</v>
+        <v>1.033753986603232</v>
       </c>
       <c r="N19">
-        <v>0.992243001307679</v>
+        <v>0.9989711504308713</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.036071423681301</v>
+        <v>1.035857754041434</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.042867515054812</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041721297045289</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023827681789861</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9357510048790805</v>
+        <v>0.9401846151927881</v>
       </c>
       <c r="D20">
-        <v>1.030086551614402</v>
+        <v>1.028600692887111</v>
       </c>
       <c r="E20">
-        <v>0.9515827864616634</v>
+        <v>0.9553933714748043</v>
       </c>
       <c r="F20">
-        <v>1.018240758473264</v>
+        <v>1.018112931885314</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048449211951028</v>
+        <v>1.047845742297012</v>
       </c>
       <c r="J20">
-        <v>0.9660048300302951</v>
+        <v>0.9702333261688615</v>
       </c>
       <c r="K20">
-        <v>1.043620220653751</v>
+        <v>1.042158609596103</v>
       </c>
       <c r="L20">
-        <v>0.9665339959732204</v>
+        <v>0.9702687039243844</v>
       </c>
       <c r="M20">
-        <v>1.031970273995576</v>
+        <v>1.03184459280675</v>
       </c>
       <c r="N20">
-        <v>0.9912170489974008</v>
+        <v>0.9983073912114431</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.033915802786217</v>
+        <v>1.033816338614761</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.041991637966823</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.040974642058234</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023571780411787</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9265018485078123</v>
+        <v>0.9319049946247769</v>
       </c>
       <c r="D21">
-        <v>1.027322033492932</v>
+        <v>1.026184362196672</v>
       </c>
       <c r="E21">
-        <v>0.9440478855689403</v>
+        <v>0.9487221238408228</v>
       </c>
       <c r="F21">
-        <v>1.014245658462104</v>
+        <v>1.014520889503876</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047746272713798</v>
+        <v>1.047288588454533</v>
       </c>
       <c r="J21">
-        <v>0.9594297845372284</v>
+        <v>0.9645539428341376</v>
       </c>
       <c r="K21">
-        <v>1.041803632916806</v>
+        <v>1.04068608302437</v>
       </c>
       <c r="L21">
-        <v>0.9601729182190715</v>
+        <v>0.96474475466388</v>
       </c>
       <c r="M21">
-        <v>1.028962076824177</v>
+        <v>1.029232284230135</v>
       </c>
       <c r="N21">
-        <v>0.9888255493302062</v>
+        <v>0.9971237250756374</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.03149387439127</v>
+        <v>1.031707728119936</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.04071046113212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.039937051917182</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023284581812932</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.920489933792648</v>
+        <v>0.9265357271219252</v>
       </c>
       <c r="D22">
-        <v>1.025568638439186</v>
+        <v>1.024657679956787</v>
       </c>
       <c r="E22">
-        <v>0.9391680892201756</v>
+        <v>0.9444152036364918</v>
       </c>
       <c r="F22">
-        <v>1.011725832903922</v>
+        <v>1.012268775760084</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047291919315294</v>
+        <v>1.046928854718035</v>
       </c>
       <c r="J22">
-        <v>0.9551650217116181</v>
+        <v>0.9608768652310345</v>
       </c>
       <c r="K22">
-        <v>1.040650041007506</v>
+        <v>1.039755994146271</v>
       </c>
       <c r="L22">
-        <v>0.9560492803671803</v>
+        <v>0.961174529935084</v>
       </c>
       <c r="M22">
-        <v>1.027068523556374</v>
+        <v>1.02760104188322</v>
       </c>
       <c r="N22">
-        <v>0.987277130685512</v>
+        <v>0.9963514310162194</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.029995233288978</v>
+        <v>1.030416691974186</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.039881432499092</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.039264742635133</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023101898593915</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9236937931481074</v>
+        <v>0.9293547571170848</v>
       </c>
       <c r="D23">
-        <v>1.026488040042955</v>
+        <v>1.025448479474342</v>
       </c>
       <c r="E23">
-        <v>0.941766020226358</v>
+        <v>0.9466673322877031</v>
       </c>
       <c r="F23">
-        <v>1.013061680479233</v>
+        <v>1.013445420366822</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047528725214023</v>
+        <v>1.047112108264023</v>
       </c>
       <c r="J23">
-        <v>0.9574362082508424</v>
+        <v>0.9627953965227254</v>
       </c>
       <c r="K23">
-        <v>1.041251314754667</v>
+        <v>1.040230568207638</v>
       </c>
       <c r="L23">
-        <v>0.9582446086355623</v>
+        <v>0.9630355338808316</v>
       </c>
       <c r="M23">
-        <v>1.028071824605773</v>
+        <v>1.028448390176442</v>
       </c>
       <c r="N23">
-        <v>0.9881001326985116</v>
+        <v>0.9967052371392582</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.030789290143766</v>
+        <v>1.031087320568406</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.040296992401184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.039589778137681</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023193552753262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9358424708130986</v>
+        <v>0.9402723745440371</v>
       </c>
       <c r="D24">
-        <v>1.030049666988826</v>
+        <v>1.028567976601556</v>
       </c>
       <c r="E24">
-        <v>0.9516487221167872</v>
+        <v>0.9554564450359549</v>
       </c>
       <c r="F24">
-        <v>1.01819717591898</v>
+        <v>1.018069473105162</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048424501034643</v>
+        <v>1.047823300464084</v>
       </c>
       <c r="J24">
-        <v>0.9660553104400873</v>
+        <v>0.9702806205414498</v>
       </c>
       <c r="K24">
-        <v>1.043568856038188</v>
+        <v>1.042111316482763</v>
       </c>
       <c r="L24">
-        <v>0.9665816997356774</v>
+        <v>0.9703137152181633</v>
       </c>
       <c r="M24">
-        <v>1.031912091088163</v>
+        <v>1.031786529082971</v>
       </c>
       <c r="N24">
-        <v>0.9912248211199023</v>
+        <v>0.9983090262347666</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.033828638649226</v>
+        <v>1.033729263802721</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.04192813932763</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.040911341787311</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023556171311935</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9490805292400663</v>
+        <v>0.9527346171856931</v>
       </c>
       <c r="D25">
-        <v>1.034027329114171</v>
+        <v>1.032163199207585</v>
       </c>
       <c r="E25">
-        <v>0.9624699169944757</v>
+        <v>0.9656156661172373</v>
       </c>
       <c r="F25">
-        <v>1.023905858941443</v>
+        <v>1.023425129431538</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049371595204901</v>
+        <v>1.048610571183727</v>
       </c>
       <c r="J25">
-        <v>0.9754520499698504</v>
+        <v>0.9789645107089198</v>
       </c>
       <c r="K25">
-        <v>1.046119419367929</v>
+        <v>1.044281927931057</v>
       </c>
       <c r="L25">
-        <v>0.9756801889427058</v>
+        <v>0.978772286515438</v>
       </c>
       <c r="M25">
-        <v>1.036144065182776</v>
+        <v>1.035670366832931</v>
       </c>
       <c r="N25">
-        <v>0.9946269225433024</v>
+        <v>1.00077201338874</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.037177985838806</v>
+        <v>1.036803083518367</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043728652354494</v>
+        <v>1.042442911105042</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023969711822295</v>
       </c>
     </row>
   </sheetData>
